--- a/результаты/анализ.xlsx
+++ b/результаты/анализ.xlsx
@@ -2,16 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Gauss" sheetId="2" r:id="rId2"/>
     <sheet name="CG" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Размер</t>
   </si>
@@ -73,11 +73,29 @@
   <si>
     <t>CG</t>
   </si>
+  <si>
+    <t>Гаусс параллель(6)</t>
+  </si>
+  <si>
+    <t>Гаусс параллель(10)</t>
+  </si>
+  <si>
+    <t>CG параллель(6)</t>
+  </si>
+  <si>
+    <t>CG параллель(10)</t>
+  </si>
+  <si>
+    <t>S(6)</t>
+  </si>
+  <si>
+    <t>S(10)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -103,17 +121,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -127,7 +259,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -161,7 +293,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Сравнение скорости вычисления</a:t>
+              <a:t>Сравнение времени</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>вычисления</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -192,7 +332,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -274,40 +414,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.3450000000000001E-3</c:v>
+                  <c:v>1.2620000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1738999999999999E-2</c:v>
+                  <c:v>8.6339999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5536E-2</c:v>
+                  <c:v>2.9537000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8455000000000002E-2</c:v>
+                  <c:v>6.5143000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.139513</c:v>
+                  <c:v>0.12603400000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.241228</c:v>
+                  <c:v>0.21890200000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37183300000000002</c:v>
+                  <c:v>0.34907199999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55565500000000001</c:v>
+                  <c:v>0.51637</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79825500000000005</c:v>
+                  <c:v>0.74017699999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0974360000000001</c:v>
+                  <c:v>1.0138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-09C4-4BA1-A4F0-F0C9D1BB6E12}"/>
             </c:ext>
@@ -318,7 +458,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$G$1</c:f>
+              <c:f>Лист1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -341,45 +481,45 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$G$2:$G$11</c:f>
+              <c:f>Лист1!$I$2:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.4520000000000003E-3</c:v>
+                  <c:v>3.973E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3263000000000003E-2</c:v>
+                  <c:v>4.5429999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19159300000000001</c:v>
+                  <c:v>0.109569</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48985000000000001</c:v>
+                  <c:v>0.31512299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70483600000000002</c:v>
+                  <c:v>0.62316499999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.271868</c:v>
+                  <c:v>1.1881969999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3698589999999999</c:v>
+                  <c:v>1.8522970000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.69855</c:v>
+                  <c:v>2.7616909999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5047269999999999</c:v>
+                  <c:v>3.9783729999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.9426370000000004</c:v>
+                  <c:v>5.5230009999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-09C4-4BA1-A4F0-F0C9D1BB6E12}"/>
             </c:ext>
@@ -394,11 +534,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1075601008"/>
-        <c:axId val="1075605168"/>
+        <c:axId val="855560800"/>
+        <c:axId val="855571136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1075601008"/>
+        <c:axId val="855560800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -452,10 +592,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1075605168"/>
+        <c:crossAx val="855571136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -463,7 +603,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1075605168"/>
+        <c:axId val="855571136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -511,10 +651,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1075601008"/>
+        <c:crossAx val="855560800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -554,7 +694,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -584,7 +724,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -596,7 +736,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -644,7 +784,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14354701071154483"/>
+          <c:y val="2.0997375328083989E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -670,7 +817,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -752,40 +899,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.99628252788104088</c:v>
+                  <c:v>0.43834664814171592</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78907913791634732</c:v>
+                  <c:v>0.95922675258304624</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.009882290934645</c:v>
+                  <c:v>1.1906719877453946</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.059893360601855</c:v>
+                  <c:v>1.4557094972067042</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0273737931232214</c:v>
+                  <c:v>1.5195620983590745</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97800835723879487</c:v>
+                  <c:v>1.6280083296147554</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0038834638130558</c:v>
+                  <c:v>1.6832237936571464</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0136811510739578</c:v>
+                  <c:v>1.7234796017476111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99684436677502797</c:v>
+                  <c:v>1.7964719902334125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0090565645741527</c:v>
+                  <c:v>1.8088390101165093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3EDF-4985-9CB0-B5C536DD0D7F}"/>
             </c:ext>
@@ -863,40 +1010,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0059479553903345</c:v>
+                  <c:v>0.34052887209929844</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7705937473379334</c:v>
+                  <c:v>0.99665242987417735</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97178056921995781</c:v>
+                  <c:v>1.4075291875148916</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0450661018187131</c:v>
+                  <c:v>1.8704740574841363</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96708550457663456</c:v>
+                  <c:v>2.2604562737642588</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98029250335781914</c:v>
+                  <c:v>2.6100777412123817</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0102546035451399</c:v>
+                  <c:v>2.8545073923851891</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0149643213864719</c:v>
+                  <c:v>3.0130647636497314</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0011312174681022</c:v>
+                  <c:v>3.129778642254593</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0002478504441259</c:v>
+                  <c:v>3.2291663348739137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3EDF-4985-9CB0-B5C536DD0D7F}"/>
             </c:ext>
@@ -911,7 +1058,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S(8)</c:v>
+                  <c:v>S(6)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -974,40 +1121,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.95315985130111514</c:v>
+                  <c:v>0.27251133664435329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.79137916347218673</c:v>
+                  <c:v>0.94319423202971364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86498594518622629</c:v>
+                  <c:v>1.3675803315121771</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0126798626835147</c:v>
+                  <c:v>1.9169290527616751</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99131980532280151</c:v>
+                  <c:v>2.3571415212553068</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96679489943124353</c:v>
+                  <c:v>2.8886513591976777</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0031922933144719</c:v>
+                  <c:v>3.3077987302188951</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0227317310201474</c:v>
+                  <c:v>3.7382088277240051</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99409587161997093</c:v>
+                  <c:v>3.9114790310306922</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99870607488728269</c:v>
+                  <c:v>4.1498327868718254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-3EDF-4985-9CB0-B5C536DD0D7F}"/>
             </c:ext>
@@ -1022,7 +1169,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S(12)</c:v>
+                  <c:v>S(8)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1085,44 +1232,178 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.98438661710037179</c:v>
+                  <c:v>0.22547793460782561</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.80432745549024631</c:v>
+                  <c:v>0.8017457516946791</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88758345045678144</c:v>
+                  <c:v>1.1373945858523624</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.034372945730772</c:v>
+                  <c:v>1.8949588387584726</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99839441485739677</c:v>
+                  <c:v>2.3321059156597523</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99131112474505456</c:v>
+                  <c:v>2.7601154976106117</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0004679520107143</c:v>
+                  <c:v>3.31984745166291</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0080787539030513</c:v>
+                  <c:v>3.5327399481415096</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0036241551885048</c:v>
+                  <c:v>3.7551659234230805</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99654467322012397</c:v>
+                  <c:v>4.0460882093525381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-3EDF-4985-9CB0-B5C536DD0D7F}"/>
             </c:ext>
           </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gauss!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S(10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Gauss!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.19000301114122253</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69735885631209105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2440298193151667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7284353524901166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.347395280400812</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8363631651917025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0068307305350022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5171713869249528</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8232480539672209</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9851412173981413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gauss!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S(12)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Gauss!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.16815456362425049</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44123058053965658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1368692506062121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6637211084152728</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3353468722205752</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7292812168817409</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2215290339252096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5196646445368414</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7250418967001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.821507192183589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1133,11 +1414,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1075609744"/>
-        <c:axId val="1075595600"/>
+        <c:axId val="855570048"/>
+        <c:axId val="855562976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1075609744"/>
+        <c:axId val="855570048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1191,10 +1472,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1075595600"/>
+        <c:crossAx val="855562976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1202,10 +1483,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1075595600"/>
+        <c:axId val="855562976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.75000000000000011"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1251,12 +1532,13 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1075609744"/>
+        <c:crossAx val="855570048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1294,7 +1576,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1324,7 +1606,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1336,7 +1618,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1438,7 +1720,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1520,40 +1802,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.77929324240545572</c:v>
+                  <c:v>0.56211092246745897</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2067124332570556</c:v>
+                  <c:v>1.0884304846785979</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86303257425897595</c:v>
+                  <c:v>1.666043244229541</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98968051444319682</c:v>
+                  <c:v>1.8847858462973928</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99711138477603301</c:v>
+                  <c:v>1.8825030963960969</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98087458761443802</c:v>
+                  <c:v>1.9374904201439507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98783272534548183</c:v>
+                  <c:v>1.8138328603631393</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99474667716635989</c:v>
+                  <c:v>1.8450499094408046</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99452242055955886</c:v>
+                  <c:v>1.8827766695771722</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9936775542574785</c:v>
+                  <c:v>1.8774248792234403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-311F-4313-B886-110114FD9BCE}"/>
             </c:ext>
@@ -1631,40 +1913,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.95133292002479852</c:v>
+                  <c:v>1.0197638603696098</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.031181379007466</c:v>
+                  <c:v>0.26397903507905424</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3506182376182847</c:v>
+                  <c:v>2.9899306882060799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99346126365213838</c:v>
+                  <c:v>3.3523010148720238</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98184258465799135</c:v>
+                  <c:v>3.5212035598248339</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97745206263543072</c:v>
+                  <c:v>3.6690412667827714</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99257090578567231</c:v>
+                  <c:v>3.5371860582358154</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99352289536133476</c:v>
+                  <c:v>3.6477325260402216</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99364822773943906</c:v>
+                  <c:v>3.5087635898923919</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99442469731871552</c:v>
+                  <c:v>3.6233174177684879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-311F-4313-B886-110114FD9BCE}"/>
             </c:ext>
@@ -1679,7 +1961,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S(8)</c:v>
+                  <c:v>S(6)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1742,40 +2024,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.83384996900185993</c:v>
+                  <c:v>0.63905420620878228</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1569470448188983</c:v>
+                  <c:v>0.33248437477129344</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76207377096240458</c:v>
+                  <c:v>3.2177909606178967</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99918138205573137</c:v>
+                  <c:v>4.8085421308023317</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98196885516630827</c:v>
+                  <c:v>4.1713132476086558</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9829400535275673</c:v>
+                  <c:v>5.120391119231896</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98728789542826567</c:v>
+                  <c:v>4.8929172378997645</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99250300624660803</c:v>
+                  <c:v>4.637156477045858</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9947916932591031</c:v>
+                  <c:v>4.6036392881112729</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99442015388118099</c:v>
+                  <c:v>4.7767362693722442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-311F-4313-B886-110114FD9BCE}"/>
             </c:ext>
@@ -1790,7 +2072,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S(12)</c:v>
+                  <c:v>S(8)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1853,44 +2135,178 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.84624922504649713</c:v>
+                  <c:v>0.66829268292682931</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7720685111989458</c:v>
+                  <c:v>0.73871119855607403</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72806417771004162</c:v>
+                  <c:v>2.9131394235882166</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98918036133510256</c:v>
+                  <c:v>3.1066495785478385</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99211873400337103</c:v>
+                  <c:v>3.3765998027677537</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97988863624212574</c:v>
+                  <c:v>3.6473717492203037</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99183437645313943</c:v>
+                  <c:v>3.4954342078695047</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99325004522671889</c:v>
+                  <c:v>3.6616566275842959</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99473131224156308</c:v>
+                  <c:v>3.6730913579654199</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99705467454936247</c:v>
+                  <c:v>3.4845080428210187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-311F-4313-B886-110114FD9BCE}"/>
             </c:ext>
           </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CG!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S(10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>CG!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.73100275988960439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41125031683383423</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6283733538033438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9594285570689043</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9198190944659004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2485679550899276</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1911154453590616</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2330994291880488</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5092670464463094</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.381515450332917</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CG!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S(12)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>CG!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.53465213295653347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92066065457493151</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4360576281737738</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1132483698873736</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2296649743436596</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5162287892328905</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8396331665512697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8551612173733387</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5433079351790417</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.210618563617456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1901,11 +2317,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1075609744"/>
-        <c:axId val="1075595600"/>
+        <c:axId val="855566240"/>
+        <c:axId val="855565152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1075609744"/>
+        <c:axId val="855566240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1959,10 +2375,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1075595600"/>
+        <c:crossAx val="855565152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1970,11 +2386,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1075595600"/>
+        <c:axId val="855565152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.8"/>
-          <c:min val="0.70000000000000007"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2020,13 +2435,13 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1075609744"/>
+        <c:crossAx val="855566240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.1"/>
+        <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2064,7 +2479,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2094,7 +2509,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3777,15 +4192,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>66673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3812,16 +4227,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3850,15 +4265,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4145,403 +4560,641 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>100</v>
       </c>
       <c r="B2">
-        <v>1.3450000000000001E-3</v>
+        <v>1.2620000000000001E-3</v>
       </c>
       <c r="C2">
-        <v>1.34E-3</v>
+        <v>2.879E-3</v>
       </c>
       <c r="D2">
-        <v>1.353E-3</v>
+        <v>3.7060000000000001E-3</v>
       </c>
       <c r="E2">
-        <v>1.2819999999999999E-3</v>
+        <v>4.6309999999999997E-3</v>
       </c>
       <c r="F2">
-        <v>1.3240000000000001E-3</v>
+        <v>5.5970000000000004E-3</v>
       </c>
       <c r="G2">
-        <v>6.4520000000000003E-3</v>
+        <v>6.6420000000000003E-3</v>
       </c>
       <c r="H2">
-        <v>5.0280000000000004E-3</v>
+        <v>7.5050000000000004E-3</v>
       </c>
       <c r="I2">
-        <v>6.1380000000000002E-3</v>
+        <v>3.973E-3</v>
       </c>
       <c r="J2">
-        <v>5.3800000000000002E-3</v>
+        <v>7.0679999999999996E-3</v>
       </c>
       <c r="K2">
-        <v>5.4599999999999996E-3</v>
+        <v>3.8960000000000002E-3</v>
+      </c>
+      <c r="L2">
+        <v>6.2170000000000003E-3</v>
+      </c>
+      <c r="M2">
+        <v>5.9449999999999998E-3</v>
+      </c>
+      <c r="N2">
+        <v>5.4349999999999997E-3</v>
+      </c>
+      <c r="O2">
+        <v>7.4310000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>200</v>
       </c>
       <c r="B3">
-        <v>1.1738999999999999E-2</v>
+        <v>8.6339999999999993E-3</v>
       </c>
       <c r="C3">
-        <v>9.2630000000000004E-3</v>
+        <v>9.0010000000000003E-3</v>
       </c>
       <c r="D3">
-        <v>9.0460000000000002E-3</v>
+        <v>8.6630000000000006E-3</v>
       </c>
       <c r="E3">
-        <v>9.2899999999999996E-3</v>
+        <v>9.1540000000000007E-3</v>
       </c>
       <c r="F3">
-        <v>9.4420000000000007E-3</v>
+        <v>1.0769000000000001E-2</v>
       </c>
       <c r="G3">
-        <v>4.3263000000000003E-2</v>
+        <v>1.2381E-2</v>
       </c>
       <c r="H3">
-        <v>5.2206000000000002E-2</v>
+        <v>1.9567999999999999E-2</v>
       </c>
       <c r="I3">
-        <v>4.4611999999999999E-2</v>
+        <v>4.5429999999999998E-2</v>
       </c>
       <c r="J3">
-        <v>5.0053E-2</v>
+        <v>4.1738999999999998E-2</v>
       </c>
       <c r="K3">
-        <v>7.6664999999999997E-2</v>
+        <v>0.172097</v>
+      </c>
+      <c r="L3">
+        <v>0.13663800000000001</v>
+      </c>
+      <c r="M3">
+        <v>6.1498999999999998E-2</v>
+      </c>
+      <c r="N3">
+        <v>0.110468</v>
+      </c>
+      <c r="O3">
+        <v>4.9345E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>300</v>
       </c>
       <c r="B4">
-        <v>4.5536E-2</v>
+        <v>2.9537000000000001E-2</v>
       </c>
       <c r="C4">
-        <v>4.5985999999999999E-2</v>
+        <v>2.4806999999999999E-2</v>
       </c>
       <c r="D4">
-        <v>4.4250999999999999E-2</v>
+        <v>2.0985E-2</v>
       </c>
       <c r="E4">
-        <v>3.9387999999999999E-2</v>
+        <v>2.1597999999999999E-2</v>
       </c>
       <c r="F4">
-        <v>4.0417000000000002E-2</v>
+        <v>2.5968999999999999E-2</v>
       </c>
       <c r="G4">
-        <v>0.19159300000000001</v>
+        <v>2.3743E-2</v>
       </c>
       <c r="H4">
-        <v>0.165351</v>
+        <v>2.5981000000000001E-2</v>
       </c>
       <c r="I4">
-        <v>0.25876900000000003</v>
+        <v>0.109569</v>
       </c>
       <c r="J4">
-        <v>0.146008</v>
+        <v>6.5766000000000005E-2</v>
       </c>
       <c r="K4">
-        <v>0.139492</v>
+        <v>3.6645999999999998E-2</v>
+      </c>
+      <c r="L4">
+        <v>3.4050999999999998E-2</v>
+      </c>
+      <c r="M4">
+        <v>3.7612E-2</v>
+      </c>
+      <c r="N4">
+        <v>4.1687000000000002E-2</v>
+      </c>
+      <c r="O4">
+        <v>4.4977999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>400</v>
       </c>
       <c r="B5">
-        <v>6.8455000000000002E-2</v>
+        <v>6.5143000000000006E-2</v>
       </c>
       <c r="C5">
-        <v>7.2554999999999994E-2</v>
+        <v>4.4749999999999998E-2</v>
       </c>
       <c r="D5">
-        <v>7.1540000000000006E-2</v>
+        <v>3.4826999999999997E-2</v>
       </c>
       <c r="E5">
-        <v>6.9322999999999996E-2</v>
+        <v>3.3982999999999999E-2</v>
       </c>
       <c r="F5">
-        <v>7.0807999999999996E-2</v>
+        <v>3.4376999999999998E-2</v>
       </c>
       <c r="G5">
-        <v>0.48985000000000001</v>
+        <v>3.7689E-2</v>
       </c>
       <c r="H5">
-        <v>0.48479499999999998</v>
+        <v>3.9155000000000002E-2</v>
       </c>
       <c r="I5">
-        <v>0.486647</v>
+        <v>0.31512299999999999</v>
       </c>
       <c r="J5">
-        <v>0.48944900000000002</v>
+        <v>0.16719300000000001</v>
       </c>
       <c r="K5">
-        <v>0.48454999999999998</v>
+        <v>9.4002000000000002E-2</v>
+      </c>
+      <c r="L5">
+        <v>6.5533999999999995E-2</v>
+      </c>
+      <c r="M5">
+        <v>0.101435</v>
+      </c>
+      <c r="N5">
+        <v>7.9588000000000006E-2</v>
+      </c>
+      <c r="O5">
+        <v>0.10122</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>500</v>
       </c>
       <c r="B6">
-        <v>0.139513</v>
+        <v>0.12603400000000001</v>
       </c>
       <c r="C6">
-        <v>0.14333199999999999</v>
+        <v>8.2941000000000001E-2</v>
       </c>
       <c r="D6">
-        <v>0.13492100000000001</v>
+        <v>5.5756E-2</v>
       </c>
       <c r="E6">
-        <v>0.13830200000000001</v>
+        <v>5.3469000000000003E-2</v>
       </c>
       <c r="F6">
-        <v>0.139289</v>
+        <v>5.4043000000000001E-2</v>
       </c>
       <c r="G6">
-        <v>0.70483600000000002</v>
+        <v>5.3691000000000003E-2</v>
       </c>
       <c r="H6">
-        <v>0.70279999999999998</v>
+        <v>5.3968000000000002E-2</v>
       </c>
       <c r="I6">
-        <v>0.69203800000000004</v>
+        <v>0.62316499999999997</v>
       </c>
       <c r="J6">
-        <v>0.69212700000000005</v>
+        <v>0.33102999999999999</v>
       </c>
       <c r="K6">
-        <v>0.69928100000000004</v>
+        <v>0.17697499999999999</v>
+      </c>
+      <c r="L6">
+        <v>0.149393</v>
+      </c>
+      <c r="M6">
+        <v>0.184554</v>
+      </c>
+      <c r="N6">
+        <v>0.15897800000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.14733199999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>600</v>
       </c>
       <c r="B7">
-        <v>0.241228</v>
+        <v>0.21890200000000001</v>
       </c>
       <c r="C7">
-        <v>0.23592299999999999</v>
+        <v>0.13446</v>
       </c>
       <c r="D7">
-        <v>0.23647399999999999</v>
+        <v>8.3867999999999998E-2</v>
       </c>
       <c r="E7">
-        <v>0.23321800000000001</v>
+        <v>7.578E-2</v>
       </c>
       <c r="F7">
-        <v>0.23913200000000001</v>
+        <v>7.9309000000000004E-2</v>
       </c>
       <c r="G7">
-        <v>1.271868</v>
+        <v>7.7176999999999996E-2</v>
       </c>
       <c r="H7">
-        <v>1.2475430000000001</v>
+        <v>8.0204999999999999E-2</v>
       </c>
       <c r="I7">
-        <v>1.24319</v>
+        <v>1.1881969999999999</v>
       </c>
       <c r="J7">
-        <v>1.25017</v>
+        <v>0.61326599999999998</v>
       </c>
       <c r="K7">
-        <v>1.246289</v>
+        <v>0.32384400000000002</v>
+      </c>
+      <c r="L7">
+        <v>0.23205200000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.325768</v>
+      </c>
+      <c r="N7">
+        <v>0.27966999999999997</v>
+      </c>
+      <c r="O7">
+        <v>0.337918</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>700</v>
       </c>
       <c r="B8">
-        <v>0.37183300000000002</v>
+        <v>0.34907199999999999</v>
       </c>
       <c r="C8">
-        <v>0.37327700000000003</v>
+        <v>0.20738300000000001</v>
       </c>
       <c r="D8">
-        <v>0.37564599999999998</v>
+        <v>0.12228799999999999</v>
       </c>
       <c r="E8">
-        <v>0.37302000000000002</v>
+        <v>0.10553</v>
       </c>
       <c r="F8">
-        <v>0.37200699999999998</v>
+        <v>0.105147</v>
       </c>
       <c r="G8">
-        <v>3.3698589999999999</v>
+        <v>0.116093</v>
       </c>
       <c r="H8">
-        <v>3.3288570000000002</v>
+        <v>0.10835599999999999</v>
       </c>
       <c r="I8">
-        <v>3.344824</v>
+        <v>1.8522970000000001</v>
       </c>
       <c r="J8">
-        <v>3.3270209999999998</v>
+        <v>1.0212060000000001</v>
       </c>
       <c r="K8">
-        <v>3.3423419999999999</v>
+        <v>0.52366400000000002</v>
+      </c>
+      <c r="L8">
+        <v>0.37856699999999999</v>
+      </c>
+      <c r="M8">
+        <v>0.52991900000000003</v>
+      </c>
+      <c r="N8">
+        <v>0.44195800000000002</v>
+      </c>
+      <c r="O8">
+        <v>0.38273499999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>800</v>
       </c>
       <c r="B9">
-        <v>0.55565500000000001</v>
+        <v>0.51637</v>
       </c>
       <c r="C9">
-        <v>0.56325700000000001</v>
+        <v>0.29960900000000001</v>
       </c>
       <c r="D9">
-        <v>0.56396999999999997</v>
+        <v>0.171377</v>
       </c>
       <c r="E9">
-        <v>0.56828599999999996</v>
+        <v>0.13813300000000001</v>
       </c>
       <c r="F9">
-        <v>0.56014399999999998</v>
+        <v>0.14616699999999999</v>
       </c>
       <c r="G9">
-        <v>4.69855</v>
+        <v>0.146814</v>
       </c>
       <c r="H9">
-        <v>4.6738670000000004</v>
+        <v>0.14671000000000001</v>
       </c>
       <c r="I9">
-        <v>4.6681169999999996</v>
+        <v>2.7616909999999999</v>
       </c>
       <c r="J9">
-        <v>4.6633250000000004</v>
+        <v>1.4968109999999999</v>
       </c>
       <c r="K9">
-        <v>4.6668349999999998</v>
+        <v>0.75709800000000005</v>
+      </c>
+      <c r="L9">
+        <v>0.595557</v>
+      </c>
+      <c r="M9">
+        <v>0.75421899999999997</v>
+      </c>
+      <c r="N9">
+        <v>0.65240399999999998</v>
+      </c>
+      <c r="O9">
+        <v>0.71636200000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>900</v>
       </c>
       <c r="B10">
-        <v>0.79825500000000005</v>
+        <v>0.74017699999999997</v>
       </c>
       <c r="C10">
-        <v>0.795736</v>
+        <v>0.41201700000000002</v>
       </c>
       <c r="D10">
-        <v>0.79915800000000004</v>
+        <v>0.23649500000000001</v>
       </c>
       <c r="E10">
-        <v>0.79354199999999997</v>
+        <v>0.18923200000000001</v>
       </c>
       <c r="F10">
-        <v>0.80114799999999997</v>
+        <v>0.19710900000000001</v>
       </c>
       <c r="G10">
-        <v>4.5047269999999999</v>
+        <v>0.19359899999999999</v>
       </c>
       <c r="H10">
-        <v>4.4800519999999997</v>
+        <v>0.19870299999999999</v>
       </c>
       <c r="I10">
-        <v>4.4761139999999999</v>
+        <v>3.9783729999999999</v>
       </c>
       <c r="J10">
-        <v>4.4812649999999996</v>
+        <v>2.113035</v>
       </c>
       <c r="K10">
-        <v>4.4809929999999998</v>
+        <v>1.133839</v>
+      </c>
+      <c r="L10">
+        <v>0.86417999999999995</v>
+      </c>
+      <c r="M10">
+        <v>1.083113</v>
+      </c>
+      <c r="N10">
+        <v>0.88226599999999999</v>
+      </c>
+      <c r="O10">
+        <v>1.1227849999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>1000</v>
       </c>
       <c r="B11">
-        <v>1.0974360000000001</v>
+        <v>1.0138</v>
       </c>
       <c r="C11">
-        <v>1.107375</v>
+        <v>0.56047000000000002</v>
       </c>
       <c r="D11">
-        <v>1.0977079999999999</v>
+        <v>0.31395099999999998</v>
       </c>
       <c r="E11">
-        <v>1.0960160000000001</v>
+        <v>0.24429899999999999</v>
       </c>
       <c r="F11">
-        <v>1.0936440000000001</v>
+        <v>0.25056299999999998</v>
       </c>
       <c r="G11">
-        <v>5.9426370000000004</v>
+        <v>0.25439499999999998</v>
       </c>
       <c r="H11">
-        <v>5.9050649999999996</v>
+        <v>0.26528800000000002</v>
       </c>
       <c r="I11">
-        <v>5.9095050000000002</v>
+        <v>5.5230009999999998</v>
       </c>
       <c r="J11">
-        <v>5.909478</v>
+        <v>2.9417960000000001</v>
       </c>
       <c r="K11">
-        <v>5.9251339999999999</v>
+        <v>1.524294</v>
+      </c>
+      <c r="L11">
+        <v>1.156229</v>
+      </c>
+      <c r="M11">
+        <v>1.585016</v>
+      </c>
+      <c r="N11">
+        <v>1.2605230000000001</v>
+      </c>
+      <c r="O11">
+        <v>1.3116840000000001</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:O2">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:O3">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:O4">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:O5">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:O6">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:O7">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:O8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:O9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:O10">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:O11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4549,295 +5202,386 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <f>Лист1!A2</f>
         <v>100</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <f>Лист1!B2/Лист1!$B2</f>
         <v>1</v>
       </c>
-      <c r="C2">
-        <f>Лист1!C2/Лист1!$B2</f>
-        <v>0.99628252788104088</v>
-      </c>
-      <c r="D2">
-        <f>Лист1!D2/Лист1!$B2</f>
-        <v>1.0059479553903345</v>
-      </c>
-      <c r="E2">
-        <f>Лист1!E2/Лист1!$B2</f>
-        <v>0.95315985130111514</v>
-      </c>
-      <c r="F2">
-        <f>Лист1!F2/Лист1!$B2</f>
-        <v>0.98438661710037179</v>
+      <c r="C2" s="1">
+        <f>Лист1!$B2/Лист1!C2</f>
+        <v>0.43834664814171592</v>
+      </c>
+      <c r="D2" s="1">
+        <f>Лист1!$B2/Лист1!D2</f>
+        <v>0.34052887209929844</v>
+      </c>
+      <c r="E2" s="1">
+        <f>Лист1!$B2/Лист1!E2</f>
+        <v>0.27251133664435329</v>
+      </c>
+      <c r="F2" s="1">
+        <f>Лист1!$B2/Лист1!F2</f>
+        <v>0.22547793460782561</v>
+      </c>
+      <c r="G2" s="1">
+        <f>Лист1!$B2/Лист1!G2</f>
+        <v>0.19000301114122253</v>
+      </c>
+      <c r="H2" s="1">
+        <f>Лист1!$B2/Лист1!H2</f>
+        <v>0.16815456362425049</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <f>Лист1!A3</f>
         <v>200</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <f>Лист1!B3/Лист1!$B3</f>
         <v>1</v>
       </c>
-      <c r="C3">
-        <f>Лист1!C3/Лист1!$B3</f>
-        <v>0.78907913791634732</v>
-      </c>
-      <c r="D3">
-        <f>Лист1!D3/Лист1!$B3</f>
-        <v>0.7705937473379334</v>
-      </c>
-      <c r="E3">
-        <f>Лист1!E3/Лист1!$B3</f>
-        <v>0.79137916347218673</v>
-      </c>
-      <c r="F3">
-        <f>Лист1!F3/Лист1!$B3</f>
-        <v>0.80432745549024631</v>
+      <c r="C3" s="1">
+        <f>Лист1!$B3/Лист1!C3</f>
+        <v>0.95922675258304624</v>
+      </c>
+      <c r="D3" s="1">
+        <f>Лист1!$B3/Лист1!D3</f>
+        <v>0.99665242987417735</v>
+      </c>
+      <c r="E3" s="1">
+        <f>Лист1!$B3/Лист1!E3</f>
+        <v>0.94319423202971364</v>
+      </c>
+      <c r="F3" s="1">
+        <f>Лист1!$B3/Лист1!F3</f>
+        <v>0.8017457516946791</v>
+      </c>
+      <c r="G3" s="1">
+        <f>Лист1!$B3/Лист1!G3</f>
+        <v>0.69735885631209105</v>
+      </c>
+      <c r="H3" s="1">
+        <f>Лист1!$B3/Лист1!H3</f>
+        <v>0.44123058053965658</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <f>Лист1!A4</f>
         <v>300</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <f>Лист1!B4/Лист1!$B4</f>
         <v>1</v>
       </c>
-      <c r="C4">
-        <f>Лист1!C4/Лист1!$B4</f>
-        <v>1.009882290934645</v>
-      </c>
-      <c r="D4">
-        <f>Лист1!D4/Лист1!$B4</f>
-        <v>0.97178056921995781</v>
-      </c>
-      <c r="E4">
-        <f>Лист1!E4/Лист1!$B4</f>
-        <v>0.86498594518622629</v>
-      </c>
-      <c r="F4">
-        <f>Лист1!F4/Лист1!$B4</f>
-        <v>0.88758345045678144</v>
+      <c r="C4" s="1">
+        <f>Лист1!$B4/Лист1!C4</f>
+        <v>1.1906719877453946</v>
+      </c>
+      <c r="D4" s="1">
+        <f>Лист1!$B4/Лист1!D4</f>
+        <v>1.4075291875148916</v>
+      </c>
+      <c r="E4" s="1">
+        <f>Лист1!$B4/Лист1!E4</f>
+        <v>1.3675803315121771</v>
+      </c>
+      <c r="F4" s="1">
+        <f>Лист1!$B4/Лист1!F4</f>
+        <v>1.1373945858523624</v>
+      </c>
+      <c r="G4" s="1">
+        <f>Лист1!$B4/Лист1!G4</f>
+        <v>1.2440298193151667</v>
+      </c>
+      <c r="H4" s="1">
+        <f>Лист1!$B4/Лист1!H4</f>
+        <v>1.1368692506062121</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <f>Лист1!A5</f>
         <v>400</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <f>Лист1!B5/Лист1!$B5</f>
         <v>1</v>
       </c>
-      <c r="C5">
-        <f>Лист1!C5/Лист1!$B5</f>
-        <v>1.059893360601855</v>
-      </c>
-      <c r="D5">
-        <f>Лист1!D5/Лист1!$B5</f>
-        <v>1.0450661018187131</v>
-      </c>
-      <c r="E5">
-        <f>Лист1!E5/Лист1!$B5</f>
-        <v>1.0126798626835147</v>
-      </c>
-      <c r="F5">
-        <f>Лист1!F5/Лист1!$B5</f>
-        <v>1.034372945730772</v>
+      <c r="C5" s="1">
+        <f>Лист1!$B5/Лист1!C5</f>
+        <v>1.4557094972067042</v>
+      </c>
+      <c r="D5" s="1">
+        <f>Лист1!$B5/Лист1!D5</f>
+        <v>1.8704740574841363</v>
+      </c>
+      <c r="E5" s="1">
+        <f>Лист1!$B5/Лист1!E5</f>
+        <v>1.9169290527616751</v>
+      </c>
+      <c r="F5" s="1">
+        <f>Лист1!$B5/Лист1!F5</f>
+        <v>1.8949588387584726</v>
+      </c>
+      <c r="G5" s="1">
+        <f>Лист1!$B5/Лист1!G5</f>
+        <v>1.7284353524901166</v>
+      </c>
+      <c r="H5" s="1">
+        <f>Лист1!$B5/Лист1!H5</f>
+        <v>1.6637211084152728</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <f>Лист1!A6</f>
         <v>500</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <f>Лист1!B6/Лист1!$B6</f>
         <v>1</v>
       </c>
-      <c r="C6">
-        <f>Лист1!C6/Лист1!$B6</f>
-        <v>1.0273737931232214</v>
-      </c>
-      <c r="D6">
-        <f>Лист1!D6/Лист1!$B6</f>
-        <v>0.96708550457663456</v>
-      </c>
-      <c r="E6">
-        <f>Лист1!E6/Лист1!$B6</f>
-        <v>0.99131980532280151</v>
-      </c>
-      <c r="F6">
-        <f>Лист1!F6/Лист1!$B6</f>
-        <v>0.99839441485739677</v>
+      <c r="C6" s="1">
+        <f>Лист1!$B6/Лист1!C6</f>
+        <v>1.5195620983590745</v>
+      </c>
+      <c r="D6" s="1">
+        <f>Лист1!$B6/Лист1!D6</f>
+        <v>2.2604562737642588</v>
+      </c>
+      <c r="E6" s="1">
+        <f>Лист1!$B6/Лист1!E6</f>
+        <v>2.3571415212553068</v>
+      </c>
+      <c r="F6" s="1">
+        <f>Лист1!$B6/Лист1!F6</f>
+        <v>2.3321059156597523</v>
+      </c>
+      <c r="G6" s="1">
+        <f>Лист1!$B6/Лист1!G6</f>
+        <v>2.347395280400812</v>
+      </c>
+      <c r="H6" s="1">
+        <f>Лист1!$B6/Лист1!H6</f>
+        <v>2.3353468722205752</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <f>Лист1!A7</f>
         <v>600</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <f>Лист1!B7/Лист1!$B7</f>
         <v>1</v>
       </c>
-      <c r="C7">
-        <f>Лист1!C7/Лист1!$B7</f>
-        <v>0.97800835723879487</v>
-      </c>
-      <c r="D7">
-        <f>Лист1!D7/Лист1!$B7</f>
-        <v>0.98029250335781914</v>
-      </c>
-      <c r="E7">
-        <f>Лист1!E7/Лист1!$B7</f>
-        <v>0.96679489943124353</v>
-      </c>
-      <c r="F7">
-        <f>Лист1!F7/Лист1!$B7</f>
-        <v>0.99131112474505456</v>
+      <c r="C7" s="1">
+        <f>Лист1!$B7/Лист1!C7</f>
+        <v>1.6280083296147554</v>
+      </c>
+      <c r="D7" s="1">
+        <f>Лист1!$B7/Лист1!D7</f>
+        <v>2.6100777412123817</v>
+      </c>
+      <c r="E7" s="1">
+        <f>Лист1!$B7/Лист1!E7</f>
+        <v>2.8886513591976777</v>
+      </c>
+      <c r="F7" s="1">
+        <f>Лист1!$B7/Лист1!F7</f>
+        <v>2.7601154976106117</v>
+      </c>
+      <c r="G7" s="1">
+        <f>Лист1!$B7/Лист1!G7</f>
+        <v>2.8363631651917025</v>
+      </c>
+      <c r="H7" s="1">
+        <f>Лист1!$B7/Лист1!H7</f>
+        <v>2.7292812168817409</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <f>Лист1!A8</f>
         <v>700</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <f>Лист1!B8/Лист1!$B8</f>
         <v>1</v>
       </c>
-      <c r="C8">
-        <f>Лист1!C8/Лист1!$B8</f>
-        <v>1.0038834638130558</v>
-      </c>
-      <c r="D8">
-        <f>Лист1!D8/Лист1!$B8</f>
-        <v>1.0102546035451399</v>
-      </c>
-      <c r="E8">
-        <f>Лист1!E8/Лист1!$B8</f>
-        <v>1.0031922933144719</v>
-      </c>
-      <c r="F8">
-        <f>Лист1!F8/Лист1!$B8</f>
-        <v>1.0004679520107143</v>
+      <c r="C8" s="1">
+        <f>Лист1!$B8/Лист1!C8</f>
+        <v>1.6832237936571464</v>
+      </c>
+      <c r="D8" s="1">
+        <f>Лист1!$B8/Лист1!D8</f>
+        <v>2.8545073923851891</v>
+      </c>
+      <c r="E8" s="1">
+        <f>Лист1!$B8/Лист1!E8</f>
+        <v>3.3077987302188951</v>
+      </c>
+      <c r="F8" s="1">
+        <f>Лист1!$B8/Лист1!F8</f>
+        <v>3.31984745166291</v>
+      </c>
+      <c r="G8" s="1">
+        <f>Лист1!$B8/Лист1!G8</f>
+        <v>3.0068307305350022</v>
+      </c>
+      <c r="H8" s="1">
+        <f>Лист1!$B8/Лист1!H8</f>
+        <v>3.2215290339252096</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <f>Лист1!A9</f>
         <v>800</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <f>Лист1!B9/Лист1!$B9</f>
         <v>1</v>
       </c>
-      <c r="C9">
-        <f>Лист1!C9/Лист1!$B9</f>
-        <v>1.0136811510739578</v>
-      </c>
-      <c r="D9">
-        <f>Лист1!D9/Лист1!$B9</f>
-        <v>1.0149643213864719</v>
-      </c>
-      <c r="E9">
-        <f>Лист1!E9/Лист1!$B9</f>
-        <v>1.0227317310201474</v>
-      </c>
-      <c r="F9">
-        <f>Лист1!F9/Лист1!$B9</f>
-        <v>1.0080787539030513</v>
+      <c r="C9" s="1">
+        <f>Лист1!$B9/Лист1!C9</f>
+        <v>1.7234796017476111</v>
+      </c>
+      <c r="D9" s="1">
+        <f>Лист1!$B9/Лист1!D9</f>
+        <v>3.0130647636497314</v>
+      </c>
+      <c r="E9" s="1">
+        <f>Лист1!$B9/Лист1!E9</f>
+        <v>3.7382088277240051</v>
+      </c>
+      <c r="F9" s="1">
+        <f>Лист1!$B9/Лист1!F9</f>
+        <v>3.5327399481415096</v>
+      </c>
+      <c r="G9" s="1">
+        <f>Лист1!$B9/Лист1!G9</f>
+        <v>3.5171713869249528</v>
+      </c>
+      <c r="H9" s="1">
+        <f>Лист1!$B9/Лист1!H9</f>
+        <v>3.5196646445368414</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <f>Лист1!A10</f>
         <v>900</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <f>Лист1!B10/Лист1!$B10</f>
         <v>1</v>
       </c>
-      <c r="C10">
-        <f>Лист1!C10/Лист1!$B10</f>
-        <v>0.99684436677502797</v>
-      </c>
-      <c r="D10">
-        <f>Лист1!D10/Лист1!$B10</f>
-        <v>1.0011312174681022</v>
-      </c>
-      <c r="E10">
-        <f>Лист1!E10/Лист1!$B10</f>
-        <v>0.99409587161997093</v>
-      </c>
-      <c r="F10">
-        <f>Лист1!F10/Лист1!$B10</f>
-        <v>1.0036241551885048</v>
+      <c r="C10" s="1">
+        <f>Лист1!$B10/Лист1!C10</f>
+        <v>1.7964719902334125</v>
+      </c>
+      <c r="D10" s="1">
+        <f>Лист1!$B10/Лист1!D10</f>
+        <v>3.129778642254593</v>
+      </c>
+      <c r="E10" s="1">
+        <f>Лист1!$B10/Лист1!E10</f>
+        <v>3.9114790310306922</v>
+      </c>
+      <c r="F10" s="1">
+        <f>Лист1!$B10/Лист1!F10</f>
+        <v>3.7551659234230805</v>
+      </c>
+      <c r="G10" s="1">
+        <f>Лист1!$B10/Лист1!G10</f>
+        <v>3.8232480539672209</v>
+      </c>
+      <c r="H10" s="1">
+        <f>Лист1!$B10/Лист1!H10</f>
+        <v>3.7250418967001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <f>Лист1!A11</f>
         <v>1000</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <f>Лист1!B11/Лист1!$B11</f>
         <v>1</v>
       </c>
-      <c r="C11">
-        <f>Лист1!C11/Лист1!$B11</f>
-        <v>1.0090565645741527</v>
-      </c>
-      <c r="D11">
-        <f>Лист1!D11/Лист1!$B11</f>
-        <v>1.0002478504441259</v>
-      </c>
-      <c r="E11">
-        <f>Лист1!E11/Лист1!$B11</f>
-        <v>0.99870607488728269</v>
-      </c>
-      <c r="F11">
-        <f>Лист1!F11/Лист1!$B11</f>
-        <v>0.99654467322012397</v>
+      <c r="C11" s="1">
+        <f>Лист1!$B11/Лист1!C11</f>
+        <v>1.8088390101165093</v>
+      </c>
+      <c r="D11" s="1">
+        <f>Лист1!$B11/Лист1!D11</f>
+        <v>3.2291663348739137</v>
+      </c>
+      <c r="E11" s="1">
+        <f>Лист1!$B11/Лист1!E11</f>
+        <v>4.1498327868718254</v>
+      </c>
+      <c r="F11" s="1">
+        <f>Лист1!$B11/Лист1!F11</f>
+        <v>4.0460882093525381</v>
+      </c>
+      <c r="G11" s="1">
+        <f>Лист1!$B11/Лист1!G11</f>
+        <v>3.9851412173981413</v>
+      </c>
+      <c r="H11" s="1">
+        <f>Лист1!$B11/Лист1!H11</f>
+        <v>3.821507192183589</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:H11">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4845,296 +5589,388 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <f>Лист1!A2</f>
         <v>100</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <f>Лист1!G2/Лист1!$G2</f>
         <v>1</v>
       </c>
-      <c r="C2">
-        <f>Лист1!H2/Лист1!$G2</f>
-        <v>0.77929324240545572</v>
-      </c>
-      <c r="D2">
-        <f>Лист1!I2/Лист1!$G2</f>
-        <v>0.95133292002479852</v>
-      </c>
-      <c r="E2">
-        <f>Лист1!J2/Лист1!$G2</f>
-        <v>0.83384996900185993</v>
-      </c>
-      <c r="F2">
-        <f>Лист1!K2/Лист1!$G2</f>
-        <v>0.84624922504649713</v>
+      <c r="C2" s="1">
+        <f>Лист1!$I2/Лист1!J2</f>
+        <v>0.56211092246745897</v>
+      </c>
+      <c r="D2" s="1">
+        <f>Лист1!$I2/Лист1!K2</f>
+        <v>1.0197638603696098</v>
+      </c>
+      <c r="E2" s="1">
+        <f>Лист1!$I2/Лист1!L2</f>
+        <v>0.63905420620878228</v>
+      </c>
+      <c r="F2" s="1">
+        <f>Лист1!$I2/Лист1!M2</f>
+        <v>0.66829268292682931</v>
+      </c>
+      <c r="G2" s="1">
+        <f>Лист1!$I2/Лист1!N2</f>
+        <v>0.73100275988960439</v>
+      </c>
+      <c r="H2" s="1">
+        <f>Лист1!$I2/Лист1!O2</f>
+        <v>0.53465213295653347</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <f>Лист1!A3</f>
         <v>200</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <f>Лист1!G3/Лист1!$G3</f>
         <v>1</v>
       </c>
-      <c r="C3">
-        <f>Лист1!H3/Лист1!$G3</f>
-        <v>1.2067124332570556</v>
-      </c>
-      <c r="D3">
-        <f>Лист1!I3/Лист1!$G3</f>
-        <v>1.031181379007466</v>
-      </c>
-      <c r="E3">
-        <f>Лист1!J3/Лист1!$G3</f>
-        <v>1.1569470448188983</v>
-      </c>
-      <c r="F3">
-        <f>Лист1!K3/Лист1!$G3</f>
-        <v>1.7720685111989458</v>
+      <c r="C3" s="1">
+        <f>Лист1!$I3/Лист1!J3</f>
+        <v>1.0884304846785979</v>
+      </c>
+      <c r="D3" s="1">
+        <f>Лист1!$I3/Лист1!K3</f>
+        <v>0.26397903507905424</v>
+      </c>
+      <c r="E3" s="1">
+        <f>Лист1!$I3/Лист1!L3</f>
+        <v>0.33248437477129344</v>
+      </c>
+      <c r="F3" s="1">
+        <f>Лист1!$I3/Лист1!M3</f>
+        <v>0.73871119855607403</v>
+      </c>
+      <c r="G3" s="1">
+        <f>Лист1!$I3/Лист1!N3</f>
+        <v>0.41125031683383423</v>
+      </c>
+      <c r="H3" s="1">
+        <f>Лист1!$I3/Лист1!O3</f>
+        <v>0.92066065457493151</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <f>Лист1!A4</f>
         <v>300</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <f>Лист1!G4/Лист1!$G4</f>
         <v>1</v>
       </c>
-      <c r="C4">
-        <f>Лист1!H4/Лист1!$G4</f>
-        <v>0.86303257425897595</v>
-      </c>
-      <c r="D4">
-        <f>Лист1!I4/Лист1!$G4</f>
-        <v>1.3506182376182847</v>
-      </c>
-      <c r="E4">
-        <f>Лист1!J4/Лист1!$G4</f>
-        <v>0.76207377096240458</v>
-      </c>
-      <c r="F4">
-        <f>Лист1!K4/Лист1!$G4</f>
-        <v>0.72806417771004162</v>
+      <c r="C4" s="1">
+        <f>Лист1!$I4/Лист1!J4</f>
+        <v>1.666043244229541</v>
+      </c>
+      <c r="D4" s="1">
+        <f>Лист1!$I4/Лист1!K4</f>
+        <v>2.9899306882060799</v>
+      </c>
+      <c r="E4" s="1">
+        <f>Лист1!$I4/Лист1!L4</f>
+        <v>3.2177909606178967</v>
+      </c>
+      <c r="F4" s="1">
+        <f>Лист1!$I4/Лист1!M4</f>
+        <v>2.9131394235882166</v>
+      </c>
+      <c r="G4" s="1">
+        <f>Лист1!$I4/Лист1!N4</f>
+        <v>2.6283733538033438</v>
+      </c>
+      <c r="H4" s="1">
+        <f>Лист1!$I4/Лист1!O4</f>
+        <v>2.4360576281737738</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <f>Лист1!A5</f>
         <v>400</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <f>Лист1!G5/Лист1!$G5</f>
         <v>1</v>
       </c>
-      <c r="C5">
-        <f>Лист1!H5/Лист1!$G5</f>
-        <v>0.98968051444319682</v>
-      </c>
-      <c r="D5">
-        <f>Лист1!I5/Лист1!$G5</f>
-        <v>0.99346126365213838</v>
-      </c>
-      <c r="E5">
-        <f>Лист1!J5/Лист1!$G5</f>
-        <v>0.99918138205573137</v>
-      </c>
-      <c r="F5">
-        <f>Лист1!K5/Лист1!$G5</f>
-        <v>0.98918036133510256</v>
+      <c r="C5" s="1">
+        <f>Лист1!$I5/Лист1!J5</f>
+        <v>1.8847858462973928</v>
+      </c>
+      <c r="D5" s="1">
+        <f>Лист1!$I5/Лист1!K5</f>
+        <v>3.3523010148720238</v>
+      </c>
+      <c r="E5" s="1">
+        <f>Лист1!$I5/Лист1!L5</f>
+        <v>4.8085421308023317</v>
+      </c>
+      <c r="F5" s="1">
+        <f>Лист1!$I5/Лист1!M5</f>
+        <v>3.1066495785478385</v>
+      </c>
+      <c r="G5" s="1">
+        <f>Лист1!$I5/Лист1!N5</f>
+        <v>3.9594285570689043</v>
+      </c>
+      <c r="H5" s="1">
+        <f>Лист1!$I5/Лист1!O5</f>
+        <v>3.1132483698873736</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <f>Лист1!A6</f>
         <v>500</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <f>Лист1!G6/Лист1!$G6</f>
         <v>1</v>
       </c>
-      <c r="C6">
-        <f>Лист1!H6/Лист1!$G6</f>
-        <v>0.99711138477603301</v>
-      </c>
-      <c r="D6">
-        <f>Лист1!I6/Лист1!$G6</f>
-        <v>0.98184258465799135</v>
-      </c>
-      <c r="E6">
-        <f>Лист1!J6/Лист1!$G6</f>
-        <v>0.98196885516630827</v>
-      </c>
-      <c r="F6">
-        <f>Лист1!K6/Лист1!$G6</f>
-        <v>0.99211873400337103</v>
+      <c r="C6" s="1">
+        <f>Лист1!$I6/Лист1!J6</f>
+        <v>1.8825030963960969</v>
+      </c>
+      <c r="D6" s="1">
+        <f>Лист1!$I6/Лист1!K6</f>
+        <v>3.5212035598248339</v>
+      </c>
+      <c r="E6" s="1">
+        <f>Лист1!$I6/Лист1!L6</f>
+        <v>4.1713132476086558</v>
+      </c>
+      <c r="F6" s="1">
+        <f>Лист1!$I6/Лист1!M6</f>
+        <v>3.3765998027677537</v>
+      </c>
+      <c r="G6" s="1">
+        <f>Лист1!$I6/Лист1!N6</f>
+        <v>3.9198190944659004</v>
+      </c>
+      <c r="H6" s="1">
+        <f>Лист1!$I6/Лист1!O6</f>
+        <v>4.2296649743436596</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <f>Лист1!A7</f>
         <v>600</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <f>Лист1!G7/Лист1!$G7</f>
         <v>1</v>
       </c>
-      <c r="C7">
-        <f>Лист1!H7/Лист1!$G7</f>
-        <v>0.98087458761443802</v>
-      </c>
-      <c r="D7">
-        <f>Лист1!I7/Лист1!$G7</f>
-        <v>0.97745206263543072</v>
-      </c>
-      <c r="E7">
-        <f>Лист1!J7/Лист1!$G7</f>
-        <v>0.9829400535275673</v>
-      </c>
-      <c r="F7">
-        <f>Лист1!K7/Лист1!$G7</f>
-        <v>0.97988863624212574</v>
+      <c r="C7" s="1">
+        <f>Лист1!$I7/Лист1!J7</f>
+        <v>1.9374904201439507</v>
+      </c>
+      <c r="D7" s="1">
+        <f>Лист1!$I7/Лист1!K7</f>
+        <v>3.6690412667827714</v>
+      </c>
+      <c r="E7" s="1">
+        <f>Лист1!$I7/Лист1!L7</f>
+        <v>5.120391119231896</v>
+      </c>
+      <c r="F7" s="1">
+        <f>Лист1!$I7/Лист1!M7</f>
+        <v>3.6473717492203037</v>
+      </c>
+      <c r="G7" s="1">
+        <f>Лист1!$I7/Лист1!N7</f>
+        <v>4.2485679550899276</v>
+      </c>
+      <c r="H7" s="1">
+        <f>Лист1!$I7/Лист1!O7</f>
+        <v>3.5162287892328905</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <f>Лист1!A8</f>
         <v>700</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <f>Лист1!G8/Лист1!$G8</f>
         <v>1</v>
       </c>
-      <c r="C8">
-        <f>Лист1!H8/Лист1!$G8</f>
-        <v>0.98783272534548183</v>
-      </c>
-      <c r="D8">
-        <f>Лист1!I8/Лист1!$G8</f>
-        <v>0.99257090578567231</v>
-      </c>
-      <c r="E8">
-        <f>Лист1!J8/Лист1!$G8</f>
-        <v>0.98728789542826567</v>
-      </c>
-      <c r="F8">
-        <f>Лист1!K8/Лист1!$G8</f>
-        <v>0.99183437645313943</v>
+      <c r="C8" s="1">
+        <f>Лист1!$I8/Лист1!J8</f>
+        <v>1.8138328603631393</v>
+      </c>
+      <c r="D8" s="1">
+        <f>Лист1!$I8/Лист1!K8</f>
+        <v>3.5371860582358154</v>
+      </c>
+      <c r="E8" s="1">
+        <f>Лист1!$I8/Лист1!L8</f>
+        <v>4.8929172378997645</v>
+      </c>
+      <c r="F8" s="1">
+        <f>Лист1!$I8/Лист1!M8</f>
+        <v>3.4954342078695047</v>
+      </c>
+      <c r="G8" s="1">
+        <f>Лист1!$I8/Лист1!N8</f>
+        <v>4.1911154453590616</v>
+      </c>
+      <c r="H8" s="1">
+        <f>Лист1!$I8/Лист1!O8</f>
+        <v>4.8396331665512697</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <f>Лист1!A9</f>
         <v>800</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <f>Лист1!G9/Лист1!$G9</f>
         <v>1</v>
       </c>
-      <c r="C9">
-        <f>Лист1!H9/Лист1!$G9</f>
-        <v>0.99474667716635989</v>
-      </c>
-      <c r="D9">
-        <f>Лист1!I9/Лист1!$G9</f>
-        <v>0.99352289536133476</v>
-      </c>
-      <c r="E9">
-        <f>Лист1!J9/Лист1!$G9</f>
-        <v>0.99250300624660803</v>
-      </c>
-      <c r="F9">
-        <f>Лист1!K9/Лист1!$G9</f>
-        <v>0.99325004522671889</v>
+      <c r="C9" s="1">
+        <f>Лист1!$I9/Лист1!J9</f>
+        <v>1.8450499094408046</v>
+      </c>
+      <c r="D9" s="1">
+        <f>Лист1!$I9/Лист1!K9</f>
+        <v>3.6477325260402216</v>
+      </c>
+      <c r="E9" s="1">
+        <f>Лист1!$I9/Лист1!L9</f>
+        <v>4.637156477045858</v>
+      </c>
+      <c r="F9" s="1">
+        <f>Лист1!$I9/Лист1!M9</f>
+        <v>3.6616566275842959</v>
+      </c>
+      <c r="G9" s="1">
+        <f>Лист1!$I9/Лист1!N9</f>
+        <v>4.2330994291880488</v>
+      </c>
+      <c r="H9" s="1">
+        <f>Лист1!$I9/Лист1!O9</f>
+        <v>3.8551612173733387</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <f>Лист1!A10</f>
         <v>900</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <f>Лист1!G10/Лист1!$G10</f>
         <v>1</v>
       </c>
-      <c r="C10">
-        <f>Лист1!H10/Лист1!$G10</f>
-        <v>0.99452242055955886</v>
-      </c>
-      <c r="D10">
-        <f>Лист1!I10/Лист1!$G10</f>
-        <v>0.99364822773943906</v>
-      </c>
-      <c r="E10">
-        <f>Лист1!J10/Лист1!$G10</f>
-        <v>0.9947916932591031</v>
-      </c>
-      <c r="F10">
-        <f>Лист1!K10/Лист1!$G10</f>
-        <v>0.99473131224156308</v>
+      <c r="C10" s="1">
+        <f>Лист1!$I10/Лист1!J10</f>
+        <v>1.8827766695771722</v>
+      </c>
+      <c r="D10" s="1">
+        <f>Лист1!$I10/Лист1!K10</f>
+        <v>3.5087635898923919</v>
+      </c>
+      <c r="E10" s="1">
+        <f>Лист1!$I10/Лист1!L10</f>
+        <v>4.6036392881112729</v>
+      </c>
+      <c r="F10" s="1">
+        <f>Лист1!$I10/Лист1!M10</f>
+        <v>3.6730913579654199</v>
+      </c>
+      <c r="G10" s="1">
+        <f>Лист1!$I10/Лист1!N10</f>
+        <v>4.5092670464463094</v>
+      </c>
+      <c r="H10" s="1">
+        <f>Лист1!$I10/Лист1!O10</f>
+        <v>3.5433079351790417</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <f>Лист1!A11</f>
         <v>1000</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <f>Лист1!G11/Лист1!$G11</f>
         <v>1</v>
       </c>
-      <c r="C11">
-        <f>Лист1!H11/Лист1!$G11</f>
-        <v>0.9936775542574785</v>
-      </c>
-      <c r="D11">
-        <f>Лист1!I11/Лист1!$G11</f>
-        <v>0.99442469731871552</v>
-      </c>
-      <c r="E11">
-        <f>Лист1!J11/Лист1!$G11</f>
-        <v>0.99442015388118099</v>
-      </c>
-      <c r="F11">
-        <f>Лист1!K11/Лист1!$G11</f>
-        <v>0.99705467454936247</v>
+      <c r="C11" s="1">
+        <f>Лист1!$I11/Лист1!J11</f>
+        <v>1.8774248792234403</v>
+      </c>
+      <c r="D11" s="1">
+        <f>Лист1!$I11/Лист1!K11</f>
+        <v>3.6233174177684879</v>
+      </c>
+      <c r="E11" s="1">
+        <f>Лист1!$I11/Лист1!L11</f>
+        <v>4.7767362693722442</v>
+      </c>
+      <c r="F11" s="1">
+        <f>Лист1!$I11/Лист1!M11</f>
+        <v>3.4845080428210187</v>
+      </c>
+      <c r="G11" s="1">
+        <f>Лист1!$I11/Лист1!N11</f>
+        <v>4.381515450332917</v>
+      </c>
+      <c r="H11" s="1">
+        <f>Лист1!$I11/Лист1!O11</f>
+        <v>4.210618563617456</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:H11">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/результаты/анализ.xlsx
+++ b/результаты/анализ.xlsx
@@ -2,16 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Gauss" sheetId="2" r:id="rId2"/>
     <sheet name="CG" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Размер</t>
   </si>
@@ -91,11 +91,41 @@
   <si>
     <t>S(10)</t>
   </si>
+  <si>
+    <t>100x100</t>
+  </si>
+  <si>
+    <t>200x200</t>
+  </si>
+  <si>
+    <t>300x300</t>
+  </si>
+  <si>
+    <t>400x400</t>
+  </si>
+  <si>
+    <t>500x500</t>
+  </si>
+  <si>
+    <t>600x600</t>
+  </si>
+  <si>
+    <t>700x700</t>
+  </si>
+  <si>
+    <t>800x800</t>
+  </si>
+  <si>
+    <t>900x900</t>
+  </si>
+  <si>
+    <t>1000x1000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,7 +143,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -136,101 +166,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -259,7 +206,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -369,43 +316,42 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Лист1!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100x100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200x200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300x300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400x400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500x500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>600x600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>700x700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>800x800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>900x900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>1000x1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -414,40 +360,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.2620000000000001E-3</c:v>
+                  <c:v>2.1389999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6339999999999993E-3</c:v>
+                  <c:v>2.4493999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9537000000000001E-2</c:v>
+                  <c:v>0.12997600000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5143000000000006E-2</c:v>
+                  <c:v>0.124414</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12603400000000001</c:v>
+                  <c:v>0.20836099999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21890200000000001</c:v>
+                  <c:v>0.32447399999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.34907199999999999</c:v>
+                  <c:v>0.56672800000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.51637</c:v>
+                  <c:v>0.77276900000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.74017699999999997</c:v>
+                  <c:v>1.0789899999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0138</c:v>
+                  <c:v>1.4886090000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-09C4-4BA1-A4F0-F0C9D1BB6E12}"/>
             </c:ext>
@@ -486,40 +432,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.973E-3</c:v>
+                  <c:v>1.0886E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5429999999999998E-2</c:v>
+                  <c:v>0.101073</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.109569</c:v>
+                  <c:v>0.56723000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31512299999999999</c:v>
+                  <c:v>0.47822399999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.62316499999999997</c:v>
+                  <c:v>0.89933099999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1881969999999999</c:v>
+                  <c:v>1.5753790000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8522970000000001</c:v>
+                  <c:v>3.00684</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7616909999999999</c:v>
+                  <c:v>4.3462899999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9783729999999999</c:v>
+                  <c:v>5.5719560000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.5230009999999998</c:v>
+                  <c:v>9.1733630000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-09C4-4BA1-A4F0-F0C9D1BB6E12}"/>
             </c:ext>
@@ -736,7 +682,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -854,43 +800,42 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Gauss!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100x100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200x200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300x300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400x400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500x500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>600x600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>700x700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>800x800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>900x900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>1000x1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -899,40 +844,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.43834664814171592</c:v>
+                  <c:v>0.25974499089253189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95922675258304624</c:v>
+                  <c:v>1.3848589359416519</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1906719877453946</c:v>
+                  <c:v>1.1538857619715559</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4557094972067042</c:v>
+                  <c:v>1.3924498315593907</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5195620983590745</c:v>
+                  <c:v>1.4101408374447579</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6280083296147554</c:v>
+                  <c:v>1.554232449417535</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6832237936571464</c:v>
+                  <c:v>1.3707922240954356</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7234796017476111</c:v>
+                  <c:v>1.436104002780147</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7964719902334125</c:v>
+                  <c:v>1.7521305065149329</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8088390101165093</c:v>
+                  <c:v>1.5721366185432004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3EDF-4985-9CB0-B5C536DD0D7F}"/>
             </c:ext>
@@ -965,43 +910,42 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Gauss!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100x100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200x200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300x300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400x400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500x500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>600x600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>700x700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>800x800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>900x900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>1000x1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1010,40 +954,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.34052887209929844</c:v>
+                  <c:v>0.31623299822590178</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99665242987417735</c:v>
+                  <c:v>1.19157423623273</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4075291875148916</c:v>
+                  <c:v>1.5360143702950875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8704740574841363</c:v>
+                  <c:v>1.5746813654140668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2604562737642588</c:v>
+                  <c:v>2.2684180157425451</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6100777412123817</c:v>
+                  <c:v>2.0558318707985124</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8545073923851891</c:v>
+                  <c:v>2.0594211956916726</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0130647636497314</c:v>
+                  <c:v>2.3284660975837581</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.129778642254593</c:v>
+                  <c:v>2.6980550818425959</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2291663348739137</c:v>
+                  <c:v>2.1073561659543567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3EDF-4985-9CB0-B5C536DD0D7F}"/>
             </c:ext>
@@ -1076,43 +1020,42 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Gauss!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100x100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200x200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300x300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400x400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500x500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>600x600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>700x700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>800x800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>900x900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>1000x1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1121,40 +1064,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.27251133664435329</c:v>
+                  <c:v>0.18029332434254888</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94319423202971364</c:v>
+                  <c:v>1.0940682508486688</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3675803315121771</c:v>
+                  <c:v>1.5030992691275791</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9169290527616751</c:v>
+                  <c:v>1.9828828254494455</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3571415212553068</c:v>
+                  <c:v>1.8760275514338449</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8886513591976777</c:v>
+                  <c:v>2.197871720709065</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3077987302188951</c:v>
+                  <c:v>2.6068804997309072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7382088277240051</c:v>
+                  <c:v>2.3555865121411457</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9114790310306922</c:v>
+                  <c:v>3.0142669173457444</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1498327868718254</c:v>
+                  <c:v>2.7387092857247985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-3EDF-4985-9CB0-B5C536DD0D7F}"/>
             </c:ext>
@@ -1187,43 +1130,42 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Gauss!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100x100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200x200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300x300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400x400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500x500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>600x600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>700x700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>800x800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>900x900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>1000x1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1232,40 +1174,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.22547793460782561</c:v>
+                  <c:v>0.15873840445269013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8017457516946791</c:v>
+                  <c:v>0.68173341868685455</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1373945858523624</c:v>
+                  <c:v>1.2443848731450455</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8949588387584726</c:v>
+                  <c:v>1.8283001954473983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3321059156597523</c:v>
+                  <c:v>2.1894939262746416</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7601154976106117</c:v>
+                  <c:v>2.3152734667665631</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.31984745166291</c:v>
+                  <c:v>2.8128669773721073</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5327399481415096</c:v>
+                  <c:v>2.6616368621183737</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7551659234230805</c:v>
+                  <c:v>2.9363548042094489</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0460882093525381</c:v>
+                  <c:v>3.1681564531164206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-3EDF-4985-9CB0-B5C536DD0D7F}"/>
             </c:ext>
@@ -1304,39 +1246,44 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.19000301114122253</c:v>
+                  <c:v>0.11824865940626898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69735885631209105</c:v>
+                  <c:v>0.73573230806199674</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2440298193151667</c:v>
+                  <c:v>1.164753429936106</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7284353524901166</c:v>
+                  <c:v>1.9515309323629062</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.347395280400812</c:v>
+                  <c:v>1.993961491348951</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8363631651917025</c:v>
+                  <c:v>2.2268325658323667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0068307305350022</c:v>
+                  <c:v>2.8505867381583516</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5171713869249528</c:v>
+                  <c:v>2.8715302808475216</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8232480539672209</c:v>
+                  <c:v>2.9703294646199918</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9851412173981413</c:v>
+                  <c:v>3.4828351032841773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-29DA-4553-90C0-B8B75E78ED3A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1371,39 +1318,44 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.16815456362425049</c:v>
+                  <c:v>5.8291320343371027E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44123058053965658</c:v>
+                  <c:v>0.55179094390628514</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1368692506062121</c:v>
+                  <c:v>1.2533726772162275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6637211084152728</c:v>
+                  <c:v>1.7637868950069464</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3353468722205752</c:v>
+                  <c:v>2.0893976314390859</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7292812168817409</c:v>
+                  <c:v>2.2253358846161762</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2215290339252096</c:v>
+                  <c:v>2.8408130529587208</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5196646445368414</c:v>
+                  <c:v>2.963980515495551</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7250418967001</c:v>
+                  <c:v>2.9066913787111841</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.821507192183589</c:v>
+                  <c:v>3.2459643744153444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-29DA-4553-90C0-B8B75E78ED3A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1618,7 +1570,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1757,43 +1709,42 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>CG!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100x100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200x200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300x300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400x400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500x500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>600x600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>700x700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>800x800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>900x900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>1000x1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1802,40 +1753,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.56211092246745897</c:v>
+                  <c:v>0.97684852835606606</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0884304846785979</c:v>
+                  <c:v>1.9813184874443768</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.666043244229541</c:v>
+                  <c:v>2.2225487430255155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8847858462973928</c:v>
+                  <c:v>1.7354623312527215</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8825030963960969</c:v>
+                  <c:v>1.7674141183869194</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9374904201439507</c:v>
+                  <c:v>1.8042044456355055</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8138328603631393</c:v>
+                  <c:v>1.9628353545890489</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8450499094408046</c:v>
+                  <c:v>2.0214634772526114</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.8827766695771722</c:v>
+                  <c:v>1.7811239645856569</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8774248792234403</c:v>
+                  <c:v>1.9316739241077812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-311F-4313-B886-110114FD9BCE}"/>
             </c:ext>
@@ -1868,43 +1819,42 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>CG!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100x100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200x200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300x300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400x400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500x500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>600x600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>700x700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>800x800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>900x900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>1000x1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1913,40 +1863,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0197638603696098</c:v>
+                  <c:v>1.6961670302274852</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26397903507905424</c:v>
+                  <c:v>0.33836723489159987</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9899306882060799</c:v>
+                  <c:v>3.7736589649597838</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3523010148720238</c:v>
+                  <c:v>2.6864403923286932</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5212035598248339</c:v>
+                  <c:v>2.7771358164985762</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6690412667827714</c:v>
+                  <c:v>2.9158943719193817</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5371860582358154</c:v>
+                  <c:v>3.3632767015539904</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6477325260402216</c:v>
+                  <c:v>3.0617551294713361</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5087635898923919</c:v>
+                  <c:v>2.7701149368143327</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6233174177684879</c:v>
+                  <c:v>3.2841557658585905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-311F-4313-B886-110114FD9BCE}"/>
             </c:ext>
@@ -1979,43 +1929,42 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>CG!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100x100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200x200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300x300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400x400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500x500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>600x600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>700x700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>800x800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>900x900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>1000x1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2024,40 +1973,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.63905420620878228</c:v>
+                  <c:v>1.1828751494078018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33248437477129344</c:v>
+                  <c:v>1.2504391933687986</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2177909606178967</c:v>
+                  <c:v>4.7728955605667931</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8085421308023317</c:v>
+                  <c:v>3.0308968646812393</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1713132476086558</c:v>
+                  <c:v>3.0881392481998207</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.120391119231896</c:v>
+                  <c:v>2.7230063746231923</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8929172378997645</c:v>
+                  <c:v>3.6291438047810209</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.637156477045858</c:v>
+                  <c:v>3.6279125285681135</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6036392881112729</c:v>
+                  <c:v>3.0125357511664745</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7767362693722442</c:v>
+                  <c:v>3.7484280353179238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-311F-4313-B886-110114FD9BCE}"/>
             </c:ext>
@@ -2090,43 +2039,42 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>CG!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100x100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200x200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300x300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400x400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500x500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>600x600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>700x700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>800x800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>900x900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>1000x1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2135,40 +2083,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.66829268292682931</c:v>
+                  <c:v>0.80156100434430455</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73871119855607403</c:v>
+                  <c:v>0.67685683098167115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9131394235882166</c:v>
+                  <c:v>4.0981569383936245</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1066495785478385</c:v>
+                  <c:v>3.5451310639307319</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3765998027677537</c:v>
+                  <c:v>3.1061647975519029</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6473717492203037</c:v>
+                  <c:v>3.4349447161455893</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4954342078695047</c:v>
+                  <c:v>4.1924298006014995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6616566275842959</c:v>
+                  <c:v>3.8697221126596282</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6730913579654199</c:v>
+                  <c:v>3.3690085048183493</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4845080428210187</c:v>
+                  <c:v>4.2824818271323917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-311F-4313-B886-110114FD9BCE}"/>
             </c:ext>
@@ -2207,39 +2155,44 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.73100275988960439</c:v>
+                  <c:v>0.72772244133966169</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41125031683383423</c:v>
+                  <c:v>0.95006814870517464</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6283733538033438</c:v>
+                  <c:v>2.9662031783549736</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9594285570689043</c:v>
+                  <c:v>4.1593376008906207</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9198190944659004</c:v>
+                  <c:v>3.627256117481457</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2485679550899276</c:v>
+                  <c:v>3.7389466539137945</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1911154453590616</c:v>
+                  <c:v>4.5593966173451284</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.2330994291880488</c:v>
+                  <c:v>4.6122116764154066</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5092670464463094</c:v>
+                  <c:v>3.9350360808652063</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.381515450332917</c:v>
+                  <c:v>3.1192185974646685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B087-44CE-968A-F61682286D85}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2274,39 +2227,44 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.53465213295653347</c:v>
+                  <c:v>0.56339923403374392</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92066065457493151</c:v>
+                  <c:v>1.5292542326721437</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4360576281737738</c:v>
+                  <c:v>5.9749931531379694</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1132483698873736</c:v>
+                  <c:v>3.3154971956267025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2296649743436596</c:v>
+                  <c:v>3.0659255244075805</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5162287892328905</c:v>
+                  <c:v>2.9902247918260283</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8396331665512697</c:v>
+                  <c:v>3.7508700934835923</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8551612173733387</c:v>
+                  <c:v>3.756549321947467</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5433079351790417</c:v>
+                  <c:v>3.269618304843263</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.210618563617456</c:v>
+                  <c:v>3.8710419708491224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B087-44CE-968A-F61682286D85}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4192,16 +4150,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66673</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>146958</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>212272</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4227,16 +4185,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>36195</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4562,536 +4520,536 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>100</v>
-      </c>
-      <c r="B2">
-        <v>1.2620000000000001E-3</v>
-      </c>
-      <c r="C2">
-        <v>2.879E-3</v>
-      </c>
-      <c r="D2">
-        <v>3.7060000000000001E-3</v>
-      </c>
-      <c r="E2">
-        <v>4.6309999999999997E-3</v>
-      </c>
-      <c r="F2">
-        <v>5.5970000000000004E-3</v>
-      </c>
-      <c r="G2">
-        <v>6.6420000000000003E-3</v>
-      </c>
-      <c r="H2">
-        <v>7.5050000000000004E-3</v>
-      </c>
-      <c r="I2">
-        <v>3.973E-3</v>
-      </c>
-      <c r="J2">
-        <v>7.0679999999999996E-3</v>
-      </c>
-      <c r="K2">
-        <v>3.8960000000000002E-3</v>
-      </c>
-      <c r="L2">
-        <v>6.2170000000000003E-3</v>
-      </c>
-      <c r="M2">
-        <v>5.9449999999999998E-3</v>
-      </c>
-      <c r="N2">
-        <v>5.4349999999999997E-3</v>
-      </c>
-      <c r="O2">
-        <v>7.4310000000000001E-3</v>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.1389999999999998E-3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8.2349999999999993E-3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6.764E-3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.1864E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.3475000000000001E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.8089000000000001E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.6694999999999998E-2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1.0886E-2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1.1143999999999999E-2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6.4180000000000001E-3</v>
+      </c>
+      <c r="L2" s="1">
+        <v>9.2029999999999994E-3</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1.3580999999999999E-2</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1.4959E-2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1.9321999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>200</v>
-      </c>
-      <c r="B3">
-        <v>8.6339999999999993E-3</v>
-      </c>
-      <c r="C3">
-        <v>9.0010000000000003E-3</v>
-      </c>
-      <c r="D3">
-        <v>8.6630000000000006E-3</v>
-      </c>
-      <c r="E3">
-        <v>9.1540000000000007E-3</v>
-      </c>
-      <c r="F3">
-        <v>1.0769000000000001E-2</v>
-      </c>
-      <c r="G3">
-        <v>1.2381E-2</v>
-      </c>
-      <c r="H3">
-        <v>1.9567999999999999E-2</v>
-      </c>
-      <c r="I3">
-        <v>4.5429999999999998E-2</v>
-      </c>
-      <c r="J3">
-        <v>4.1738999999999998E-2</v>
-      </c>
-      <c r="K3">
-        <v>0.172097</v>
-      </c>
-      <c r="L3">
-        <v>0.13663800000000001</v>
-      </c>
-      <c r="M3">
-        <v>6.1498999999999998E-2</v>
-      </c>
-      <c r="N3">
-        <v>0.110468</v>
-      </c>
-      <c r="O3">
-        <v>4.9345E-2</v>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.4493999999999998E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.7687000000000001E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.0556000000000001E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.2388000000000002E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3.5929000000000003E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.3292000000000002E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4.4389999999999999E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.101073</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5.1013000000000003E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.29870799999999997</v>
+      </c>
+      <c r="L3" s="1">
+        <v>8.0829999999999999E-2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.14932699999999999</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.10638499999999999</v>
+      </c>
+      <c r="O3" s="1">
+        <v>6.6092999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>300</v>
-      </c>
-      <c r="B4">
-        <v>2.9537000000000001E-2</v>
-      </c>
-      <c r="C4">
-        <v>2.4806999999999999E-2</v>
-      </c>
-      <c r="D4">
-        <v>2.0985E-2</v>
-      </c>
-      <c r="E4">
-        <v>2.1597999999999999E-2</v>
-      </c>
-      <c r="F4">
-        <v>2.5968999999999999E-2</v>
-      </c>
-      <c r="G4">
-        <v>2.3743E-2</v>
-      </c>
-      <c r="H4">
-        <v>2.5981000000000001E-2</v>
-      </c>
-      <c r="I4">
-        <v>0.109569</v>
-      </c>
-      <c r="J4">
-        <v>6.5766000000000005E-2</v>
-      </c>
-      <c r="K4">
-        <v>3.6645999999999998E-2</v>
-      </c>
-      <c r="L4">
-        <v>3.4050999999999998E-2</v>
-      </c>
-      <c r="M4">
-        <v>3.7612E-2</v>
-      </c>
-      <c r="N4">
-        <v>4.1687000000000002E-2</v>
-      </c>
-      <c r="O4">
-        <v>4.4977999999999997E-2</v>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.12997600000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.11264200000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8.4619E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8.6471999999999993E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.10445</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.111591</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.103701</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.56723000000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.255216</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.150313</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.11884400000000001</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.13841100000000001</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.19123100000000001</v>
+      </c>
+      <c r="O4" s="1">
+        <v>9.4934000000000004E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>400</v>
-      </c>
-      <c r="B5">
-        <v>6.5143000000000006E-2</v>
-      </c>
-      <c r="C5">
-        <v>4.4749999999999998E-2</v>
-      </c>
-      <c r="D5">
-        <v>3.4826999999999997E-2</v>
-      </c>
-      <c r="E5">
-        <v>3.3982999999999999E-2</v>
-      </c>
-      <c r="F5">
-        <v>3.4376999999999998E-2</v>
-      </c>
-      <c r="G5">
-        <v>3.7689E-2</v>
-      </c>
-      <c r="H5">
-        <v>3.9155000000000002E-2</v>
-      </c>
-      <c r="I5">
-        <v>0.31512299999999999</v>
-      </c>
-      <c r="J5">
-        <v>0.16719300000000001</v>
-      </c>
-      <c r="K5">
-        <v>9.4002000000000002E-2</v>
-      </c>
-      <c r="L5">
-        <v>6.5533999999999995E-2</v>
-      </c>
-      <c r="M5">
-        <v>0.101435</v>
-      </c>
-      <c r="N5">
-        <v>7.9588000000000006E-2</v>
-      </c>
-      <c r="O5">
-        <v>0.10122</v>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.124414</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8.9348999999999998E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.9008999999999996E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6.2743999999999994E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6.8048999999999998E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6.3752000000000003E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7.0538000000000003E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.47822399999999998</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.27556000000000003</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.17801400000000001</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.15778300000000001</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.13489599999999999</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.11497599999999999</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.14423900000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>500</v>
-      </c>
-      <c r="B6">
-        <v>0.12603400000000001</v>
-      </c>
-      <c r="C6">
-        <v>8.2941000000000001E-2</v>
-      </c>
-      <c r="D6">
-        <v>5.5756E-2</v>
-      </c>
-      <c r="E6">
-        <v>5.3469000000000003E-2</v>
-      </c>
-      <c r="F6">
-        <v>5.4043000000000001E-2</v>
-      </c>
-      <c r="G6">
-        <v>5.3691000000000003E-2</v>
-      </c>
-      <c r="H6">
-        <v>5.3968000000000002E-2</v>
-      </c>
-      <c r="I6">
-        <v>0.62316499999999997</v>
-      </c>
-      <c r="J6">
-        <v>0.33102999999999999</v>
-      </c>
-      <c r="K6">
-        <v>0.17697499999999999</v>
-      </c>
-      <c r="L6">
-        <v>0.149393</v>
-      </c>
-      <c r="M6">
-        <v>0.184554</v>
-      </c>
-      <c r="N6">
-        <v>0.15897800000000001</v>
-      </c>
-      <c r="O6">
-        <v>0.14733199999999999</v>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.20836099999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.147759</v>
+      </c>
+      <c r="D6" s="1">
+        <v>9.1853000000000004E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.111065</v>
+      </c>
+      <c r="F6" s="1">
+        <v>9.5163999999999999E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.10449600000000001</v>
+      </c>
+      <c r="H6" s="1">
+        <v>9.9723000000000006E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.89933099999999999</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.50883999999999996</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.32383400000000001</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.29122100000000001</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.28953099999999998</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.24793699999999999</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.29333100000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>600</v>
-      </c>
-      <c r="B7">
-        <v>0.21890200000000001</v>
-      </c>
-      <c r="C7">
-        <v>0.13446</v>
-      </c>
-      <c r="D7">
-        <v>8.3867999999999998E-2</v>
-      </c>
-      <c r="E7">
-        <v>7.578E-2</v>
-      </c>
-      <c r="F7">
-        <v>7.9309000000000004E-2</v>
-      </c>
-      <c r="G7">
-        <v>7.7176999999999996E-2</v>
-      </c>
-      <c r="H7">
-        <v>8.0204999999999999E-2</v>
-      </c>
-      <c r="I7">
-        <v>1.1881969999999999</v>
-      </c>
-      <c r="J7">
-        <v>0.61326599999999998</v>
-      </c>
-      <c r="K7">
-        <v>0.32384400000000002</v>
-      </c>
-      <c r="L7">
-        <v>0.23205200000000001</v>
-      </c>
-      <c r="M7">
-        <v>0.325768</v>
-      </c>
-      <c r="N7">
-        <v>0.27966999999999997</v>
-      </c>
-      <c r="O7">
-        <v>0.337918</v>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.32447399999999998</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.20876800000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.157831</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.14763100000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.14014499999999999</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.14571100000000001</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.14580899999999999</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.5753790000000001</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.87317100000000003</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.540273</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.57854399999999995</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.45863300000000001</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.42134300000000002</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.52684299999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>700</v>
-      </c>
-      <c r="B8">
-        <v>0.34907199999999999</v>
-      </c>
-      <c r="C8">
-        <v>0.20738300000000001</v>
-      </c>
-      <c r="D8">
-        <v>0.12228799999999999</v>
-      </c>
-      <c r="E8">
-        <v>0.10553</v>
-      </c>
-      <c r="F8">
-        <v>0.105147</v>
-      </c>
-      <c r="G8">
-        <v>0.116093</v>
-      </c>
-      <c r="H8">
-        <v>0.10835599999999999</v>
-      </c>
-      <c r="I8">
-        <v>1.8522970000000001</v>
-      </c>
-      <c r="J8">
-        <v>1.0212060000000001</v>
-      </c>
-      <c r="K8">
-        <v>0.52366400000000002</v>
-      </c>
-      <c r="L8">
-        <v>0.37856699999999999</v>
-      </c>
-      <c r="M8">
-        <v>0.52991900000000003</v>
-      </c>
-      <c r="N8">
-        <v>0.44195800000000002</v>
-      </c>
-      <c r="O8">
-        <v>0.38273499999999999</v>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.56672800000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.41343099999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.27518799999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.21739700000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.20147699999999999</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.19881099999999999</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.19949500000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3.00684</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.5318860000000001</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.89402099999999995</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.82852599999999998</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.71720700000000004</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.65948200000000001</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.80163799999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>800</v>
-      </c>
-      <c r="B9">
-        <v>0.51637</v>
-      </c>
-      <c r="C9">
-        <v>0.29960900000000001</v>
-      </c>
-      <c r="D9">
-        <v>0.171377</v>
-      </c>
-      <c r="E9">
-        <v>0.13813300000000001</v>
-      </c>
-      <c r="F9">
-        <v>0.14616699999999999</v>
-      </c>
-      <c r="G9">
-        <v>0.146814</v>
-      </c>
-      <c r="H9">
-        <v>0.14671000000000001</v>
-      </c>
-      <c r="I9">
-        <v>2.7616909999999999</v>
-      </c>
-      <c r="J9">
-        <v>1.4968109999999999</v>
-      </c>
-      <c r="K9">
-        <v>0.75709800000000005</v>
-      </c>
-      <c r="L9">
-        <v>0.595557</v>
-      </c>
-      <c r="M9">
-        <v>0.75421899999999997</v>
-      </c>
-      <c r="N9">
-        <v>0.65240399999999998</v>
-      </c>
-      <c r="O9">
-        <v>0.71636200000000005</v>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.77276900000000004</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.53810100000000005</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.33187899999999998</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.32805800000000002</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.29033599999999998</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.26911400000000002</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.26072000000000001</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4.3462899999999998</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2.1500710000000001</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.4195420000000001</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1.1980139999999999</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1.1231530000000001</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.94234399999999996</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1.15699</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>900</v>
-      </c>
-      <c r="B10">
-        <v>0.74017699999999997</v>
-      </c>
-      <c r="C10">
-        <v>0.41201700000000002</v>
-      </c>
-      <c r="D10">
-        <v>0.23649500000000001</v>
-      </c>
-      <c r="E10">
-        <v>0.18923200000000001</v>
-      </c>
-      <c r="F10">
-        <v>0.19710900000000001</v>
-      </c>
-      <c r="G10">
-        <v>0.19359899999999999</v>
-      </c>
-      <c r="H10">
-        <v>0.19870299999999999</v>
-      </c>
-      <c r="I10">
-        <v>3.9783729999999999</v>
-      </c>
-      <c r="J10">
-        <v>2.113035</v>
-      </c>
-      <c r="K10">
-        <v>1.133839</v>
-      </c>
-      <c r="L10">
-        <v>0.86417999999999995</v>
-      </c>
-      <c r="M10">
-        <v>1.083113</v>
-      </c>
-      <c r="N10">
-        <v>0.88226599999999999</v>
-      </c>
-      <c r="O10">
-        <v>1.1227849999999999</v>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.0789899999999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.61581600000000003</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.39991399999999999</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.35796099999999997</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.36745899999999998</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.36325600000000002</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.37120900000000001</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5.5719560000000001</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3.1283370000000001</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2.0114529999999999</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1.8495900000000001</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1.653886</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1.415986</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1.704161</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>1000</v>
-      </c>
-      <c r="B11">
-        <v>1.0138</v>
-      </c>
-      <c r="C11">
-        <v>0.56047000000000002</v>
-      </c>
-      <c r="D11">
-        <v>0.31395099999999998</v>
-      </c>
-      <c r="E11">
-        <v>0.24429899999999999</v>
-      </c>
-      <c r="F11">
-        <v>0.25056299999999998</v>
-      </c>
-      <c r="G11">
-        <v>0.25439499999999998</v>
-      </c>
-      <c r="H11">
-        <v>0.26528800000000002</v>
-      </c>
-      <c r="I11">
-        <v>5.5230009999999998</v>
-      </c>
-      <c r="J11">
-        <v>2.9417960000000001</v>
-      </c>
-      <c r="K11">
-        <v>1.524294</v>
-      </c>
-      <c r="L11">
-        <v>1.156229</v>
-      </c>
-      <c r="M11">
-        <v>1.585016</v>
-      </c>
-      <c r="N11">
-        <v>1.2605230000000001</v>
-      </c>
-      <c r="O11">
-        <v>1.3116840000000001</v>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.4886090000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.94686999999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.70638699999999999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.54354400000000003</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.46986600000000001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.42741299999999999</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.45860299999999998</v>
+      </c>
+      <c r="I11" s="1">
+        <v>9.1733630000000002</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4.7489189999999999</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2.793218</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2.4472559999999999</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2.1420669999999999</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2.9409169999999998</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2.3697400000000002</v>
       </c>
     </row>
   </sheetData>
@@ -5205,12 +5163,12 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5236,10 +5194,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="str">
         <f>Лист1!A2</f>
-        <v>100</v>
+        <v>100x100</v>
       </c>
       <c r="B2" s="1">
         <f>Лист1!B2/Лист1!$B2</f>
@@ -5247,33 +5205,33 @@
       </c>
       <c r="C2" s="1">
         <f>Лист1!$B2/Лист1!C2</f>
-        <v>0.43834664814171592</v>
+        <v>0.25974499089253189</v>
       </c>
       <c r="D2" s="1">
         <f>Лист1!$B2/Лист1!D2</f>
-        <v>0.34052887209929844</v>
+        <v>0.31623299822590178</v>
       </c>
       <c r="E2" s="1">
         <f>Лист1!$B2/Лист1!E2</f>
-        <v>0.27251133664435329</v>
+        <v>0.18029332434254888</v>
       </c>
       <c r="F2" s="1">
         <f>Лист1!$B2/Лист1!F2</f>
-        <v>0.22547793460782561</v>
+        <v>0.15873840445269013</v>
       </c>
       <c r="G2" s="1">
         <f>Лист1!$B2/Лист1!G2</f>
-        <v>0.19000301114122253</v>
+        <v>0.11824865940626898</v>
       </c>
       <c r="H2" s="1">
         <f>Лист1!$B2/Лист1!H2</f>
-        <v>0.16815456362425049</v>
+        <v>5.8291320343371027E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="str">
         <f>Лист1!A3</f>
-        <v>200</v>
+        <v>200x200</v>
       </c>
       <c r="B3" s="1">
         <f>Лист1!B3/Лист1!$B3</f>
@@ -5281,33 +5239,33 @@
       </c>
       <c r="C3" s="1">
         <f>Лист1!$B3/Лист1!C3</f>
-        <v>0.95922675258304624</v>
+        <v>1.3848589359416519</v>
       </c>
       <c r="D3" s="1">
         <f>Лист1!$B3/Лист1!D3</f>
-        <v>0.99665242987417735</v>
+        <v>1.19157423623273</v>
       </c>
       <c r="E3" s="1">
         <f>Лист1!$B3/Лист1!E3</f>
-        <v>0.94319423202971364</v>
+        <v>1.0940682508486688</v>
       </c>
       <c r="F3" s="1">
         <f>Лист1!$B3/Лист1!F3</f>
-        <v>0.8017457516946791</v>
+        <v>0.68173341868685455</v>
       </c>
       <c r="G3" s="1">
         <f>Лист1!$B3/Лист1!G3</f>
-        <v>0.69735885631209105</v>
+        <v>0.73573230806199674</v>
       </c>
       <c r="H3" s="1">
         <f>Лист1!$B3/Лист1!H3</f>
-        <v>0.44123058053965658</v>
+        <v>0.55179094390628514</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="str">
         <f>Лист1!A4</f>
-        <v>300</v>
+        <v>300x300</v>
       </c>
       <c r="B4" s="1">
         <f>Лист1!B4/Лист1!$B4</f>
@@ -5315,33 +5273,33 @@
       </c>
       <c r="C4" s="1">
         <f>Лист1!$B4/Лист1!C4</f>
-        <v>1.1906719877453946</v>
+        <v>1.1538857619715559</v>
       </c>
       <c r="D4" s="1">
         <f>Лист1!$B4/Лист1!D4</f>
-        <v>1.4075291875148916</v>
+        <v>1.5360143702950875</v>
       </c>
       <c r="E4" s="1">
         <f>Лист1!$B4/Лист1!E4</f>
-        <v>1.3675803315121771</v>
+        <v>1.5030992691275791</v>
       </c>
       <c r="F4" s="1">
         <f>Лист1!$B4/Лист1!F4</f>
-        <v>1.1373945858523624</v>
+        <v>1.2443848731450455</v>
       </c>
       <c r="G4" s="1">
         <f>Лист1!$B4/Лист1!G4</f>
-        <v>1.2440298193151667</v>
+        <v>1.164753429936106</v>
       </c>
       <c r="H4" s="1">
         <f>Лист1!$B4/Лист1!H4</f>
-        <v>1.1368692506062121</v>
+        <v>1.2533726772162275</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="str">
         <f>Лист1!A5</f>
-        <v>400</v>
+        <v>400x400</v>
       </c>
       <c r="B5" s="1">
         <f>Лист1!B5/Лист1!$B5</f>
@@ -5349,33 +5307,33 @@
       </c>
       <c r="C5" s="1">
         <f>Лист1!$B5/Лист1!C5</f>
-        <v>1.4557094972067042</v>
+        <v>1.3924498315593907</v>
       </c>
       <c r="D5" s="1">
         <f>Лист1!$B5/Лист1!D5</f>
-        <v>1.8704740574841363</v>
+        <v>1.5746813654140668</v>
       </c>
       <c r="E5" s="1">
         <f>Лист1!$B5/Лист1!E5</f>
-        <v>1.9169290527616751</v>
+        <v>1.9828828254494455</v>
       </c>
       <c r="F5" s="1">
         <f>Лист1!$B5/Лист1!F5</f>
-        <v>1.8949588387584726</v>
+        <v>1.8283001954473983</v>
       </c>
       <c r="G5" s="1">
         <f>Лист1!$B5/Лист1!G5</f>
-        <v>1.7284353524901166</v>
+        <v>1.9515309323629062</v>
       </c>
       <c r="H5" s="1">
         <f>Лист1!$B5/Лист1!H5</f>
-        <v>1.6637211084152728</v>
+        <v>1.7637868950069464</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="str">
         <f>Лист1!A6</f>
-        <v>500</v>
+        <v>500x500</v>
       </c>
       <c r="B6" s="1">
         <f>Лист1!B6/Лист1!$B6</f>
@@ -5383,33 +5341,33 @@
       </c>
       <c r="C6" s="1">
         <f>Лист1!$B6/Лист1!C6</f>
-        <v>1.5195620983590745</v>
+        <v>1.4101408374447579</v>
       </c>
       <c r="D6" s="1">
         <f>Лист1!$B6/Лист1!D6</f>
-        <v>2.2604562737642588</v>
+        <v>2.2684180157425451</v>
       </c>
       <c r="E6" s="1">
         <f>Лист1!$B6/Лист1!E6</f>
-        <v>2.3571415212553068</v>
+        <v>1.8760275514338449</v>
       </c>
       <c r="F6" s="1">
         <f>Лист1!$B6/Лист1!F6</f>
-        <v>2.3321059156597523</v>
+        <v>2.1894939262746416</v>
       </c>
       <c r="G6" s="1">
         <f>Лист1!$B6/Лист1!G6</f>
-        <v>2.347395280400812</v>
+        <v>1.993961491348951</v>
       </c>
       <c r="H6" s="1">
         <f>Лист1!$B6/Лист1!H6</f>
-        <v>2.3353468722205752</v>
+        <v>2.0893976314390859</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="str">
         <f>Лист1!A7</f>
-        <v>600</v>
+        <v>600x600</v>
       </c>
       <c r="B7" s="1">
         <f>Лист1!B7/Лист1!$B7</f>
@@ -5417,33 +5375,33 @@
       </c>
       <c r="C7" s="1">
         <f>Лист1!$B7/Лист1!C7</f>
-        <v>1.6280083296147554</v>
+        <v>1.554232449417535</v>
       </c>
       <c r="D7" s="1">
         <f>Лист1!$B7/Лист1!D7</f>
-        <v>2.6100777412123817</v>
+        <v>2.0558318707985124</v>
       </c>
       <c r="E7" s="1">
         <f>Лист1!$B7/Лист1!E7</f>
-        <v>2.8886513591976777</v>
+        <v>2.197871720709065</v>
       </c>
       <c r="F7" s="1">
         <f>Лист1!$B7/Лист1!F7</f>
-        <v>2.7601154976106117</v>
+        <v>2.3152734667665631</v>
       </c>
       <c r="G7" s="1">
         <f>Лист1!$B7/Лист1!G7</f>
-        <v>2.8363631651917025</v>
+        <v>2.2268325658323667</v>
       </c>
       <c r="H7" s="1">
         <f>Лист1!$B7/Лист1!H7</f>
-        <v>2.7292812168817409</v>
+        <v>2.2253358846161762</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="str">
         <f>Лист1!A8</f>
-        <v>700</v>
+        <v>700x700</v>
       </c>
       <c r="B8" s="1">
         <f>Лист1!B8/Лист1!$B8</f>
@@ -5451,33 +5409,33 @@
       </c>
       <c r="C8" s="1">
         <f>Лист1!$B8/Лист1!C8</f>
-        <v>1.6832237936571464</v>
+        <v>1.3707922240954356</v>
       </c>
       <c r="D8" s="1">
         <f>Лист1!$B8/Лист1!D8</f>
-        <v>2.8545073923851891</v>
+        <v>2.0594211956916726</v>
       </c>
       <c r="E8" s="1">
         <f>Лист1!$B8/Лист1!E8</f>
-        <v>3.3077987302188951</v>
+        <v>2.6068804997309072</v>
       </c>
       <c r="F8" s="1">
         <f>Лист1!$B8/Лист1!F8</f>
-        <v>3.31984745166291</v>
+        <v>2.8128669773721073</v>
       </c>
       <c r="G8" s="1">
         <f>Лист1!$B8/Лист1!G8</f>
-        <v>3.0068307305350022</v>
+        <v>2.8505867381583516</v>
       </c>
       <c r="H8" s="1">
         <f>Лист1!$B8/Лист1!H8</f>
-        <v>3.2215290339252096</v>
+        <v>2.8408130529587208</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="str">
         <f>Лист1!A9</f>
-        <v>800</v>
+        <v>800x800</v>
       </c>
       <c r="B9" s="1">
         <f>Лист1!B9/Лист1!$B9</f>
@@ -5485,33 +5443,33 @@
       </c>
       <c r="C9" s="1">
         <f>Лист1!$B9/Лист1!C9</f>
-        <v>1.7234796017476111</v>
+        <v>1.436104002780147</v>
       </c>
       <c r="D9" s="1">
         <f>Лист1!$B9/Лист1!D9</f>
-        <v>3.0130647636497314</v>
+        <v>2.3284660975837581</v>
       </c>
       <c r="E9" s="1">
         <f>Лист1!$B9/Лист1!E9</f>
-        <v>3.7382088277240051</v>
+        <v>2.3555865121411457</v>
       </c>
       <c r="F9" s="1">
         <f>Лист1!$B9/Лист1!F9</f>
-        <v>3.5327399481415096</v>
+        <v>2.6616368621183737</v>
       </c>
       <c r="G9" s="1">
         <f>Лист1!$B9/Лист1!G9</f>
-        <v>3.5171713869249528</v>
+        <v>2.8715302808475216</v>
       </c>
       <c r="H9" s="1">
         <f>Лист1!$B9/Лист1!H9</f>
-        <v>3.5196646445368414</v>
+        <v>2.963980515495551</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="str">
         <f>Лист1!A10</f>
-        <v>900</v>
+        <v>900x900</v>
       </c>
       <c r="B10" s="1">
         <f>Лист1!B10/Лист1!$B10</f>
@@ -5519,33 +5477,33 @@
       </c>
       <c r="C10" s="1">
         <f>Лист1!$B10/Лист1!C10</f>
-        <v>1.7964719902334125</v>
+        <v>1.7521305065149329</v>
       </c>
       <c r="D10" s="1">
         <f>Лист1!$B10/Лист1!D10</f>
-        <v>3.129778642254593</v>
+        <v>2.6980550818425959</v>
       </c>
       <c r="E10" s="1">
         <f>Лист1!$B10/Лист1!E10</f>
-        <v>3.9114790310306922</v>
+        <v>3.0142669173457444</v>
       </c>
       <c r="F10" s="1">
         <f>Лист1!$B10/Лист1!F10</f>
-        <v>3.7551659234230805</v>
+        <v>2.9363548042094489</v>
       </c>
       <c r="G10" s="1">
         <f>Лист1!$B10/Лист1!G10</f>
-        <v>3.8232480539672209</v>
+        <v>2.9703294646199918</v>
       </c>
       <c r="H10" s="1">
         <f>Лист1!$B10/Лист1!H10</f>
-        <v>3.7250418967001</v>
+        <v>2.9066913787111841</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="str">
         <f>Лист1!A11</f>
-        <v>1000</v>
+        <v>1000x1000</v>
       </c>
       <c r="B11" s="1">
         <f>Лист1!B11/Лист1!$B11</f>
@@ -5553,32 +5511,32 @@
       </c>
       <c r="C11" s="1">
         <f>Лист1!$B11/Лист1!C11</f>
-        <v>1.8088390101165093</v>
+        <v>1.5721366185432004</v>
       </c>
       <c r="D11" s="1">
         <f>Лист1!$B11/Лист1!D11</f>
-        <v>3.2291663348739137</v>
+        <v>2.1073561659543567</v>
       </c>
       <c r="E11" s="1">
         <f>Лист1!$B11/Лист1!E11</f>
-        <v>4.1498327868718254</v>
+        <v>2.7387092857247985</v>
       </c>
       <c r="F11" s="1">
         <f>Лист1!$B11/Лист1!F11</f>
-        <v>4.0460882093525381</v>
+        <v>3.1681564531164206</v>
       </c>
       <c r="G11" s="1">
         <f>Лист1!$B11/Лист1!G11</f>
-        <v>3.9851412173981413</v>
+        <v>3.4828351032841773</v>
       </c>
       <c r="H11" s="1">
         <f>Лист1!$B11/Лист1!H11</f>
-        <v>3.821507192183589</v>
+        <v>3.2459643744153444</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:H11">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5592,12 +5550,12 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5623,10 +5581,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="str">
         <f>Лист1!A2</f>
-        <v>100</v>
+        <v>100x100</v>
       </c>
       <c r="B2" s="1">
         <f>Лист1!G2/Лист1!$G2</f>
@@ -5634,33 +5592,33 @@
       </c>
       <c r="C2" s="1">
         <f>Лист1!$I2/Лист1!J2</f>
-        <v>0.56211092246745897</v>
+        <v>0.97684852835606606</v>
       </c>
       <c r="D2" s="1">
         <f>Лист1!$I2/Лист1!K2</f>
-        <v>1.0197638603696098</v>
+        <v>1.6961670302274852</v>
       </c>
       <c r="E2" s="1">
         <f>Лист1!$I2/Лист1!L2</f>
-        <v>0.63905420620878228</v>
+        <v>1.1828751494078018</v>
       </c>
       <c r="F2" s="1">
         <f>Лист1!$I2/Лист1!M2</f>
-        <v>0.66829268292682931</v>
+        <v>0.80156100434430455</v>
       </c>
       <c r="G2" s="1">
         <f>Лист1!$I2/Лист1!N2</f>
-        <v>0.73100275988960439</v>
+        <v>0.72772244133966169</v>
       </c>
       <c r="H2" s="1">
         <f>Лист1!$I2/Лист1!O2</f>
-        <v>0.53465213295653347</v>
+        <v>0.56339923403374392</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="str">
         <f>Лист1!A3</f>
-        <v>200</v>
+        <v>200x200</v>
       </c>
       <c r="B3" s="1">
         <f>Лист1!G3/Лист1!$G3</f>
@@ -5668,33 +5626,33 @@
       </c>
       <c r="C3" s="1">
         <f>Лист1!$I3/Лист1!J3</f>
-        <v>1.0884304846785979</v>
+        <v>1.9813184874443768</v>
       </c>
       <c r="D3" s="1">
         <f>Лист1!$I3/Лист1!K3</f>
-        <v>0.26397903507905424</v>
+        <v>0.33836723489159987</v>
       </c>
       <c r="E3" s="1">
         <f>Лист1!$I3/Лист1!L3</f>
-        <v>0.33248437477129344</v>
+        <v>1.2504391933687986</v>
       </c>
       <c r="F3" s="1">
         <f>Лист1!$I3/Лист1!M3</f>
-        <v>0.73871119855607403</v>
+        <v>0.67685683098167115</v>
       </c>
       <c r="G3" s="1">
         <f>Лист1!$I3/Лист1!N3</f>
-        <v>0.41125031683383423</v>
+        <v>0.95006814870517464</v>
       </c>
       <c r="H3" s="1">
         <f>Лист1!$I3/Лист1!O3</f>
-        <v>0.92066065457493151</v>
+        <v>1.5292542326721437</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="str">
         <f>Лист1!A4</f>
-        <v>300</v>
+        <v>300x300</v>
       </c>
       <c r="B4" s="1">
         <f>Лист1!G4/Лист1!$G4</f>
@@ -5702,33 +5660,33 @@
       </c>
       <c r="C4" s="1">
         <f>Лист1!$I4/Лист1!J4</f>
-        <v>1.666043244229541</v>
+        <v>2.2225487430255155</v>
       </c>
       <c r="D4" s="1">
         <f>Лист1!$I4/Лист1!K4</f>
-        <v>2.9899306882060799</v>
+        <v>3.7736589649597838</v>
       </c>
       <c r="E4" s="1">
         <f>Лист1!$I4/Лист1!L4</f>
-        <v>3.2177909606178967</v>
+        <v>4.7728955605667931</v>
       </c>
       <c r="F4" s="1">
         <f>Лист1!$I4/Лист1!M4</f>
-        <v>2.9131394235882166</v>
+        <v>4.0981569383936245</v>
       </c>
       <c r="G4" s="1">
         <f>Лист1!$I4/Лист1!N4</f>
-        <v>2.6283733538033438</v>
+        <v>2.9662031783549736</v>
       </c>
       <c r="H4" s="1">
         <f>Лист1!$I4/Лист1!O4</f>
-        <v>2.4360576281737738</v>
+        <v>5.9749931531379694</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="str">
         <f>Лист1!A5</f>
-        <v>400</v>
+        <v>400x400</v>
       </c>
       <c r="B5" s="1">
         <f>Лист1!G5/Лист1!$G5</f>
@@ -5736,33 +5694,33 @@
       </c>
       <c r="C5" s="1">
         <f>Лист1!$I5/Лист1!J5</f>
-        <v>1.8847858462973928</v>
+        <v>1.7354623312527215</v>
       </c>
       <c r="D5" s="1">
         <f>Лист1!$I5/Лист1!K5</f>
-        <v>3.3523010148720238</v>
+        <v>2.6864403923286932</v>
       </c>
       <c r="E5" s="1">
         <f>Лист1!$I5/Лист1!L5</f>
-        <v>4.8085421308023317</v>
+        <v>3.0308968646812393</v>
       </c>
       <c r="F5" s="1">
         <f>Лист1!$I5/Лист1!M5</f>
-        <v>3.1066495785478385</v>
+        <v>3.5451310639307319</v>
       </c>
       <c r="G5" s="1">
         <f>Лист1!$I5/Лист1!N5</f>
-        <v>3.9594285570689043</v>
+        <v>4.1593376008906207</v>
       </c>
       <c r="H5" s="1">
         <f>Лист1!$I5/Лист1!O5</f>
-        <v>3.1132483698873736</v>
+        <v>3.3154971956267025</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="str">
         <f>Лист1!A6</f>
-        <v>500</v>
+        <v>500x500</v>
       </c>
       <c r="B6" s="1">
         <f>Лист1!G6/Лист1!$G6</f>
@@ -5770,33 +5728,33 @@
       </c>
       <c r="C6" s="1">
         <f>Лист1!$I6/Лист1!J6</f>
-        <v>1.8825030963960969</v>
+        <v>1.7674141183869194</v>
       </c>
       <c r="D6" s="1">
         <f>Лист1!$I6/Лист1!K6</f>
-        <v>3.5212035598248339</v>
+        <v>2.7771358164985762</v>
       </c>
       <c r="E6" s="1">
         <f>Лист1!$I6/Лист1!L6</f>
-        <v>4.1713132476086558</v>
+        <v>3.0881392481998207</v>
       </c>
       <c r="F6" s="1">
         <f>Лист1!$I6/Лист1!M6</f>
-        <v>3.3765998027677537</v>
+        <v>3.1061647975519029</v>
       </c>
       <c r="G6" s="1">
         <f>Лист1!$I6/Лист1!N6</f>
-        <v>3.9198190944659004</v>
+        <v>3.627256117481457</v>
       </c>
       <c r="H6" s="1">
         <f>Лист1!$I6/Лист1!O6</f>
-        <v>4.2296649743436596</v>
+        <v>3.0659255244075805</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="str">
         <f>Лист1!A7</f>
-        <v>600</v>
+        <v>600x600</v>
       </c>
       <c r="B7" s="1">
         <f>Лист1!G7/Лист1!$G7</f>
@@ -5804,33 +5762,33 @@
       </c>
       <c r="C7" s="1">
         <f>Лист1!$I7/Лист1!J7</f>
-        <v>1.9374904201439507</v>
+        <v>1.8042044456355055</v>
       </c>
       <c r="D7" s="1">
         <f>Лист1!$I7/Лист1!K7</f>
-        <v>3.6690412667827714</v>
+        <v>2.9158943719193817</v>
       </c>
       <c r="E7" s="1">
         <f>Лист1!$I7/Лист1!L7</f>
-        <v>5.120391119231896</v>
+        <v>2.7230063746231923</v>
       </c>
       <c r="F7" s="1">
         <f>Лист1!$I7/Лист1!M7</f>
-        <v>3.6473717492203037</v>
+        <v>3.4349447161455893</v>
       </c>
       <c r="G7" s="1">
         <f>Лист1!$I7/Лист1!N7</f>
-        <v>4.2485679550899276</v>
+        <v>3.7389466539137945</v>
       </c>
       <c r="H7" s="1">
         <f>Лист1!$I7/Лист1!O7</f>
-        <v>3.5162287892328905</v>
+        <v>2.9902247918260283</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="str">
         <f>Лист1!A8</f>
-        <v>700</v>
+        <v>700x700</v>
       </c>
       <c r="B8" s="1">
         <f>Лист1!G8/Лист1!$G8</f>
@@ -5838,33 +5796,33 @@
       </c>
       <c r="C8" s="1">
         <f>Лист1!$I8/Лист1!J8</f>
-        <v>1.8138328603631393</v>
+        <v>1.9628353545890489</v>
       </c>
       <c r="D8" s="1">
         <f>Лист1!$I8/Лист1!K8</f>
-        <v>3.5371860582358154</v>
+        <v>3.3632767015539904</v>
       </c>
       <c r="E8" s="1">
         <f>Лист1!$I8/Лист1!L8</f>
-        <v>4.8929172378997645</v>
+        <v>3.6291438047810209</v>
       </c>
       <c r="F8" s="1">
         <f>Лист1!$I8/Лист1!M8</f>
-        <v>3.4954342078695047</v>
+        <v>4.1924298006014995</v>
       </c>
       <c r="G8" s="1">
         <f>Лист1!$I8/Лист1!N8</f>
-        <v>4.1911154453590616</v>
+        <v>4.5593966173451284</v>
       </c>
       <c r="H8" s="1">
         <f>Лист1!$I8/Лист1!O8</f>
-        <v>4.8396331665512697</v>
+        <v>3.7508700934835923</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="str">
         <f>Лист1!A9</f>
-        <v>800</v>
+        <v>800x800</v>
       </c>
       <c r="B9" s="1">
         <f>Лист1!G9/Лист1!$G9</f>
@@ -5872,33 +5830,33 @@
       </c>
       <c r="C9" s="1">
         <f>Лист1!$I9/Лист1!J9</f>
-        <v>1.8450499094408046</v>
+        <v>2.0214634772526114</v>
       </c>
       <c r="D9" s="1">
         <f>Лист1!$I9/Лист1!K9</f>
-        <v>3.6477325260402216</v>
+        <v>3.0617551294713361</v>
       </c>
       <c r="E9" s="1">
         <f>Лист1!$I9/Лист1!L9</f>
-        <v>4.637156477045858</v>
+        <v>3.6279125285681135</v>
       </c>
       <c r="F9" s="1">
         <f>Лист1!$I9/Лист1!M9</f>
-        <v>3.6616566275842959</v>
+        <v>3.8697221126596282</v>
       </c>
       <c r="G9" s="1">
         <f>Лист1!$I9/Лист1!N9</f>
-        <v>4.2330994291880488</v>
+        <v>4.6122116764154066</v>
       </c>
       <c r="H9" s="1">
         <f>Лист1!$I9/Лист1!O9</f>
-        <v>3.8551612173733387</v>
+        <v>3.756549321947467</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="str">
         <f>Лист1!A10</f>
-        <v>900</v>
+        <v>900x900</v>
       </c>
       <c r="B10" s="1">
         <f>Лист1!G10/Лист1!$G10</f>
@@ -5906,33 +5864,33 @@
       </c>
       <c r="C10" s="1">
         <f>Лист1!$I10/Лист1!J10</f>
-        <v>1.8827766695771722</v>
+        <v>1.7811239645856569</v>
       </c>
       <c r="D10" s="1">
         <f>Лист1!$I10/Лист1!K10</f>
-        <v>3.5087635898923919</v>
+        <v>2.7701149368143327</v>
       </c>
       <c r="E10" s="1">
         <f>Лист1!$I10/Лист1!L10</f>
-        <v>4.6036392881112729</v>
+        <v>3.0125357511664745</v>
       </c>
       <c r="F10" s="1">
         <f>Лист1!$I10/Лист1!M10</f>
-        <v>3.6730913579654199</v>
+        <v>3.3690085048183493</v>
       </c>
       <c r="G10" s="1">
         <f>Лист1!$I10/Лист1!N10</f>
-        <v>4.5092670464463094</v>
+        <v>3.9350360808652063</v>
       </c>
       <c r="H10" s="1">
         <f>Лист1!$I10/Лист1!O10</f>
-        <v>3.5433079351790417</v>
+        <v>3.269618304843263</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="str">
         <f>Лист1!A11</f>
-        <v>1000</v>
+        <v>1000x1000</v>
       </c>
       <c r="B11" s="1">
         <f>Лист1!G11/Лист1!$G11</f>
@@ -5940,32 +5898,32 @@
       </c>
       <c r="C11" s="1">
         <f>Лист1!$I11/Лист1!J11</f>
-        <v>1.8774248792234403</v>
+        <v>1.9316739241077812</v>
       </c>
       <c r="D11" s="1">
         <f>Лист1!$I11/Лист1!K11</f>
-        <v>3.6233174177684879</v>
+        <v>3.2841557658585905</v>
       </c>
       <c r="E11" s="1">
         <f>Лист1!$I11/Лист1!L11</f>
-        <v>4.7767362693722442</v>
+        <v>3.7484280353179238</v>
       </c>
       <c r="F11" s="1">
         <f>Лист1!$I11/Лист1!M11</f>
-        <v>3.4845080428210187</v>
+        <v>4.2824818271323917</v>
       </c>
       <c r="G11" s="1">
         <f>Лист1!$I11/Лист1!N11</f>
-        <v>4.381515450332917</v>
+        <v>3.1192185974646685</v>
       </c>
       <c r="H11" s="1">
         <f>Лист1!$I11/Лист1!O11</f>
-        <v>4.210618563617456</v>
+        <v>3.8710419708491224</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:H11">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/результаты/анализ.xlsx
+++ b/результаты/анализ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29070" windowHeight="15870"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Размер</t>
-  </si>
-  <si>
-    <t>Гаусс линейно</t>
   </si>
   <si>
     <t>Гаусс параллель(2)</t>
@@ -39,9 +36,6 @@
   </si>
   <si>
     <t>Гаусс параллель(12)</t>
-  </si>
-  <si>
-    <t>CG линейно</t>
   </si>
   <si>
     <t>CG параллель(2)</t>
@@ -95,43 +89,73 @@
     <t>100x100</t>
   </si>
   <si>
-    <t>200x200</t>
-  </si>
-  <si>
-    <t>300x300</t>
-  </si>
-  <si>
-    <t>400x400</t>
-  </si>
-  <si>
     <t>500x500</t>
   </si>
   <si>
-    <t>600x600</t>
+    <t>1000x1000</t>
   </si>
   <si>
-    <t>700x700</t>
+    <t>1500x1500</t>
   </si>
   <si>
-    <t>800x800</t>
+    <t>2000x2000</t>
   </si>
   <si>
-    <t>900x900</t>
+    <t>2500x2500</t>
   </si>
   <si>
-    <t>1000x1000</t>
+    <t>3000x3000</t>
+  </si>
+  <si>
+    <t>3500x3500</t>
+  </si>
+  <si>
+    <t>4000x4000</t>
+  </si>
+  <si>
+    <t>4500x4500</t>
+  </si>
+  <si>
+    <t>5000x5000</t>
+  </si>
+  <si>
+    <t>5500x5500</t>
+  </si>
+  <si>
+    <t>6000x6000</t>
+  </si>
+  <si>
+    <t>6500x6500</t>
+  </si>
+  <si>
+    <t>Гаусс сызықты</t>
+  </si>
+  <si>
+    <t>CG сызықты</t>
+  </si>
+  <si>
+    <t>Өлшемі</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -170,9 +194,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -239,17 +264,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Сравнение времени</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Әдістердің есептеу уақыты</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>вычисления</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -279,7 +301,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -298,7 +320,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Гаусс линейно</c:v>
+                  <c:v>Гаусс сызықты</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -317,77 +339,101 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$2:$A$11</c:f>
+              <c:f>Лист1!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>100x100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200x200</c:v>
+                  <c:v>500x500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300x300</c:v>
+                  <c:v>1000x1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400x400</c:v>
+                  <c:v>1500x1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500x500</c:v>
+                  <c:v>2000x2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600x600</c:v>
+                  <c:v>2500x2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700x700</c:v>
+                  <c:v>3000x3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800x800</c:v>
+                  <c:v>3500x3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900x900</c:v>
+                  <c:v>4000x4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000x1000</c:v>
+                  <c:v>4500x4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000x5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500x5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000x6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500x6500</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$11</c:f>
+              <c:f>Лист1!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.1389999999999998E-3</c:v>
+                  <c:v>2.4130000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4493999999999998E-2</c:v>
+                  <c:v>0.181258</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12997600000000001</c:v>
+                  <c:v>1.207951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.124414</c:v>
+                  <c:v>4.0654909999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20836099999999999</c:v>
+                  <c:v>9.8244959999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.32447399999999998</c:v>
+                  <c:v>19.539286000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56672800000000001</c:v>
+                  <c:v>35.40493</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.77276900000000004</c:v>
+                  <c:v>53.709325</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0789899999999999</c:v>
+                  <c:v>65.554631000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4886090000000001</c:v>
+                  <c:v>98.951352999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>133.10032899999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>177.68724399999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225.46875299999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>294.43813799999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -408,7 +454,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CG линейно</c:v>
+                  <c:v>CG сызықты</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -425,41 +471,103 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>100x100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500x500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000x1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500x1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000x2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500x2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000x3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500x3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000x4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500x4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000x5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500x5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000x6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500x6500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$I$2:$I$11</c:f>
+              <c:f>Лист1!$I$2:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.0886E-2</c:v>
+                  <c:v>9.0109999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.101073</c:v>
+                  <c:v>0.78839499999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56723000000000001</c:v>
+                  <c:v>6.5381929999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47822399999999998</c:v>
+                  <c:v>22.277898</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89933099999999999</c:v>
+                  <c:v>57.832872999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5753790000000001</c:v>
+                  <c:v>114.741939</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.00684</c:v>
+                  <c:v>206.316068</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.3462899999999998</c:v>
+                  <c:v>293.075289</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5719560000000001</c:v>
+                  <c:v>411.58971400000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.1733630000000002</c:v>
+                  <c:v>583.762562</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>812.65298700000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1114.021628</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1454.705676</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1882.174031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -538,7 +646,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="855571136"/>
@@ -597,7 +705,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="855560800"/>
@@ -640,7 +748,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -670,7 +778,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -716,15 +824,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Gauss c</a:t>
+              <a:t>Gauss </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>равнение</a:t>
+              <a:t>параллель</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> параллельных вычислении с линейным</a:t>
+              <a:t> есептеулерді сызықты есептеумен салыстыру</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -763,7 +871,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -801,77 +909,101 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Gauss!$A$2:$A$11</c:f>
+              <c:f>Gauss!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>100x100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200x200</c:v>
+                  <c:v>500x500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300x300</c:v>
+                  <c:v>1000x1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400x400</c:v>
+                  <c:v>1500x1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500x500</c:v>
+                  <c:v>2000x2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600x600</c:v>
+                  <c:v>2500x2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700x700</c:v>
+                  <c:v>3000x3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800x800</c:v>
+                  <c:v>3500x3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900x900</c:v>
+                  <c:v>4000x4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000x1000</c:v>
+                  <c:v>4500x4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000x5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500x5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000x6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500x6500</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gauss!$C$2:$C$11</c:f>
+              <c:f>Gauss!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.25974499089253189</c:v>
+                  <c:v>0.65269137138220179</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3848589359416519</c:v>
+                  <c:v>2.2489422683226423</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1538857619715559</c:v>
+                  <c:v>1.8817341319604008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3924498315593907</c:v>
+                  <c:v>2.0246882530968011</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4101408374447579</c:v>
+                  <c:v>1.7503007732183296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.554232449417535</c:v>
+                  <c:v>1.9062331222937134</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3707922240954356</c:v>
+                  <c:v>1.9650914045438799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.436104002780147</c:v>
+                  <c:v>2.0143731134704899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7521305065149329</c:v>
+                  <c:v>1.8588605765622206</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5721366185432004</c:v>
+                  <c:v>1.9812046813134188</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9992370323513</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9596719527309514</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.941301200078968</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.962494849284921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -911,77 +1043,101 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Gauss!$A$2:$A$11</c:f>
+              <c:f>Gauss!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>100x100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200x200</c:v>
+                  <c:v>500x500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300x300</c:v>
+                  <c:v>1000x1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400x400</c:v>
+                  <c:v>1500x1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500x500</c:v>
+                  <c:v>2000x2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600x600</c:v>
+                  <c:v>2500x2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700x700</c:v>
+                  <c:v>3000x3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800x800</c:v>
+                  <c:v>3500x3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900x900</c:v>
+                  <c:v>4000x4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000x1000</c:v>
+                  <c:v>4500x4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000x5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500x5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000x6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500x6500</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gauss!$D$2:$D$11</c:f>
+              <c:f>Gauss!$D$2:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.31623299822590178</c:v>
+                  <c:v>0.40829103214890017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.19157423623273</c:v>
+                  <c:v>2.8868714861356652</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5360143702950875</c:v>
+                  <c:v>3.1678975112113505</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5746813654140668</c:v>
+                  <c:v>3.2794469253554119</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2684180157425451</c:v>
+                  <c:v>3.219925824834915</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0558318707985124</c:v>
+                  <c:v>3.34977870765821</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0594211956916726</c:v>
+                  <c:v>3.3931352439966642</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3284660975837581</c:v>
+                  <c:v>3.6298727480786641</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6980550818425959</c:v>
+                  <c:v>3.3841612206857739</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1073561659543567</c:v>
+                  <c:v>3.6079826737524363</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5032622502737518</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.540052664305001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4210958649863961</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5193188447018184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1021,77 +1177,101 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Gauss!$A$2:$A$11</c:f>
+              <c:f>Gauss!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>100x100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200x200</c:v>
+                  <c:v>500x500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300x300</c:v>
+                  <c:v>1000x1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400x400</c:v>
+                  <c:v>1500x1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500x500</c:v>
+                  <c:v>2000x2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600x600</c:v>
+                  <c:v>2500x2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700x700</c:v>
+                  <c:v>3000x3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800x800</c:v>
+                  <c:v>3500x3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900x900</c:v>
+                  <c:v>4000x4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000x1000</c:v>
+                  <c:v>4500x4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000x5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500x5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000x6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500x6500</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gauss!$E$2:$E$11</c:f>
+              <c:f>Gauss!$E$2:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.18029332434254888</c:v>
+                  <c:v>0.51515798462852269</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0940682508486688</c:v>
+                  <c:v>2.7787521079258011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5030992691275791</c:v>
+                  <c:v>3.7319527431583239</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9828828254494455</c:v>
+                  <c:v>4.1124469189202308</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8760275514338449</c:v>
+                  <c:v>4.0136253741135874</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.197871720709065</c:v>
+                  <c:v>4.2628624138151467</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6068804997309072</c:v>
+                  <c:v>4.2258734732427854</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3555865121411457</c:v>
+                  <c:v>4.9580041340913725</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0142669173457444</c:v>
+                  <c:v>4.6159388409833744</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7387092857247985</c:v>
+                  <c:v>4.8466898589483147</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7407715819976213</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7249581510701226</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6397857978060832</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.7489171282753304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1131,77 +1311,101 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Gauss!$A$2:$A$11</c:f>
+              <c:f>Gauss!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>100x100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200x200</c:v>
+                  <c:v>500x500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300x300</c:v>
+                  <c:v>1000x1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400x400</c:v>
+                  <c:v>1500x1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500x500</c:v>
+                  <c:v>2000x2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600x600</c:v>
+                  <c:v>2500x2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700x700</c:v>
+                  <c:v>3000x3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800x800</c:v>
+                  <c:v>3500x3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900x900</c:v>
+                  <c:v>4000x4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000x1000</c:v>
+                  <c:v>4500x4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000x5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500x5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000x6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500x6500</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gauss!$F$2:$F$11</c:f>
+              <c:f>Gauss!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.15873840445269013</c:v>
+                  <c:v>0.37691346454233055</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68173341868685455</c:v>
+                  <c:v>2.7872124492557506</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2443848731450455</c:v>
+                  <c:v>3.808312420394214</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8283001954473983</c:v>
+                  <c:v>4.1057395649552557</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1894939262746416</c:v>
+                  <c:v>3.9675280043097843</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3152734667665631</c:v>
+                  <c:v>4.2285962235567816</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8128669773721073</c:v>
+                  <c:v>4.1922568903587374</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6616368621183737</c:v>
+                  <c:v>4.8269805450736998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9363548042094489</c:v>
+                  <c:v>4.4727062744190462</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1681564531164206</c:v>
+                  <c:v>4.7013405787943405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.676747228094202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5928447801686518</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4764757387352541</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5303815750474898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1239,41 +1443,103 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gauss!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>100x100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500x500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000x1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500x1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000x2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500x2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000x3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500x3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000x4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500x4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000x5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500x5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000x6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500x6500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gauss!$G$2:$G$11</c:f>
+              <c:f>Gauss!$G$2:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.11824865940626898</c:v>
+                  <c:v>0.43020146193617403</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73573230806199674</c:v>
+                  <c:v>2.9399227949524769</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.164753429936106</c:v>
+                  <c:v>3.8809421304923344</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9515309323629062</c:v>
+                  <c:v>4.2284424881664711</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.993961491348951</c:v>
+                  <c:v>4.1118875850618446</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2268325658323667</c:v>
+                  <c:v>4.288391947887769</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8505867381583516</c:v>
+                  <c:v>4.2569766520510779</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8715302808475216</c:v>
+                  <c:v>4.7977788086298219</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9703294646199918</c:v>
+                  <c:v>4.5824972992787778</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4828351032841773</c:v>
+                  <c:v>4.7176271980290272</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6802480377642688</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6177571146826812</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4912688688567135</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.599402648725321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1311,41 +1577,103 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gauss!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>100x100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500x500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000x1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500x1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000x2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500x2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000x3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500x3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000x4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500x4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000x5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500x5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000x6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500x6500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gauss!$H$2:$H$11</c:f>
+              <c:f>Gauss!$H$2:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>5.8291320343371027E-2</c:v>
+                  <c:v>0.44718309859154937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55179094390628514</c:v>
+                  <c:v>2.8347695531818395</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2533726772162275</c:v>
+                  <c:v>3.9463786913042198</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7637868950069464</c:v>
+                  <c:v>4.3172652763884196</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0893976314390859</c:v>
+                  <c:v>4.1528232827036282</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2253358846161762</c:v>
+                  <c:v>4.3448162380210213</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8408130529587208</c:v>
+                  <c:v>4.23346610296867</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.963980515495551</c:v>
+                  <c:v>4.6594769625831756</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9066913787111841</c:v>
+                  <c:v>4.7436635138547887</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2459643744153444</c:v>
+                  <c:v>4.8862247627719695</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.811177961779677</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7909239527372289</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5713301141843354</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.7805316051655327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1424,7 +1752,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="855562976"/>
@@ -1484,7 +1812,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="855570048"/>
@@ -1528,7 +1856,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1558,7 +1886,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1626,7 +1954,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t>сравнение параллельных вычислении с линейным</a:t>
+              <a:t>параллель есептеулерді сызықты есептеумен салыстыру</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -1672,7 +2000,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1710,77 +2038,101 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>CG!$A$2:$A$11</c:f>
+              <c:f>CG!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>100x100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200x200</c:v>
+                  <c:v>500x500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300x300</c:v>
+                  <c:v>1000x1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400x400</c:v>
+                  <c:v>1500x1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500x500</c:v>
+                  <c:v>2000x2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600x600</c:v>
+                  <c:v>2500x2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700x700</c:v>
+                  <c:v>3000x3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800x800</c:v>
+                  <c:v>3500x3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900x900</c:v>
+                  <c:v>4000x4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000x1000</c:v>
+                  <c:v>4500x4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000x5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500x5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000x6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500x6500</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CG!$C$2:$C$11</c:f>
+              <c:f>CG!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.97684852835606606</c:v>
+                  <c:v>3.2946983546617914</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9813184874443768</c:v>
+                  <c:v>2.1772792673867234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2225487430255155</c:v>
+                  <c:v>1.9465604833091386</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7354623312527215</c:v>
+                  <c:v>1.6767207653311746</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7674141183869194</c:v>
+                  <c:v>1.9165687137606144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8042044456355055</c:v>
+                  <c:v>1.8690672432084035</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9628353545890489</c:v>
+                  <c:v>1.9411244200072286</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0214634772526114</c:v>
+                  <c:v>2.0144680765773293</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7811239645856569</c:v>
+                  <c:v>1.8792922948953237</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9316739241077812</c:v>
+                  <c:v>1.8514715718564996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8912959707219106</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8600738088003435</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7539771143256453</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2394217061947619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1820,77 +2172,101 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>CG!$A$2:$A$11</c:f>
+              <c:f>CG!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>100x100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200x200</c:v>
+                  <c:v>500x500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300x300</c:v>
+                  <c:v>1000x1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400x400</c:v>
+                  <c:v>1500x1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500x500</c:v>
+                  <c:v>2000x2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600x600</c:v>
+                  <c:v>2500x2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700x700</c:v>
+                  <c:v>3000x3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800x800</c:v>
+                  <c:v>3500x3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900x900</c:v>
+                  <c:v>4000x4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000x1000</c:v>
+                  <c:v>4500x4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000x5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500x5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000x6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500x6500</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CG!$D$2:$D$11</c:f>
+              <c:f>CG!$D$2:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.6961670302274852</c:v>
+                  <c:v>2.9651201052977951</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33836723489159987</c:v>
+                  <c:v>3.7718098008353147</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7736589649597838</c:v>
+                  <c:v>3.4686349271358825</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6864403923286932</c:v>
+                  <c:v>3.2415837824034361</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7771358164985762</c:v>
+                  <c:v>3.1898360644706485</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9158943719193817</c:v>
+                  <c:v>3.1624352423500968</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3632767015539904</c:v>
+                  <c:v>3.2266302409578032</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0617551294713361</c:v>
+                  <c:v>2.6019563158710679</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7701149368143327</c:v>
+                  <c:v>3.4006360819066481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2841557658585905</c:v>
+                  <c:v>3.4678566546095575</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1219146984170996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0166627003557585</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8155979209781281</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.178372640758214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1930,77 +2306,101 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>CG!$A$2:$A$11</c:f>
+              <c:f>CG!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>100x100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200x200</c:v>
+                  <c:v>500x500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300x300</c:v>
+                  <c:v>1000x1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400x400</c:v>
+                  <c:v>1500x1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500x500</c:v>
+                  <c:v>2000x2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600x600</c:v>
+                  <c:v>2500x2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700x700</c:v>
+                  <c:v>3000x3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800x800</c:v>
+                  <c:v>3500x3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900x900</c:v>
+                  <c:v>4000x4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000x1000</c:v>
+                  <c:v>4500x4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000x5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500x5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000x6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500x6500</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CG!$E$2:$E$11</c:f>
+              <c:f>CG!$E$2:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.1828751494078018</c:v>
+                  <c:v>2.5804696449026348</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2504391933687986</c:v>
+                  <c:v>3.1755036773886913</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7728955605667931</c:v>
+                  <c:v>4.3118849002089927</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0308968646812393</c:v>
+                  <c:v>3.9011600041536916</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0881392481998207</c:v>
+                  <c:v>3.8779458569630076</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7230063746231923</c:v>
+                  <c:v>3.6899734689152162</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6291438047810209</c:v>
+                  <c:v>3.4712342645078764</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6279125285681135</c:v>
+                  <c:v>4.8892530678395767</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0125357511664745</c:v>
+                  <c:v>4.4785860728661753</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.7484280353179238</c:v>
+                  <c:v>4.4963052065269711</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5558488222373814</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5387345257264631</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6022795308138118</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3470929870754631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2040,77 +2440,101 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>CG!$A$2:$A$11</c:f>
+              <c:f>CG!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>100x100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200x200</c:v>
+                  <c:v>500x500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300x300</c:v>
+                  <c:v>1000x1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400x400</c:v>
+                  <c:v>1500x1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500x500</c:v>
+                  <c:v>2000x2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600x600</c:v>
+                  <c:v>2500x2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700x700</c:v>
+                  <c:v>3000x3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800x800</c:v>
+                  <c:v>3500x3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900x900</c:v>
+                  <c:v>4000x4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000x1000</c:v>
+                  <c:v>4500x4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000x5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500x5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000x6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500x6500</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CG!$F$2:$F$11</c:f>
+              <c:f>CG!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.80156100434430455</c:v>
+                  <c:v>2.8909207571382738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67685683098167115</c:v>
+                  <c:v>3.9660688683753804</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0981569383936245</c:v>
+                  <c:v>3.837276236411026</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5451310639307319</c:v>
+                  <c:v>3.3586200377473352</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1061647975519029</c:v>
+                  <c:v>3.5177926196691103</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4349447161455893</c:v>
+                  <c:v>3.3680610646098499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1924298006014995</c:v>
+                  <c:v>3.5026085610769755</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8697221126596282</c:v>
+                  <c:v>3.8053763711855044</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3690085048183493</c:v>
+                  <c:v>3.5748460803998983</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2824818271323917</c:v>
+                  <c:v>3.4593504901217864</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4594729796124151</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5019025586679255</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4272686495078339</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6042832555021844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2148,41 +2572,103 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CG!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>100x100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500x500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000x1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500x1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000x2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500x2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000x3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500x3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000x4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500x4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000x5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500x5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000x6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500x6500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CG!$G$2:$G$11</c:f>
+              <c:f>CG!$G$2:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.72772244133966169</c:v>
+                  <c:v>1.9887442065769145</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95006814870517464</c:v>
+                  <c:v>4.874398733785906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9662031783549736</c:v>
+                  <c:v>4.6287469407491155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1593376008906207</c:v>
+                  <c:v>4.3040844360209354</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.627256117481457</c:v>
+                  <c:v>4.2751543521651811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7389466539137945</c:v>
+                  <c:v>4.1210980022853496</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5593966173451284</c:v>
+                  <c:v>4.1348294331313769</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6122116764154066</c:v>
+                  <c:v>4.5209421030900581</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9350360808652063</c:v>
+                  <c:v>4.1672188572135225</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1192185974646685</c:v>
+                  <c:v>4.2896946945036669</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1794825739875119</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.1581009633304271</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3388170861920354</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3403235051790627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2220,41 +2706,103 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CG!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>100x100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500x500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000x1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500x1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000x2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500x2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000x3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500x3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000x4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500x4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000x5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500x5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000x6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500x6500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CG!$H$2:$H$11</c:f>
+              <c:f>CG!$H$2:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.56339923403374392</c:v>
+                  <c:v>2.0926614026939157</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5292542326721437</c:v>
+                  <c:v>4.1673670467219575</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9749931531379694</c:v>
+                  <c:v>3.9623827168125394</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3154971956267025</c:v>
+                  <c:v>3.1488813702488287</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0659255244075805</c:v>
+                  <c:v>3.4980494035768213</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9902247918260283</c:v>
+                  <c:v>3.094941762725393</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7508700934835923</c:v>
+                  <c:v>3.2334067179567589</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.756549321947467</c:v>
+                  <c:v>5.3608694106120653</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.269618304843263</c:v>
+                  <c:v>4.8124397567688204</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8710419708491224</c:v>
+                  <c:v>4.7764314253967086</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.981554902191224</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9326371501323818</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9129762412273479</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6253344035495303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2333,7 +2881,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="855565152"/>
@@ -2393,7 +2941,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="855566240"/>
@@ -2437,7 +2985,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2467,7 +3015,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4150,16 +4698,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>146958</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>23131</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1140280</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>159202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>212272</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>141515</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>348344</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4193,7 +4741,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>36195</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4518,542 +5066,770 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection sqref="A1:O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.4130000000000002E-3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.6970000000000002E-3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5.9100000000000003E-3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4.6839999999999998E-3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6.4019999999999997E-3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5.6090000000000003E-3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5.3959999999999998E-3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>9.0109999999999999E-3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2.735E-3</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3.039E-3</v>
+      </c>
+      <c r="L2" s="1">
+        <v>3.4919999999999999E-3</v>
+      </c>
+      <c r="M2" s="1">
+        <v>3.117E-3</v>
+      </c>
+      <c r="N2" s="1">
+        <v>4.5310000000000003E-3</v>
+      </c>
+      <c r="O2" s="1">
+        <v>4.3059999999999999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.181258</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8.0597000000000002E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6.2786999999999996E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6.5229999999999996E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6.5032000000000006E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6.1654E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6.3940999999999998E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.78839499999999996</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.36210100000000001</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.20902299999999999</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.24827399999999999</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.19878499999999999</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.161742</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.18918299999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1">
-        <v>2.1389999999999998E-3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>8.2349999999999993E-3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>6.764E-3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1.1864E-2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1.3475000000000001E-2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1.8089000000000001E-2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>3.6694999999999998E-2</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1.0886E-2</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1.1143999999999999E-2</v>
-      </c>
-      <c r="K2" s="1">
-        <v>6.4180000000000001E-3</v>
-      </c>
-      <c r="L2" s="1">
-        <v>9.2029999999999994E-3</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1.3580999999999999E-2</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1.4959E-2</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1.9321999999999999E-2</v>
+      <c r="B4" s="1">
+        <v>1.207951</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.64193500000000003</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.38130999999999998</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.32367800000000002</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.31718800000000003</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.31125199999999997</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.306091</v>
+      </c>
+      <c r="I4" s="1">
+        <v>6.5381929999999997</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3.3588439999999999</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1.8849469999999999</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1.516319</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.7038629999999999</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1.4125190000000001</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1.650066</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1">
-        <v>2.4493999999999998E-2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.7687000000000001E-2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2.0556000000000001E-2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2.2388000000000002E-2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3.5929000000000003E-2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3.3292000000000002E-2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>4.4389999999999999E-2</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.101073</v>
-      </c>
-      <c r="J3" s="1">
-        <v>5.1013000000000003E-2</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.29870799999999997</v>
-      </c>
-      <c r="L3" s="1">
-        <v>8.0829999999999999E-2</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.14932699999999999</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0.10638499999999999</v>
-      </c>
-      <c r="O3" s="1">
-        <v>6.6092999999999999E-2</v>
+      <c r="B5" s="1">
+        <v>4.0654909999999997</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.007959</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.2396879999999999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.98858199999999996</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.99019699999999999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.96146299999999996</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.94168200000000002</v>
+      </c>
+      <c r="I5" s="1">
+        <v>22.277898</v>
+      </c>
+      <c r="J5" s="1">
+        <v>13.286588</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6.8725350000000001</v>
+      </c>
+      <c r="L5" s="1">
+        <v>5.7105829999999997</v>
+      </c>
+      <c r="M5" s="1">
+        <v>6.633051</v>
+      </c>
+      <c r="N5" s="1">
+        <v>5.1759899999999996</v>
+      </c>
+      <c r="O5" s="1">
+        <v>7.0748610000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.12997600000000001</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.11264200000000001</v>
-      </c>
-      <c r="D4" s="1">
-        <v>8.4619E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>8.6471999999999993E-2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.10445</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.111591</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.103701</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.56723000000000001</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.255216</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.150313</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0.11884400000000001</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.13841100000000001</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0.19123100000000001</v>
-      </c>
-      <c r="O4" s="1">
-        <v>9.4934000000000004E-2</v>
+      <c r="B6" s="1">
+        <v>9.8244959999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.6130329999999997</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.0511560000000002</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.4477859999999998</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.476226</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.3892910000000001</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2.365739</v>
+      </c>
+      <c r="I6" s="1">
+        <v>57.832872999999999</v>
+      </c>
+      <c r="J6" s="1">
+        <v>30.175215000000001</v>
+      </c>
+      <c r="K6" s="1">
+        <v>18.130358999999999</v>
+      </c>
+      <c r="L6" s="1">
+        <v>14.913275000000001</v>
+      </c>
+      <c r="M6" s="1">
+        <v>16.440103000000001</v>
+      </c>
+      <c r="N6" s="1">
+        <v>13.527668999999999</v>
+      </c>
+      <c r="O6" s="1">
+        <v>16.532892</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.124414</v>
-      </c>
-      <c r="C5" s="1">
-        <v>8.9348999999999998E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>7.9008999999999996E-2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>6.2743999999999994E-2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>6.8048999999999998E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>6.3752000000000003E-2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>7.0538000000000003E-2</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.47822399999999998</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.27556000000000003</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.17801400000000001</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.15778300000000001</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.13489599999999999</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0.11497599999999999</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0.14423900000000001</v>
+      <c r="B7" s="1">
+        <v>19.539286000000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10.250208000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5.8330080000000004</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.5836069999999998</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4.6207500000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.5563200000000004</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4.4971490000000003</v>
+      </c>
+      <c r="I7" s="1">
+        <v>114.741939</v>
+      </c>
+      <c r="J7" s="1">
+        <v>61.389946999999999</v>
+      </c>
+      <c r="K7" s="1">
+        <v>36.282778999999998</v>
+      </c>
+      <c r="L7" s="1">
+        <v>31.095600000000001</v>
+      </c>
+      <c r="M7" s="1">
+        <v>34.067653999999997</v>
+      </c>
+      <c r="N7" s="1">
+        <v>27.842565</v>
+      </c>
+      <c r="O7" s="1">
+        <v>37.074021999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.20836099999999999</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.147759</v>
-      </c>
-      <c r="D6" s="1">
-        <v>9.1853000000000004E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.111065</v>
-      </c>
-      <c r="F6" s="1">
-        <v>9.5163999999999999E-2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.10449600000000001</v>
-      </c>
-      <c r="H6" s="1">
-        <v>9.9723000000000006E-2</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.89933099999999999</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.50883999999999996</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.32383400000000001</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0.29122100000000001</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.28953099999999998</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0.24793699999999999</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0.29333100000000001</v>
+      <c r="B8" s="1">
+        <v>35.40493</v>
+      </c>
+      <c r="C8" s="1">
+        <v>18.016938</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10.434282</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8.3781330000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8.4453150000000008</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8.3169190000000004</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8.3631069999999994</v>
+      </c>
+      <c r="I8" s="1">
+        <v>206.316068</v>
+      </c>
+      <c r="J8" s="1">
+        <v>106.286885</v>
+      </c>
+      <c r="K8" s="1">
+        <v>63.941651999999998</v>
+      </c>
+      <c r="L8" s="1">
+        <v>59.435938999999998</v>
+      </c>
+      <c r="M8" s="1">
+        <v>58.903547000000003</v>
+      </c>
+      <c r="N8" s="1">
+        <v>49.897117000000001</v>
+      </c>
+      <c r="O8" s="1">
+        <v>63.807645000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.32447399999999998</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.20876800000000001</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.157831</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.14763100000000001</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.14014499999999999</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.14571100000000001</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.14580899999999999</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1.5753790000000001</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.87317100000000003</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.540273</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0.57854399999999995</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0.45863300000000001</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0.42134300000000002</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0.52684299999999995</v>
+      <c r="B9" s="1">
+        <v>53.709325</v>
+      </c>
+      <c r="C9" s="1">
+        <v>26.663046999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>14.796476</v>
+      </c>
+      <c r="E9" s="1">
+        <v>10.832852000000001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>11.126899</v>
+      </c>
+      <c r="G9" s="1">
+        <v>11.194623</v>
+      </c>
+      <c r="H9" s="1">
+        <v>11.526899999999999</v>
+      </c>
+      <c r="I9" s="1">
+        <v>293.075289</v>
+      </c>
+      <c r="J9" s="1">
+        <v>145.48519899999999</v>
+      </c>
+      <c r="K9" s="1">
+        <v>112.63651400000001</v>
+      </c>
+      <c r="L9" s="1">
+        <v>59.942753000000003</v>
+      </c>
+      <c r="M9" s="1">
+        <v>77.016110999999995</v>
+      </c>
+      <c r="N9" s="1">
+        <v>64.826154000000002</v>
+      </c>
+      <c r="O9" s="1">
+        <v>54.669358000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.56672800000000001</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.41343099999999999</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.27518799999999999</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.21739700000000001</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.20147699999999999</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.19881099999999999</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.19949500000000001</v>
-      </c>
-      <c r="I8" s="1">
-        <v>3.00684</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.5318860000000001</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.89402099999999995</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0.82852599999999998</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0.71720700000000004</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0.65948200000000001</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0.80163799999999996</v>
+      <c r="B10" s="1">
+        <v>65.554631000000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>35.266029000000003</v>
+      </c>
+      <c r="D10" s="1">
+        <v>19.371013000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>14.201798</v>
+      </c>
+      <c r="F10" s="1">
+        <v>14.656592</v>
+      </c>
+      <c r="G10" s="1">
+        <v>14.305438000000001</v>
+      </c>
+      <c r="H10" s="1">
+        <v>13.81941</v>
+      </c>
+      <c r="I10" s="1">
+        <v>411.58971400000001</v>
+      </c>
+      <c r="J10" s="1">
+        <v>219.01314400000001</v>
+      </c>
+      <c r="K10" s="1">
+        <v>121.03315499999999</v>
+      </c>
+      <c r="L10" s="1">
+        <v>91.901708999999997</v>
+      </c>
+      <c r="M10" s="1">
+        <v>115.134947</v>
+      </c>
+      <c r="N10" s="1">
+        <v>98.768441999999993</v>
+      </c>
+      <c r="O10" s="1">
+        <v>85.526206000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.77276900000000004</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.53810100000000005</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.33187899999999998</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.32805800000000002</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.29033599999999998</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.26911400000000002</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.26072000000000001</v>
-      </c>
-      <c r="I9" s="1">
-        <v>4.3462899999999998</v>
-      </c>
-      <c r="J9" s="1">
-        <v>2.1500710000000001</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1.4195420000000001</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1.1980139999999999</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1.1231530000000001</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0.94234399999999996</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1.15699</v>
+      <c r="B11" s="1">
+        <v>98.951352999999997</v>
+      </c>
+      <c r="C11" s="1">
+        <v>49.945042999999998</v>
+      </c>
+      <c r="D11" s="1">
+        <v>27.425673</v>
+      </c>
+      <c r="E11" s="1">
+        <v>20.416274999999999</v>
+      </c>
+      <c r="F11" s="1">
+        <v>21.047476</v>
+      </c>
+      <c r="G11" s="1">
+        <v>20.974813999999999</v>
+      </c>
+      <c r="H11" s="1">
+        <v>20.251085</v>
+      </c>
+      <c r="I11" s="1">
+        <v>583.762562</v>
+      </c>
+      <c r="J11" s="1">
+        <v>315.29653000000002</v>
+      </c>
+      <c r="K11" s="1">
+        <v>168.335263</v>
+      </c>
+      <c r="L11" s="1">
+        <v>129.831614</v>
+      </c>
+      <c r="M11" s="1">
+        <v>168.74918099999999</v>
+      </c>
+      <c r="N11" s="1">
+        <v>136.08487400000001</v>
+      </c>
+      <c r="O11" s="1">
+        <v>122.217302</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1">
-        <v>1.0789899999999999</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.61581600000000003</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.39991399999999999</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.35796099999999997</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.36745899999999998</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.36325600000000002</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.37120900000000001</v>
-      </c>
-      <c r="I10" s="1">
-        <v>5.5719560000000001</v>
-      </c>
-      <c r="J10" s="1">
-        <v>3.1283370000000001</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2.0114529999999999</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1.8495900000000001</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1.653886</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1.415986</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1.704161</v>
+      <c r="B12" s="1">
+        <v>133.10032899999999</v>
+      </c>
+      <c r="C12" s="1">
+        <v>66.575562000000005</v>
+      </c>
+      <c r="D12" s="1">
+        <v>37.993253000000003</v>
+      </c>
+      <c r="E12" s="1">
+        <v>28.075668</v>
+      </c>
+      <c r="F12" s="1">
+        <v>28.460021999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <v>28.438734</v>
+      </c>
+      <c r="H12" s="1">
+        <v>27.664811</v>
+      </c>
+      <c r="I12" s="1">
+        <v>812.65298700000005</v>
+      </c>
+      <c r="J12" s="1">
+        <v>429.68049400000001</v>
+      </c>
+      <c r="K12" s="1">
+        <v>260.30595499999998</v>
+      </c>
+      <c r="L12" s="1">
+        <v>178.37575799999999</v>
+      </c>
+      <c r="M12" s="1">
+        <v>234.906586</v>
+      </c>
+      <c r="N12" s="1">
+        <v>194.438659</v>
+      </c>
+      <c r="O12" s="1">
+        <v>163.132396</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="1">
-        <v>1.4886090000000001</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.94686999999999999</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.70638699999999999</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.54354400000000003</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.46986600000000001</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.42741299999999999</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.45860299999999998</v>
-      </c>
-      <c r="I11" s="1">
-        <v>9.1733630000000002</v>
-      </c>
-      <c r="J11" s="1">
-        <v>4.7489189999999999</v>
-      </c>
-      <c r="K11" s="1">
-        <v>2.793218</v>
-      </c>
-      <c r="L11" s="1">
-        <v>2.4472559999999999</v>
-      </c>
-      <c r="M11" s="1">
-        <v>2.1420669999999999</v>
-      </c>
-      <c r="N11" s="1">
-        <v>2.9409169999999998</v>
-      </c>
-      <c r="O11" s="1">
-        <v>2.3697400000000002</v>
+      <c r="B13" s="1">
+        <v>177.68724399999999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>90.671932999999996</v>
+      </c>
+      <c r="D13" s="1">
+        <v>50.193390000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>37.606099</v>
+      </c>
+      <c r="F13" s="1">
+        <v>38.687840000000001</v>
+      </c>
+      <c r="G13" s="1">
+        <v>38.479123000000001</v>
+      </c>
+      <c r="H13" s="1">
+        <v>37.088304000000001</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1114.021628</v>
+      </c>
+      <c r="J13" s="1">
+        <v>598.91259300000002</v>
+      </c>
+      <c r="K13" s="1">
+        <v>369.289423</v>
+      </c>
+      <c r="L13" s="1">
+        <v>245.44762900000001</v>
+      </c>
+      <c r="M13" s="1">
+        <v>318.118968</v>
+      </c>
+      <c r="N13" s="1">
+        <v>267.91596399999997</v>
+      </c>
+      <c r="O13" s="1">
+        <v>225.84706600000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1">
+        <v>225.46875299999999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>116.143107</v>
+      </c>
+      <c r="D14" s="1">
+        <v>65.905417999999997</v>
+      </c>
+      <c r="E14" s="1">
+        <v>48.594647000000002</v>
+      </c>
+      <c r="F14" s="1">
+        <v>50.367469</v>
+      </c>
+      <c r="G14" s="1">
+        <v>50.201571000000001</v>
+      </c>
+      <c r="H14" s="1">
+        <v>49.322352000000002</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1454.705676</v>
+      </c>
+      <c r="J14" s="1">
+        <v>829.37551699999995</v>
+      </c>
+      <c r="K14" s="1">
+        <v>801.22677999999996</v>
+      </c>
+      <c r="L14" s="1">
+        <v>316.08372900000001</v>
+      </c>
+      <c r="M14" s="1">
+        <v>424.45043700000002</v>
+      </c>
+      <c r="N14" s="1">
+        <v>335.27702299999999</v>
+      </c>
+      <c r="O14" s="1">
+        <v>296.09458799999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1">
+        <v>294.43813799999998</v>
+      </c>
+      <c r="C15" s="1">
+        <v>150.032566</v>
+      </c>
+      <c r="D15" s="1">
+        <v>83.663387999999998</v>
+      </c>
+      <c r="E15" s="1">
+        <v>62.001111000000002</v>
+      </c>
+      <c r="F15" s="1">
+        <v>64.991906999999998</v>
+      </c>
+      <c r="G15" s="1">
+        <v>64.016604000000001</v>
+      </c>
+      <c r="H15" s="1">
+        <v>61.591087000000002</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1882.174031</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1518.590502</v>
+      </c>
+      <c r="K15" s="1">
+        <v>592.18167400000004</v>
+      </c>
+      <c r="L15" s="1">
+        <v>432.97303199999999</v>
+      </c>
+      <c r="M15" s="1">
+        <v>522.20480399999997</v>
+      </c>
+      <c r="N15" s="1">
+        <v>433.64832799999999</v>
+      </c>
+      <c r="O15" s="1">
+        <v>406.92712499999999</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:O2">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:O3">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:O4">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:O5">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:O6">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5063,7 +5839,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:O3">
+  <conditionalFormatting sqref="B7:O7">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5073,7 +5849,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:O4">
+  <conditionalFormatting sqref="B8:O8">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5083,7 +5859,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:O5">
+  <conditionalFormatting sqref="B9:O9">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5093,7 +5869,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:O6">
+  <conditionalFormatting sqref="B10:O10">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5103,7 +5879,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:O7">
+  <conditionalFormatting sqref="B11:O11">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5113,7 +5889,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:O8">
+  <conditionalFormatting sqref="B12:O12">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5123,7 +5899,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:O9">
+  <conditionalFormatting sqref="B13:O13">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5133,7 +5909,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:O10">
+  <conditionalFormatting sqref="B14:O14">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5143,7 +5919,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:O11">
+  <conditionalFormatting sqref="B15:O15">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5160,41 +5936,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>Лист1!A2</f>
         <v>100x100</v>
@@ -5205,33 +5981,33 @@
       </c>
       <c r="C2" s="1">
         <f>Лист1!$B2/Лист1!C2</f>
-        <v>0.25974499089253189</v>
+        <v>0.65269137138220179</v>
       </c>
       <c r="D2" s="1">
         <f>Лист1!$B2/Лист1!D2</f>
-        <v>0.31623299822590178</v>
+        <v>0.40829103214890017</v>
       </c>
       <c r="E2" s="1">
         <f>Лист1!$B2/Лист1!E2</f>
-        <v>0.18029332434254888</v>
+        <v>0.51515798462852269</v>
       </c>
       <c r="F2" s="1">
         <f>Лист1!$B2/Лист1!F2</f>
-        <v>0.15873840445269013</v>
+        <v>0.37691346454233055</v>
       </c>
       <c r="G2" s="1">
         <f>Лист1!$B2/Лист1!G2</f>
-        <v>0.11824865940626898</v>
+        <v>0.43020146193617403</v>
       </c>
       <c r="H2" s="1">
         <f>Лист1!$B2/Лист1!H2</f>
-        <v>5.8291320343371027E-2</v>
+        <v>0.44718309859154937</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>Лист1!A3</f>
-        <v>200x200</v>
+        <v>500x500</v>
       </c>
       <c r="B3" s="1">
         <f>Лист1!B3/Лист1!$B3</f>
@@ -5239,33 +6015,33 @@
       </c>
       <c r="C3" s="1">
         <f>Лист1!$B3/Лист1!C3</f>
-        <v>1.3848589359416519</v>
+        <v>2.2489422683226423</v>
       </c>
       <c r="D3" s="1">
         <f>Лист1!$B3/Лист1!D3</f>
-        <v>1.19157423623273</v>
+        <v>2.8868714861356652</v>
       </c>
       <c r="E3" s="1">
         <f>Лист1!$B3/Лист1!E3</f>
-        <v>1.0940682508486688</v>
+        <v>2.7787521079258011</v>
       </c>
       <c r="F3" s="1">
         <f>Лист1!$B3/Лист1!F3</f>
-        <v>0.68173341868685455</v>
+        <v>2.7872124492557506</v>
       </c>
       <c r="G3" s="1">
         <f>Лист1!$B3/Лист1!G3</f>
-        <v>0.73573230806199674</v>
+        <v>2.9399227949524769</v>
       </c>
       <c r="H3" s="1">
         <f>Лист1!$B3/Лист1!H3</f>
-        <v>0.55179094390628514</v>
+        <v>2.8347695531818395</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>Лист1!A4</f>
-        <v>300x300</v>
+        <v>1000x1000</v>
       </c>
       <c r="B4" s="1">
         <f>Лист1!B4/Лист1!$B4</f>
@@ -5273,33 +6049,33 @@
       </c>
       <c r="C4" s="1">
         <f>Лист1!$B4/Лист1!C4</f>
-        <v>1.1538857619715559</v>
+        <v>1.8817341319604008</v>
       </c>
       <c r="D4" s="1">
         <f>Лист1!$B4/Лист1!D4</f>
-        <v>1.5360143702950875</v>
+        <v>3.1678975112113505</v>
       </c>
       <c r="E4" s="1">
         <f>Лист1!$B4/Лист1!E4</f>
-        <v>1.5030992691275791</v>
+        <v>3.7319527431583239</v>
       </c>
       <c r="F4" s="1">
         <f>Лист1!$B4/Лист1!F4</f>
-        <v>1.2443848731450455</v>
+        <v>3.808312420394214</v>
       </c>
       <c r="G4" s="1">
         <f>Лист1!$B4/Лист1!G4</f>
-        <v>1.164753429936106</v>
+        <v>3.8809421304923344</v>
       </c>
       <c r="H4" s="1">
         <f>Лист1!$B4/Лист1!H4</f>
-        <v>1.2533726772162275</v>
+        <v>3.9463786913042198</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>Лист1!A5</f>
-        <v>400x400</v>
+        <v>1500x1500</v>
       </c>
       <c r="B5" s="1">
         <f>Лист1!B5/Лист1!$B5</f>
@@ -5307,33 +6083,33 @@
       </c>
       <c r="C5" s="1">
         <f>Лист1!$B5/Лист1!C5</f>
-        <v>1.3924498315593907</v>
+        <v>2.0246882530968011</v>
       </c>
       <c r="D5" s="1">
         <f>Лист1!$B5/Лист1!D5</f>
-        <v>1.5746813654140668</v>
+        <v>3.2794469253554119</v>
       </c>
       <c r="E5" s="1">
         <f>Лист1!$B5/Лист1!E5</f>
-        <v>1.9828828254494455</v>
+        <v>4.1124469189202308</v>
       </c>
       <c r="F5" s="1">
         <f>Лист1!$B5/Лист1!F5</f>
-        <v>1.8283001954473983</v>
+        <v>4.1057395649552557</v>
       </c>
       <c r="G5" s="1">
         <f>Лист1!$B5/Лист1!G5</f>
-        <v>1.9515309323629062</v>
+        <v>4.2284424881664711</v>
       </c>
       <c r="H5" s="1">
         <f>Лист1!$B5/Лист1!H5</f>
-        <v>1.7637868950069464</v>
+        <v>4.3172652763884196</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>Лист1!A6</f>
-        <v>500x500</v>
+        <v>2000x2000</v>
       </c>
       <c r="B6" s="1">
         <f>Лист1!B6/Лист1!$B6</f>
@@ -5341,33 +6117,33 @@
       </c>
       <c r="C6" s="1">
         <f>Лист1!$B6/Лист1!C6</f>
-        <v>1.4101408374447579</v>
+        <v>1.7503007732183296</v>
       </c>
       <c r="D6" s="1">
         <f>Лист1!$B6/Лист1!D6</f>
-        <v>2.2684180157425451</v>
+        <v>3.219925824834915</v>
       </c>
       <c r="E6" s="1">
         <f>Лист1!$B6/Лист1!E6</f>
-        <v>1.8760275514338449</v>
+        <v>4.0136253741135874</v>
       </c>
       <c r="F6" s="1">
         <f>Лист1!$B6/Лист1!F6</f>
-        <v>2.1894939262746416</v>
+        <v>3.9675280043097843</v>
       </c>
       <c r="G6" s="1">
         <f>Лист1!$B6/Лист1!G6</f>
-        <v>1.993961491348951</v>
+        <v>4.1118875850618446</v>
       </c>
       <c r="H6" s="1">
         <f>Лист1!$B6/Лист1!H6</f>
-        <v>2.0893976314390859</v>
+        <v>4.1528232827036282</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>Лист1!A7</f>
-        <v>600x600</v>
+        <v>2500x2500</v>
       </c>
       <c r="B7" s="1">
         <f>Лист1!B7/Лист1!$B7</f>
@@ -5375,33 +6151,33 @@
       </c>
       <c r="C7" s="1">
         <f>Лист1!$B7/Лист1!C7</f>
-        <v>1.554232449417535</v>
+        <v>1.9062331222937134</v>
       </c>
       <c r="D7" s="1">
         <f>Лист1!$B7/Лист1!D7</f>
-        <v>2.0558318707985124</v>
+        <v>3.34977870765821</v>
       </c>
       <c r="E7" s="1">
         <f>Лист1!$B7/Лист1!E7</f>
-        <v>2.197871720709065</v>
+        <v>4.2628624138151467</v>
       </c>
       <c r="F7" s="1">
         <f>Лист1!$B7/Лист1!F7</f>
-        <v>2.3152734667665631</v>
+        <v>4.2285962235567816</v>
       </c>
       <c r="G7" s="1">
         <f>Лист1!$B7/Лист1!G7</f>
-        <v>2.2268325658323667</v>
+        <v>4.288391947887769</v>
       </c>
       <c r="H7" s="1">
         <f>Лист1!$B7/Лист1!H7</f>
-        <v>2.2253358846161762</v>
+        <v>4.3448162380210213</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>Лист1!A8</f>
-        <v>700x700</v>
+        <v>3000x3000</v>
       </c>
       <c r="B8" s="1">
         <f>Лист1!B8/Лист1!$B8</f>
@@ -5409,33 +6185,33 @@
       </c>
       <c r="C8" s="1">
         <f>Лист1!$B8/Лист1!C8</f>
-        <v>1.3707922240954356</v>
+        <v>1.9650914045438799</v>
       </c>
       <c r="D8" s="1">
         <f>Лист1!$B8/Лист1!D8</f>
-        <v>2.0594211956916726</v>
+        <v>3.3931352439966642</v>
       </c>
       <c r="E8" s="1">
         <f>Лист1!$B8/Лист1!E8</f>
-        <v>2.6068804997309072</v>
+        <v>4.2258734732427854</v>
       </c>
       <c r="F8" s="1">
         <f>Лист1!$B8/Лист1!F8</f>
-        <v>2.8128669773721073</v>
+        <v>4.1922568903587374</v>
       </c>
       <c r="G8" s="1">
         <f>Лист1!$B8/Лист1!G8</f>
-        <v>2.8505867381583516</v>
+        <v>4.2569766520510779</v>
       </c>
       <c r="H8" s="1">
         <f>Лист1!$B8/Лист1!H8</f>
-        <v>2.8408130529587208</v>
+        <v>4.23346610296867</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>Лист1!A9</f>
-        <v>800x800</v>
+        <v>3500x3500</v>
       </c>
       <c r="B9" s="1">
         <f>Лист1!B9/Лист1!$B9</f>
@@ -5443,33 +6219,33 @@
       </c>
       <c r="C9" s="1">
         <f>Лист1!$B9/Лист1!C9</f>
-        <v>1.436104002780147</v>
+        <v>2.0143731134704899</v>
       </c>
       <c r="D9" s="1">
         <f>Лист1!$B9/Лист1!D9</f>
-        <v>2.3284660975837581</v>
+        <v>3.6298727480786641</v>
       </c>
       <c r="E9" s="1">
         <f>Лист1!$B9/Лист1!E9</f>
-        <v>2.3555865121411457</v>
+        <v>4.9580041340913725</v>
       </c>
       <c r="F9" s="1">
         <f>Лист1!$B9/Лист1!F9</f>
-        <v>2.6616368621183737</v>
+        <v>4.8269805450736998</v>
       </c>
       <c r="G9" s="1">
         <f>Лист1!$B9/Лист1!G9</f>
-        <v>2.8715302808475216</v>
+        <v>4.7977788086298219</v>
       </c>
       <c r="H9" s="1">
         <f>Лист1!$B9/Лист1!H9</f>
-        <v>2.963980515495551</v>
+        <v>4.6594769625831756</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f>Лист1!A10</f>
-        <v>900x900</v>
+        <v>4000x4000</v>
       </c>
       <c r="B10" s="1">
         <f>Лист1!B10/Лист1!$B10</f>
@@ -5477,33 +6253,33 @@
       </c>
       <c r="C10" s="1">
         <f>Лист1!$B10/Лист1!C10</f>
-        <v>1.7521305065149329</v>
+        <v>1.8588605765622206</v>
       </c>
       <c r="D10" s="1">
         <f>Лист1!$B10/Лист1!D10</f>
-        <v>2.6980550818425959</v>
+        <v>3.3841612206857739</v>
       </c>
       <c r="E10" s="1">
         <f>Лист1!$B10/Лист1!E10</f>
-        <v>3.0142669173457444</v>
+        <v>4.6159388409833744</v>
       </c>
       <c r="F10" s="1">
         <f>Лист1!$B10/Лист1!F10</f>
-        <v>2.9363548042094489</v>
+        <v>4.4727062744190462</v>
       </c>
       <c r="G10" s="1">
         <f>Лист1!$B10/Лист1!G10</f>
-        <v>2.9703294646199918</v>
+        <v>4.5824972992787778</v>
       </c>
       <c r="H10" s="1">
         <f>Лист1!$B10/Лист1!H10</f>
-        <v>2.9066913787111841</v>
+        <v>4.7436635138547887</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>Лист1!A11</f>
-        <v>1000x1000</v>
+        <v>4500x4500</v>
       </c>
       <c r="B11" s="1">
         <f>Лист1!B11/Лист1!$B11</f>
@@ -5511,33 +6287,177 @@
       </c>
       <c r="C11" s="1">
         <f>Лист1!$B11/Лист1!C11</f>
-        <v>1.5721366185432004</v>
+        <v>1.9812046813134188</v>
       </c>
       <c r="D11" s="1">
         <f>Лист1!$B11/Лист1!D11</f>
-        <v>2.1073561659543567</v>
+        <v>3.6079826737524363</v>
       </c>
       <c r="E11" s="1">
         <f>Лист1!$B11/Лист1!E11</f>
-        <v>2.7387092857247985</v>
+        <v>4.8466898589483147</v>
       </c>
       <c r="F11" s="1">
         <f>Лист1!$B11/Лист1!F11</f>
-        <v>3.1681564531164206</v>
+        <v>4.7013405787943405</v>
       </c>
       <c r="G11" s="1">
         <f>Лист1!$B11/Лист1!G11</f>
-        <v>3.4828351032841773</v>
+        <v>4.7176271980290272</v>
       </c>
       <c r="H11" s="1">
         <f>Лист1!$B11/Лист1!H11</f>
-        <v>3.2459643744153444</v>
+        <v>4.8862247627719695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="str">
+        <f>Лист1!A12</f>
+        <v>5000x5000</v>
+      </c>
+      <c r="B12" s="1">
+        <f>Лист1!B12/Лист1!$B12</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <f>Лист1!$B12/Лист1!C12</f>
+        <v>1.9992370323513</v>
+      </c>
+      <c r="D12" s="1">
+        <f>Лист1!$B12/Лист1!D12</f>
+        <v>3.5032622502737518</v>
+      </c>
+      <c r="E12" s="1">
+        <f>Лист1!$B12/Лист1!E12</f>
+        <v>4.7407715819976213</v>
+      </c>
+      <c r="F12" s="1">
+        <f>Лист1!$B12/Лист1!F12</f>
+        <v>4.676747228094202</v>
+      </c>
+      <c r="G12" s="1">
+        <f>Лист1!$B12/Лист1!G12</f>
+        <v>4.6802480377642688</v>
+      </c>
+      <c r="H12" s="1">
+        <f>Лист1!$B12/Лист1!H12</f>
+        <v>4.811177961779677</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="str">
+        <f>Лист1!A13</f>
+        <v>5500x5500</v>
+      </c>
+      <c r="B13" s="1">
+        <f>Лист1!B13/Лист1!$B13</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <f>Лист1!$B13/Лист1!C13</f>
+        <v>1.9596719527309514</v>
+      </c>
+      <c r="D13" s="1">
+        <f>Лист1!$B13/Лист1!D13</f>
+        <v>3.540052664305001</v>
+      </c>
+      <c r="E13" s="1">
+        <f>Лист1!$B13/Лист1!E13</f>
+        <v>4.7249581510701226</v>
+      </c>
+      <c r="F13" s="1">
+        <f>Лист1!$B13/Лист1!F13</f>
+        <v>4.5928447801686518</v>
+      </c>
+      <c r="G13" s="1">
+        <f>Лист1!$B13/Лист1!G13</f>
+        <v>4.6177571146826812</v>
+      </c>
+      <c r="H13" s="1">
+        <f>Лист1!$B13/Лист1!H13</f>
+        <v>4.7909239527372289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="str">
+        <f>Лист1!A14</f>
+        <v>6000x6000</v>
+      </c>
+      <c r="B14" s="1">
+        <f>Лист1!B14/Лист1!$B14</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <f>Лист1!$B14/Лист1!C14</f>
+        <v>1.941301200078968</v>
+      </c>
+      <c r="D14" s="1">
+        <f>Лист1!$B14/Лист1!D14</f>
+        <v>3.4210958649863961</v>
+      </c>
+      <c r="E14" s="1">
+        <f>Лист1!$B14/Лист1!E14</f>
+        <v>4.6397857978060832</v>
+      </c>
+      <c r="F14" s="1">
+        <f>Лист1!$B14/Лист1!F14</f>
+        <v>4.4764757387352541</v>
+      </c>
+      <c r="G14" s="1">
+        <f>Лист1!$B14/Лист1!G14</f>
+        <v>4.4912688688567135</v>
+      </c>
+      <c r="H14" s="1">
+        <f>Лист1!$B14/Лист1!H14</f>
+        <v>4.5713301141843354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="str">
+        <f>Лист1!A15</f>
+        <v>6500x6500</v>
+      </c>
+      <c r="B15" s="1">
+        <f>Лист1!B15/Лист1!$B15</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <f>Лист1!$B15/Лист1!C15</f>
+        <v>1.962494849284921</v>
+      </c>
+      <c r="D15" s="1">
+        <f>Лист1!$B15/Лист1!D15</f>
+        <v>3.5193188447018184</v>
+      </c>
+      <c r="E15" s="1">
+        <f>Лист1!$B15/Лист1!E15</f>
+        <v>4.7489171282753304</v>
+      </c>
+      <c r="F15" s="1">
+        <f>Лист1!$B15/Лист1!F15</f>
+        <v>4.5303815750474898</v>
+      </c>
+      <c r="G15" s="1">
+        <f>Лист1!$B15/Лист1!G15</f>
+        <v>4.599402648725321</v>
+      </c>
+      <c r="H15" s="1">
+        <f>Лист1!$B15/Лист1!H15</f>
+        <v>4.7805316051655327</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:H11">
+  <conditionalFormatting sqref="C2:H15">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
       <formula>1</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.79998168889431442"/>
+        <color theme="9"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5547,41 +6467,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>Лист1!A2</f>
         <v>100x100</v>
@@ -5592,33 +6512,33 @@
       </c>
       <c r="C2" s="1">
         <f>Лист1!$I2/Лист1!J2</f>
-        <v>0.97684852835606606</v>
+        <v>3.2946983546617914</v>
       </c>
       <c r="D2" s="1">
         <f>Лист1!$I2/Лист1!K2</f>
-        <v>1.6961670302274852</v>
+        <v>2.9651201052977951</v>
       </c>
       <c r="E2" s="1">
         <f>Лист1!$I2/Лист1!L2</f>
-        <v>1.1828751494078018</v>
+        <v>2.5804696449026348</v>
       </c>
       <c r="F2" s="1">
         <f>Лист1!$I2/Лист1!M2</f>
-        <v>0.80156100434430455</v>
+        <v>2.8909207571382738</v>
       </c>
       <c r="G2" s="1">
         <f>Лист1!$I2/Лист1!N2</f>
-        <v>0.72772244133966169</v>
+        <v>1.9887442065769145</v>
       </c>
       <c r="H2" s="1">
         <f>Лист1!$I2/Лист1!O2</f>
-        <v>0.56339923403374392</v>
+        <v>2.0926614026939157</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>Лист1!A3</f>
-        <v>200x200</v>
+        <v>500x500</v>
       </c>
       <c r="B3" s="1">
         <f>Лист1!G3/Лист1!$G3</f>
@@ -5626,33 +6546,33 @@
       </c>
       <c r="C3" s="1">
         <f>Лист1!$I3/Лист1!J3</f>
-        <v>1.9813184874443768</v>
+        <v>2.1772792673867234</v>
       </c>
       <c r="D3" s="1">
         <f>Лист1!$I3/Лист1!K3</f>
-        <v>0.33836723489159987</v>
+        <v>3.7718098008353147</v>
       </c>
       <c r="E3" s="1">
         <f>Лист1!$I3/Лист1!L3</f>
-        <v>1.2504391933687986</v>
+        <v>3.1755036773886913</v>
       </c>
       <c r="F3" s="1">
         <f>Лист1!$I3/Лист1!M3</f>
-        <v>0.67685683098167115</v>
+        <v>3.9660688683753804</v>
       </c>
       <c r="G3" s="1">
         <f>Лист1!$I3/Лист1!N3</f>
-        <v>0.95006814870517464</v>
+        <v>4.874398733785906</v>
       </c>
       <c r="H3" s="1">
         <f>Лист1!$I3/Лист1!O3</f>
-        <v>1.5292542326721437</v>
+        <v>4.1673670467219575</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>Лист1!A4</f>
-        <v>300x300</v>
+        <v>1000x1000</v>
       </c>
       <c r="B4" s="1">
         <f>Лист1!G4/Лист1!$G4</f>
@@ -5660,33 +6580,33 @@
       </c>
       <c r="C4" s="1">
         <f>Лист1!$I4/Лист1!J4</f>
-        <v>2.2225487430255155</v>
+        <v>1.9465604833091386</v>
       </c>
       <c r="D4" s="1">
         <f>Лист1!$I4/Лист1!K4</f>
-        <v>3.7736589649597838</v>
+        <v>3.4686349271358825</v>
       </c>
       <c r="E4" s="1">
         <f>Лист1!$I4/Лист1!L4</f>
-        <v>4.7728955605667931</v>
+        <v>4.3118849002089927</v>
       </c>
       <c r="F4" s="1">
         <f>Лист1!$I4/Лист1!M4</f>
-        <v>4.0981569383936245</v>
+        <v>3.837276236411026</v>
       </c>
       <c r="G4" s="1">
         <f>Лист1!$I4/Лист1!N4</f>
-        <v>2.9662031783549736</v>
+        <v>4.6287469407491155</v>
       </c>
       <c r="H4" s="1">
         <f>Лист1!$I4/Лист1!O4</f>
-        <v>5.9749931531379694</v>
+        <v>3.9623827168125394</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>Лист1!A5</f>
-        <v>400x400</v>
+        <v>1500x1500</v>
       </c>
       <c r="B5" s="1">
         <f>Лист1!G5/Лист1!$G5</f>
@@ -5694,33 +6614,33 @@
       </c>
       <c r="C5" s="1">
         <f>Лист1!$I5/Лист1!J5</f>
-        <v>1.7354623312527215</v>
+        <v>1.6767207653311746</v>
       </c>
       <c r="D5" s="1">
         <f>Лист1!$I5/Лист1!K5</f>
-        <v>2.6864403923286932</v>
+        <v>3.2415837824034361</v>
       </c>
       <c r="E5" s="1">
         <f>Лист1!$I5/Лист1!L5</f>
-        <v>3.0308968646812393</v>
+        <v>3.9011600041536916</v>
       </c>
       <c r="F5" s="1">
         <f>Лист1!$I5/Лист1!M5</f>
-        <v>3.5451310639307319</v>
+        <v>3.3586200377473352</v>
       </c>
       <c r="G5" s="1">
         <f>Лист1!$I5/Лист1!N5</f>
-        <v>4.1593376008906207</v>
+        <v>4.3040844360209354</v>
       </c>
       <c r="H5" s="1">
         <f>Лист1!$I5/Лист1!O5</f>
-        <v>3.3154971956267025</v>
+        <v>3.1488813702488287</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>Лист1!A6</f>
-        <v>500x500</v>
+        <v>2000x2000</v>
       </c>
       <c r="B6" s="1">
         <f>Лист1!G6/Лист1!$G6</f>
@@ -5728,33 +6648,33 @@
       </c>
       <c r="C6" s="1">
         <f>Лист1!$I6/Лист1!J6</f>
-        <v>1.7674141183869194</v>
+        <v>1.9165687137606144</v>
       </c>
       <c r="D6" s="1">
         <f>Лист1!$I6/Лист1!K6</f>
-        <v>2.7771358164985762</v>
+        <v>3.1898360644706485</v>
       </c>
       <c r="E6" s="1">
         <f>Лист1!$I6/Лист1!L6</f>
-        <v>3.0881392481998207</v>
+        <v>3.8779458569630076</v>
       </c>
       <c r="F6" s="1">
         <f>Лист1!$I6/Лист1!M6</f>
-        <v>3.1061647975519029</v>
+        <v>3.5177926196691103</v>
       </c>
       <c r="G6" s="1">
         <f>Лист1!$I6/Лист1!N6</f>
-        <v>3.627256117481457</v>
+        <v>4.2751543521651811</v>
       </c>
       <c r="H6" s="1">
         <f>Лист1!$I6/Лист1!O6</f>
-        <v>3.0659255244075805</v>
+        <v>3.4980494035768213</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>Лист1!A7</f>
-        <v>600x600</v>
+        <v>2500x2500</v>
       </c>
       <c r="B7" s="1">
         <f>Лист1!G7/Лист1!$G7</f>
@@ -5762,33 +6682,33 @@
       </c>
       <c r="C7" s="1">
         <f>Лист1!$I7/Лист1!J7</f>
-        <v>1.8042044456355055</v>
+        <v>1.8690672432084035</v>
       </c>
       <c r="D7" s="1">
         <f>Лист1!$I7/Лист1!K7</f>
-        <v>2.9158943719193817</v>
+        <v>3.1624352423500968</v>
       </c>
       <c r="E7" s="1">
         <f>Лист1!$I7/Лист1!L7</f>
-        <v>2.7230063746231923</v>
+        <v>3.6899734689152162</v>
       </c>
       <c r="F7" s="1">
         <f>Лист1!$I7/Лист1!M7</f>
-        <v>3.4349447161455893</v>
+        <v>3.3680610646098499</v>
       </c>
       <c r="G7" s="1">
         <f>Лист1!$I7/Лист1!N7</f>
-        <v>3.7389466539137945</v>
+        <v>4.1210980022853496</v>
       </c>
       <c r="H7" s="1">
         <f>Лист1!$I7/Лист1!O7</f>
-        <v>2.9902247918260283</v>
+        <v>3.094941762725393</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>Лист1!A8</f>
-        <v>700x700</v>
+        <v>3000x3000</v>
       </c>
       <c r="B8" s="1">
         <f>Лист1!G8/Лист1!$G8</f>
@@ -5796,33 +6716,33 @@
       </c>
       <c r="C8" s="1">
         <f>Лист1!$I8/Лист1!J8</f>
-        <v>1.9628353545890489</v>
+        <v>1.9411244200072286</v>
       </c>
       <c r="D8" s="1">
         <f>Лист1!$I8/Лист1!K8</f>
-        <v>3.3632767015539904</v>
+        <v>3.2266302409578032</v>
       </c>
       <c r="E8" s="1">
         <f>Лист1!$I8/Лист1!L8</f>
-        <v>3.6291438047810209</v>
+        <v>3.4712342645078764</v>
       </c>
       <c r="F8" s="1">
         <f>Лист1!$I8/Лист1!M8</f>
-        <v>4.1924298006014995</v>
+        <v>3.5026085610769755</v>
       </c>
       <c r="G8" s="1">
         <f>Лист1!$I8/Лист1!N8</f>
-        <v>4.5593966173451284</v>
+        <v>4.1348294331313769</v>
       </c>
       <c r="H8" s="1">
         <f>Лист1!$I8/Лист1!O8</f>
-        <v>3.7508700934835923</v>
+        <v>3.2334067179567589</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>Лист1!A9</f>
-        <v>800x800</v>
+        <v>3500x3500</v>
       </c>
       <c r="B9" s="1">
         <f>Лист1!G9/Лист1!$G9</f>
@@ -5830,33 +6750,33 @@
       </c>
       <c r="C9" s="1">
         <f>Лист1!$I9/Лист1!J9</f>
-        <v>2.0214634772526114</v>
+        <v>2.0144680765773293</v>
       </c>
       <c r="D9" s="1">
         <f>Лист1!$I9/Лист1!K9</f>
-        <v>3.0617551294713361</v>
+        <v>2.6019563158710679</v>
       </c>
       <c r="E9" s="1">
         <f>Лист1!$I9/Лист1!L9</f>
-        <v>3.6279125285681135</v>
+        <v>4.8892530678395767</v>
       </c>
       <c r="F9" s="1">
         <f>Лист1!$I9/Лист1!M9</f>
-        <v>3.8697221126596282</v>
+        <v>3.8053763711855044</v>
       </c>
       <c r="G9" s="1">
         <f>Лист1!$I9/Лист1!N9</f>
-        <v>4.6122116764154066</v>
+        <v>4.5209421030900581</v>
       </c>
       <c r="H9" s="1">
         <f>Лист1!$I9/Лист1!O9</f>
-        <v>3.756549321947467</v>
+        <v>5.3608694106120653</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f>Лист1!A10</f>
-        <v>900x900</v>
+        <v>4000x4000</v>
       </c>
       <c r="B10" s="1">
         <f>Лист1!G10/Лист1!$G10</f>
@@ -5864,33 +6784,33 @@
       </c>
       <c r="C10" s="1">
         <f>Лист1!$I10/Лист1!J10</f>
-        <v>1.7811239645856569</v>
+        <v>1.8792922948953237</v>
       </c>
       <c r="D10" s="1">
         <f>Лист1!$I10/Лист1!K10</f>
-        <v>2.7701149368143327</v>
+        <v>3.4006360819066481</v>
       </c>
       <c r="E10" s="1">
         <f>Лист1!$I10/Лист1!L10</f>
-        <v>3.0125357511664745</v>
+        <v>4.4785860728661753</v>
       </c>
       <c r="F10" s="1">
         <f>Лист1!$I10/Лист1!M10</f>
-        <v>3.3690085048183493</v>
+        <v>3.5748460803998983</v>
       </c>
       <c r="G10" s="1">
         <f>Лист1!$I10/Лист1!N10</f>
-        <v>3.9350360808652063</v>
+        <v>4.1672188572135225</v>
       </c>
       <c r="H10" s="1">
         <f>Лист1!$I10/Лист1!O10</f>
-        <v>3.269618304843263</v>
+        <v>4.8124397567688204</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>Лист1!A11</f>
-        <v>1000x1000</v>
+        <v>4500x4500</v>
       </c>
       <c r="B11" s="1">
         <f>Лист1!G11/Лист1!$G11</f>
@@ -5898,33 +6818,177 @@
       </c>
       <c r="C11" s="1">
         <f>Лист1!$I11/Лист1!J11</f>
-        <v>1.9316739241077812</v>
+        <v>1.8514715718564996</v>
       </c>
       <c r="D11" s="1">
         <f>Лист1!$I11/Лист1!K11</f>
-        <v>3.2841557658585905</v>
+        <v>3.4678566546095575</v>
       </c>
       <c r="E11" s="1">
         <f>Лист1!$I11/Лист1!L11</f>
-        <v>3.7484280353179238</v>
+        <v>4.4963052065269711</v>
       </c>
       <c r="F11" s="1">
         <f>Лист1!$I11/Лист1!M11</f>
-        <v>4.2824818271323917</v>
+        <v>3.4593504901217864</v>
       </c>
       <c r="G11" s="1">
         <f>Лист1!$I11/Лист1!N11</f>
-        <v>3.1192185974646685</v>
+        <v>4.2896946945036669</v>
       </c>
       <c r="H11" s="1">
         <f>Лист1!$I11/Лист1!O11</f>
-        <v>3.8710419708491224</v>
+        <v>4.7764314253967086</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="str">
+        <f>Лист1!A12</f>
+        <v>5000x5000</v>
+      </c>
+      <c r="B12" s="1">
+        <f>Лист1!G12/Лист1!$G12</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <f>Лист1!$I12/Лист1!J12</f>
+        <v>1.8912959707219106</v>
+      </c>
+      <c r="D12" s="1">
+        <f>Лист1!$I12/Лист1!K12</f>
+        <v>3.1219146984170996</v>
+      </c>
+      <c r="E12" s="1">
+        <f>Лист1!$I12/Лист1!L12</f>
+        <v>4.5558488222373814</v>
+      </c>
+      <c r="F12" s="1">
+        <f>Лист1!$I12/Лист1!M12</f>
+        <v>3.4594729796124151</v>
+      </c>
+      <c r="G12" s="1">
+        <f>Лист1!$I12/Лист1!N12</f>
+        <v>4.1794825739875119</v>
+      </c>
+      <c r="H12" s="1">
+        <f>Лист1!$I12/Лист1!O12</f>
+        <v>4.981554902191224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="str">
+        <f>Лист1!A13</f>
+        <v>5500x5500</v>
+      </c>
+      <c r="B13" s="1">
+        <f>Лист1!G13/Лист1!$G13</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <f>Лист1!$I13/Лист1!J13</f>
+        <v>1.8600738088003435</v>
+      </c>
+      <c r="D13" s="1">
+        <f>Лист1!$I13/Лист1!K13</f>
+        <v>3.0166627003557585</v>
+      </c>
+      <c r="E13" s="1">
+        <f>Лист1!$I13/Лист1!L13</f>
+        <v>4.5387345257264631</v>
+      </c>
+      <c r="F13" s="1">
+        <f>Лист1!$I13/Лист1!M13</f>
+        <v>3.5019025586679255</v>
+      </c>
+      <c r="G13" s="1">
+        <f>Лист1!$I13/Лист1!N13</f>
+        <v>4.1581009633304271</v>
+      </c>
+      <c r="H13" s="1">
+        <f>Лист1!$I13/Лист1!O13</f>
+        <v>4.9326371501323818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="str">
+        <f>Лист1!A14</f>
+        <v>6000x6000</v>
+      </c>
+      <c r="B14" s="1">
+        <f>Лист1!G14/Лист1!$G14</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <f>Лист1!$I14/Лист1!J14</f>
+        <v>1.7539771143256453</v>
+      </c>
+      <c r="D14" s="1">
+        <f>Лист1!$I14/Лист1!K14</f>
+        <v>1.8155979209781281</v>
+      </c>
+      <c r="E14" s="1">
+        <f>Лист1!$I14/Лист1!L14</f>
+        <v>4.6022795308138118</v>
+      </c>
+      <c r="F14" s="1">
+        <f>Лист1!$I14/Лист1!M14</f>
+        <v>3.4272686495078339</v>
+      </c>
+      <c r="G14" s="1">
+        <f>Лист1!$I14/Лист1!N14</f>
+        <v>4.3388170861920354</v>
+      </c>
+      <c r="H14" s="1">
+        <f>Лист1!$I14/Лист1!O14</f>
+        <v>4.9129762412273479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="str">
+        <f>Лист1!A15</f>
+        <v>6500x6500</v>
+      </c>
+      <c r="B15" s="1">
+        <f>Лист1!G15/Лист1!$G15</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <f>Лист1!$I15/Лист1!J15</f>
+        <v>1.2394217061947619</v>
+      </c>
+      <c r="D15" s="1">
+        <f>Лист1!$I15/Лист1!K15</f>
+        <v>3.178372640758214</v>
+      </c>
+      <c r="E15" s="1">
+        <f>Лист1!$I15/Лист1!L15</f>
+        <v>4.3470929870754631</v>
+      </c>
+      <c r="F15" s="1">
+        <f>Лист1!$I15/Лист1!M15</f>
+        <v>3.6042832555021844</v>
+      </c>
+      <c r="G15" s="1">
+        <f>Лист1!$I15/Лист1!N15</f>
+        <v>4.3403235051790627</v>
+      </c>
+      <c r="H15" s="1">
+        <f>Лист1!$I15/Лист1!O15</f>
+        <v>4.6253344035495303</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:H11">
+  <conditionalFormatting sqref="C2:H15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>1</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.79998168889431442"/>
+        <color theme="9"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/результаты/анализ.xlsx
+++ b/результаты/анализ.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29070" windowHeight="15870"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29070" windowHeight="15870" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -301,7 +301,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -439,7 +439,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-09C4-4BA1-A4F0-F0C9D1BB6E12}"/>
             </c:ext>
@@ -573,7 +573,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-09C4-4BA1-A4F0-F0C9D1BB6E12}"/>
             </c:ext>
@@ -588,11 +588,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="855560800"/>
-        <c:axId val="855571136"/>
+        <c:axId val="701468928"/>
+        <c:axId val="701471648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="855560800"/>
+        <c:axId val="701468928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,10 +646,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="855571136"/>
+        <c:crossAx val="701471648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -657,7 +657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="855571136"/>
+        <c:axId val="701471648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -705,10 +705,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="855560800"/>
+        <c:crossAx val="701468928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -748,7 +748,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -778,7 +778,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -790,7 +790,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -871,7 +871,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -886,11 +886,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Gauss!$C$1</c:f>
+              <c:f>Gauss!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S(2)</c:v>
+                  <c:v>100x100</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -909,107 +909,59 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Gauss!$A$2:$A$15</c:f>
+              <c:f>Gauss!$C$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>100x100</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S(2)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500x500</c:v>
+                  <c:v>S(4)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000x1000</c:v>
+                  <c:v>S(6)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1500x1500</c:v>
+                  <c:v>S(8)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000x2000</c:v>
+                  <c:v>S(10)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2500x2500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3000x3000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3500x3500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000x4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4500x4500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000x5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5500x5500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6000x6000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6500x6500</c:v>
+                  <c:v>S(12)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gauss!$C$2:$C$15</c:f>
+              <c:f>Gauss!$C$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.65269137138220179</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2489422683226423</c:v>
+                  <c:v>0.40829103214890017</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8817341319604008</c:v>
+                  <c:v>0.51515798462852269</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0246882530968011</c:v>
+                  <c:v>0.37691346454233055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7503007732183296</c:v>
+                  <c:v>0.43020146193617403</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9062331222937134</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.9650914045438799</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0143731134704899</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.8588605765622206</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.9812046813134188</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.9992370323513</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.9596719527309514</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.941301200078968</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.962494849284921</c:v>
+                  <c:v>0.44718309859154937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3EDF-4985-9CB0-B5C536DD0D7F}"/>
             </c:ext>
@@ -1020,11 +972,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Gauss!$D$1</c:f>
+              <c:f>Gauss!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S(4)</c:v>
+                  <c:v>500x500</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1043,107 +995,59 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Gauss!$A$2:$A$15</c:f>
+              <c:f>Gauss!$C$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>100x100</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S(2)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500x500</c:v>
+                  <c:v>S(4)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000x1000</c:v>
+                  <c:v>S(6)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1500x1500</c:v>
+                  <c:v>S(8)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000x2000</c:v>
+                  <c:v>S(10)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2500x2500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3000x3000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3500x3500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000x4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4500x4500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000x5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5500x5500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6000x6000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6500x6500</c:v>
+                  <c:v>S(12)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gauss!$D$2:$D$15</c:f>
+              <c:f>Gauss!$C$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.40829103214890017</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.2489422683226423</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.8868714861356652</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1678975112113505</c:v>
+                  <c:v>2.7787521079258011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2794469253554119</c:v>
+                  <c:v>2.7872124492557506</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.219925824834915</c:v>
+                  <c:v>2.9399227949524769</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.34977870765821</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3931352439966642</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.6298727480786641</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.3841612206857739</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.6079826737524363</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.5032622502737518</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.540052664305001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.4210958649863961</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5193188447018184</c:v>
+                  <c:v>2.8347695531818395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3EDF-4985-9CB0-B5C536DD0D7F}"/>
             </c:ext>
@@ -1154,11 +1058,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Gauss!$E$1</c:f>
+              <c:f>Gauss!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S(6)</c:v>
+                  <c:v>1000x1000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1177,107 +1081,59 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Gauss!$A$2:$A$15</c:f>
+              <c:f>Gauss!$C$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>100x100</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S(2)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500x500</c:v>
+                  <c:v>S(4)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000x1000</c:v>
+                  <c:v>S(6)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1500x1500</c:v>
+                  <c:v>S(8)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000x2000</c:v>
+                  <c:v>S(10)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2500x2500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3000x3000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3500x3500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000x4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4500x4500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000x5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5500x5500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6000x6000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6500x6500</c:v>
+                  <c:v>S(12)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gauss!$E$2:$E$15</c:f>
+              <c:f>Gauss!$C$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.51515798462852269</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.8817341319604008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7787521079258011</c:v>
+                  <c:v>3.1678975112113505</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.7319527431583239</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1124469189202308</c:v>
+                  <c:v>3.808312420394214</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0136253741135874</c:v>
+                  <c:v>3.8809421304923344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2628624138151467</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2258734732427854</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.9580041340913725</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6159388409833744</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.8466898589483147</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.7407715819976213</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.7249581510701226</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.6397857978060832</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.7489171282753304</c:v>
+                  <c:v>3.9463786913042198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-3EDF-4985-9CB0-B5C536DD0D7F}"/>
             </c:ext>
@@ -1288,11 +1144,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Gauss!$F$1</c:f>
+              <c:f>Gauss!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S(8)</c:v>
+                  <c:v>1500x1500</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1311,107 +1167,59 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Gauss!$A$2:$A$15</c:f>
+              <c:f>Gauss!$C$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>100x100</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S(2)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500x500</c:v>
+                  <c:v>S(4)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000x1000</c:v>
+                  <c:v>S(6)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1500x1500</c:v>
+                  <c:v>S(8)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000x2000</c:v>
+                  <c:v>S(10)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2500x2500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3000x3000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3500x3500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000x4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4500x4500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000x5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5500x5500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6000x6000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6500x6500</c:v>
+                  <c:v>S(12)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gauss!$F$2:$F$15</c:f>
+              <c:f>Gauss!$C$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.37691346454233055</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.0246882530968011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7872124492557506</c:v>
+                  <c:v>3.2794469253554119</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.808312420394214</c:v>
+                  <c:v>4.1124469189202308</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.1057395649552557</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9675280043097843</c:v>
+                  <c:v>4.2284424881664711</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2285962235567816</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1922568903587374</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.8269805450736998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.4727062744190462</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.7013405787943405</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.676747228094202</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.5928447801686518</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.4764757387352541</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.5303815750474898</c:v>
+                  <c:v>4.3172652763884196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-3EDF-4985-9CB0-B5C536DD0D7F}"/>
             </c:ext>
@@ -1422,11 +1230,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Gauss!$G$1</c:f>
+              <c:f>Gauss!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S(10)</c:v>
+                  <c:v>2000x2000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1445,107 +1253,59 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Gauss!$A$2:$A$15</c:f>
+              <c:f>Gauss!$C$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>100x100</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S(2)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500x500</c:v>
+                  <c:v>S(4)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000x1000</c:v>
+                  <c:v>S(6)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1500x1500</c:v>
+                  <c:v>S(8)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000x2000</c:v>
+                  <c:v>S(10)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2500x2500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3000x3000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3500x3500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000x4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4500x4500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000x5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5500x5500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6000x6000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6500x6500</c:v>
+                  <c:v>S(12)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gauss!$G$2:$G$15</c:f>
+              <c:f>Gauss!$C$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.43020146193617403</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.7503007732183296</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9399227949524769</c:v>
+                  <c:v>3.219925824834915</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8809421304923344</c:v>
+                  <c:v>4.0136253741135874</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2284424881664711</c:v>
+                  <c:v>3.9675280043097843</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4.1118875850618446</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.288391947887769</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2569766520510779</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.7977788086298219</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.5824972992787778</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.7176271980290272</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.6802480377642688</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.6177571146826812</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.4912688688567135</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.599402648725321</c:v>
+                  <c:v>4.1528232827036282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-29DA-4553-90C0-B8B75E78ED3A}"/>
             </c:ext>
@@ -1556,11 +1316,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Gauss!$H$1</c:f>
+              <c:f>Gauss!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S(12)</c:v>
+                  <c:v>2500x2500</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1579,111 +1339,729 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Gauss!$A$2:$A$15</c:f>
+              <c:f>Gauss!$C$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>100x100</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S(2)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500x500</c:v>
+                  <c:v>S(4)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000x1000</c:v>
+                  <c:v>S(6)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1500x1500</c:v>
+                  <c:v>S(8)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000x2000</c:v>
+                  <c:v>S(10)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2500x2500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3000x3000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3500x3500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000x4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4500x4500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000x5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5500x5500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6000x6000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6500x6500</c:v>
+                  <c:v>S(12)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gauss!$H$2:$H$15</c:f>
+              <c:f>Gauss!$C$7:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.44718309859154937</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.9062331222937134</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8347695531818395</c:v>
+                  <c:v>3.34977870765821</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9463786913042198</c:v>
+                  <c:v>4.2628624138151467</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3172652763884196</c:v>
+                  <c:v>4.2285962235567816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1528232827036282</c:v>
+                  <c:v>4.288391947887769</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4.3448162380210213</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.23346610296867</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.6594769625831756</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.7436635138547887</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.8862247627719695</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.811177961779677</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.7909239527372289</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.5713301141843354</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.7805316051655327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-29DA-4553-90C0-B8B75E78ED3A}"/>
             </c:ext>
           </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gauss!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3000x3000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gauss!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S(2)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S(4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S(6)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>S(8)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>S(10)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>S(12)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gauss!$C$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.9650914045438799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3931352439966642</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2258734732427854</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1922568903587374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2569766520510779</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.23346610296867</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gauss!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3500x3500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gauss!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S(2)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S(4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S(6)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>S(8)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>S(10)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>S(12)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gauss!$C$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.0143731134704899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6298727480786641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9580041340913725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8269805450736998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7977788086298219</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6594769625831756</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gauss!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4000x4000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gauss!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S(2)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S(4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S(6)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>S(8)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>S(10)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>S(12)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gauss!$C$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.8588605765622206</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3841612206857739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6159388409833744</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4727062744190462</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5824972992787778</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7436635138547887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gauss!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4500x4500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gauss!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S(2)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S(4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S(6)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>S(8)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>S(10)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>S(12)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gauss!$C$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.9812046813134188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6079826737524363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8466898589483147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7013405787943405</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7176271980290272</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8862247627719695</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gauss!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5000x5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gauss!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S(2)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S(4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S(6)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>S(8)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>S(10)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>S(12)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gauss!$C$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.9992370323513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5032622502737518</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7407715819976213</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.676747228094202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6802480377642688</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.811177961779677</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gauss!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5500x5500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gauss!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S(2)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S(4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S(6)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>S(8)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>S(10)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>S(12)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gauss!$C$13:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.9596719527309514</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.540052664305001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7249581510701226</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5928447801686518</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6177571146826812</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7909239527372289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gauss!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6000x6000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gauss!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S(2)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S(4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S(6)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>S(8)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>S(10)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>S(12)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gauss!$C$14:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.941301200078968</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4210958649863961</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6397857978060832</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4764757387352541</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4912688688567135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5713301141843354</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gauss!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6500x6500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gauss!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S(2)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S(4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S(6)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>S(8)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>S(10)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>S(12)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gauss!$C$15:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.962494849284921</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5193188447018184</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7489171282753304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5303815750474898</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.599402648725321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7805316051655327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1694,11 +2072,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="855570048"/>
-        <c:axId val="855562976"/>
+        <c:axId val="701468384"/>
+        <c:axId val="701462400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="855570048"/>
+        <c:axId val="701468384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1752,10 +2130,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="855562976"/>
+        <c:crossAx val="701462400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1763,7 +2141,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="855562976"/>
+        <c:axId val="701462400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -1812,10 +2190,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="855570048"/>
+        <c:crossAx val="701468384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
@@ -1856,7 +2234,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1886,7 +2264,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1898,7 +2276,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2000,7 +2378,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2015,11 +2393,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>CG!$C$1</c:f>
+              <c:f>CG!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S(2)</c:v>
+                  <c:v>100x100</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2038,107 +2416,59 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>CG!$A$2:$A$15</c:f>
+              <c:f>CG!$C$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>100x100</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S(2)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500x500</c:v>
+                  <c:v>S(4)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000x1000</c:v>
+                  <c:v>S(6)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1500x1500</c:v>
+                  <c:v>S(8)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000x2000</c:v>
+                  <c:v>S(10)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2500x2500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3000x3000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3500x3500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000x4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4500x4500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000x5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5500x5500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6000x6000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6500x6500</c:v>
+                  <c:v>S(12)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CG!$C$2:$C$15</c:f>
+              <c:f>CG!$C$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3.2946983546617914</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1772792673867234</c:v>
+                  <c:v>2.9651201052977951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9465604833091386</c:v>
+                  <c:v>2.5804696449026348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6767207653311746</c:v>
+                  <c:v>2.8909207571382738</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9165687137606144</c:v>
+                  <c:v>1.9887442065769145</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8690672432084035</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.9411244200072286</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0144680765773293</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.8792922948953237</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.8514715718564996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.8912959707219106</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.8600738088003435</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7539771143256453</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.2394217061947619</c:v>
+                  <c:v>2.0926614026939157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-311F-4313-B886-110114FD9BCE}"/>
             </c:ext>
@@ -2149,11 +2479,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>CG!$D$1</c:f>
+              <c:f>CG!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S(4)</c:v>
+                  <c:v>500x500</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2172,107 +2502,59 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>CG!$A$2:$A$15</c:f>
+              <c:f>CG!$C$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>100x100</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S(2)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500x500</c:v>
+                  <c:v>S(4)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000x1000</c:v>
+                  <c:v>S(6)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1500x1500</c:v>
+                  <c:v>S(8)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000x2000</c:v>
+                  <c:v>S(10)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2500x2500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3000x3000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3500x3500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000x4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4500x4500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000x5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5500x5500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6000x6000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6500x6500</c:v>
+                  <c:v>S(12)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CG!$D$2:$D$15</c:f>
+              <c:f>CG!$C$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>2.9651201052977951</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.1772792673867234</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.7718098008353147</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4686349271358825</c:v>
+                  <c:v>3.1755036773886913</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2415837824034361</c:v>
+                  <c:v>3.9660688683753804</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1898360644706485</c:v>
+                  <c:v>4.874398733785906</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1624352423500968</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.2266302409578032</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.6019563158710679</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.4006360819066481</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.4678566546095575</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.1219146984170996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.0166627003557585</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.8155979209781281</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.178372640758214</c:v>
+                  <c:v>4.1673670467219575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-311F-4313-B886-110114FD9BCE}"/>
             </c:ext>
@@ -2283,11 +2565,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>CG!$E$1</c:f>
+              <c:f>CG!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S(6)</c:v>
+                  <c:v>1000x1000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2306,107 +2588,59 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>CG!$A$2:$A$15</c:f>
+              <c:f>CG!$C$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>100x100</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S(2)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500x500</c:v>
+                  <c:v>S(4)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000x1000</c:v>
+                  <c:v>S(6)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1500x1500</c:v>
+                  <c:v>S(8)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000x2000</c:v>
+                  <c:v>S(10)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2500x2500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3000x3000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3500x3500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000x4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4500x4500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000x5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5500x5500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6000x6000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6500x6500</c:v>
+                  <c:v>S(12)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CG!$E$2:$E$15</c:f>
+              <c:f>CG!$C$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>2.5804696449026348</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.9465604833091386</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1755036773886913</c:v>
+                  <c:v>3.4686349271358825</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.3118849002089927</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9011600041536916</c:v>
+                  <c:v>3.837276236411026</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8779458569630076</c:v>
+                  <c:v>4.6287469407491155</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6899734689152162</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.4712342645078764</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.8892530678395767</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.4785860728661753</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.4963052065269711</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.5558488222373814</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.5387345257264631</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.6022795308138118</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.3470929870754631</c:v>
+                  <c:v>3.9623827168125394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-311F-4313-B886-110114FD9BCE}"/>
             </c:ext>
@@ -2417,11 +2651,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>CG!$F$1</c:f>
+              <c:f>CG!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S(8)</c:v>
+                  <c:v>1500x1500</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2440,107 +2674,59 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>CG!$A$2:$A$15</c:f>
+              <c:f>CG!$C$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>100x100</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S(2)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500x500</c:v>
+                  <c:v>S(4)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000x1000</c:v>
+                  <c:v>S(6)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1500x1500</c:v>
+                  <c:v>S(8)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000x2000</c:v>
+                  <c:v>S(10)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2500x2500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3000x3000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3500x3500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000x4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4500x4500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000x5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5500x5500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6000x6000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6500x6500</c:v>
+                  <c:v>S(12)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CG!$F$2:$F$15</c:f>
+              <c:f>CG!$C$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>2.8909207571382738</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.6767207653311746</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9660688683753804</c:v>
+                  <c:v>3.2415837824034361</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.837276236411026</c:v>
+                  <c:v>3.9011600041536916</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.3586200377473352</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5177926196691103</c:v>
+                  <c:v>4.3040844360209354</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3680610646098499</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5026085610769755</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.8053763711855044</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.5748460803998983</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.4593504901217864</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.4594729796124151</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.5019025586679255</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.4272686495078339</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.6042832555021844</c:v>
+                  <c:v>3.1488813702488287</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-311F-4313-B886-110114FD9BCE}"/>
             </c:ext>
@@ -2551,11 +2737,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>CG!$G$1</c:f>
+              <c:f>CG!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S(10)</c:v>
+                  <c:v>2000x2000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2574,107 +2760,59 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>CG!$A$2:$A$15</c:f>
+              <c:f>CG!$C$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>100x100</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S(2)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500x500</c:v>
+                  <c:v>S(4)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000x1000</c:v>
+                  <c:v>S(6)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1500x1500</c:v>
+                  <c:v>S(8)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000x2000</c:v>
+                  <c:v>S(10)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2500x2500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3000x3000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3500x3500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000x4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4500x4500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000x5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5500x5500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6000x6000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6500x6500</c:v>
+                  <c:v>S(12)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CG!$G$2:$G$15</c:f>
+              <c:f>CG!$C$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1.9887442065769145</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.9165687137606144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.874398733785906</c:v>
+                  <c:v>3.1898360644706485</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6287469407491155</c:v>
+                  <c:v>3.8779458569630076</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3040844360209354</c:v>
+                  <c:v>3.5177926196691103</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4.2751543521651811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1210980022853496</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1348294331313769</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.5209421030900581</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.1672188572135225</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.2896946945036669</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.1794825739875119</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.1581009633304271</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.3388170861920354</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.3403235051790627</c:v>
+                  <c:v>3.4980494035768213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B087-44CE-968A-F61682286D85}"/>
             </c:ext>
@@ -2685,11 +2823,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>CG!$H$1</c:f>
+              <c:f>CG!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S(12)</c:v>
+                  <c:v>2500x2500</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2708,111 +2846,729 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>CG!$A$2:$A$15</c:f>
+              <c:f>CG!$C$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>100x100</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S(2)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500x500</c:v>
+                  <c:v>S(4)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000x1000</c:v>
+                  <c:v>S(6)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1500x1500</c:v>
+                  <c:v>S(8)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000x2000</c:v>
+                  <c:v>S(10)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2500x2500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3000x3000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3500x3500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000x4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4500x4500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000x5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5500x5500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6000x6000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6500x6500</c:v>
+                  <c:v>S(12)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CG!$H$2:$H$15</c:f>
+              <c:f>CG!$C$7:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>2.0926614026939157</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.8690672432084035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1673670467219575</c:v>
+                  <c:v>3.1624352423500968</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9623827168125394</c:v>
+                  <c:v>3.6899734689152162</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1488813702488287</c:v>
+                  <c:v>3.3680610646098499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4980494035768213</c:v>
+                  <c:v>4.1210980022853496</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.094941762725393</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.2334067179567589</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.3608694106120653</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.8124397567688204</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.7764314253967086</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.981554902191224</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.9326371501323818</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.9129762412273479</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.6253344035495303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B087-44CE-968A-F61682286D85}"/>
             </c:ext>
           </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CG!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3000x3000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CG!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S(2)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S(4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S(6)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>S(8)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>S(10)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>S(12)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CG!$C$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.9411244200072286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2266302409578032</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4712342645078764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5026085610769755</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1348294331313769</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2334067179567589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CG!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3500x3500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CG!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S(2)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S(4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S(6)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>S(8)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>S(10)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>S(12)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CG!$C$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.0144680765773293</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6019563158710679</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8892530678395767</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8053763711855044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5209421030900581</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3608694106120653</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CG!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4000x4000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CG!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S(2)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S(4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S(6)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>S(8)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>S(10)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>S(12)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CG!$C$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.8792922948953237</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4006360819066481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4785860728661753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5748460803998983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1672188572135225</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8124397567688204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CG!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4500x4500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CG!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S(2)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S(4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S(6)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>S(8)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>S(10)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>S(12)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CG!$C$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.8514715718564996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4678566546095575</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4963052065269711</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4593504901217864</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2896946945036669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7764314253967086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CG!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5000x5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CG!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S(2)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S(4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S(6)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>S(8)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>S(10)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>S(12)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CG!$C$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.8912959707219106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1219146984170996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5558488222373814</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4594729796124151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1794825739875119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.981554902191224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CG!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5500x5500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CG!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S(2)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S(4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S(6)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>S(8)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>S(10)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>S(12)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CG!$C$13:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.8600738088003435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0166627003557585</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5387345257264631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5019025586679255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1581009633304271</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9326371501323818</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CG!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6000x6000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CG!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S(2)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S(4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S(6)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>S(8)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>S(10)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>S(12)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CG!$C$14:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.7539771143256453</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8155979209781281</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6022795308138118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4272686495078339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3388170861920354</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9129762412273479</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CG!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6500x6500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CG!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S(2)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S(4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S(6)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>S(8)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>S(10)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>S(12)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CG!$C$15:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.2394217061947619</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.178372640758214</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3470929870754631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6042832555021844</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3403235051790627</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6253344035495303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2823,11 +3579,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="855566240"/>
-        <c:axId val="855565152"/>
+        <c:axId val="701466752"/>
+        <c:axId val="701469472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="855566240"/>
+        <c:axId val="701466752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2881,10 +3637,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="855565152"/>
+        <c:crossAx val="701469472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2892,7 +3648,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="855565152"/>
+        <c:axId val="701469472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -2941,10 +3697,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="855566240"/>
+        <c:crossAx val="701466752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
@@ -2985,7 +3741,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3015,7 +3771,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5068,8 +5824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:O15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6469,7 +7225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>

--- a/результаты/анализ.xlsx
+++ b/результаты/анализ.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="29070" windowHeight="15870" activeTab="2"/>
   </bookViews>
@@ -21,34 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
-  <si>
-    <t>Размер</t>
-  </si>
-  <si>
-    <t>Гаусс параллель(2)</t>
-  </si>
-  <si>
-    <t>Гаусс параллель(4)</t>
-  </si>
-  <si>
-    <t>Гаусс параллель(8)</t>
-  </si>
-  <si>
-    <t>Гаусс параллель(12)</t>
-  </si>
-  <si>
-    <t>CG параллель(2)</t>
-  </si>
-  <si>
-    <t>CG параллель(4)</t>
-  </si>
-  <si>
-    <t>CG параллель(8)</t>
-  </si>
-  <si>
-    <t>CG параллель(12)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>S(2)</t>
   </si>
@@ -66,18 +39,6 @@
   </si>
   <si>
     <t>CG</t>
-  </si>
-  <si>
-    <t>Гаусс параллель(6)</t>
-  </si>
-  <si>
-    <t>Гаусс параллель(10)</t>
-  </si>
-  <si>
-    <t>CG параллель(6)</t>
-  </si>
-  <si>
-    <t>CG параллель(10)</t>
   </si>
   <si>
     <t>S(6)</t>
@@ -107,41 +68,38 @@
     <t>3000x3000</t>
   </si>
   <si>
-    <t>3500x3500</t>
+    <t>Өлшемі</t>
   </si>
   <si>
-    <t>4000x4000</t>
+    <t xml:space="preserve"> сызықты</t>
   </si>
   <si>
-    <t>4500x4500</t>
+    <t>Гаусс</t>
   </si>
   <si>
-    <t>5000x5000</t>
+    <t>2 ағын</t>
   </si>
   <si>
-    <t>5500x5500</t>
+    <t>4 ағын</t>
   </si>
   <si>
-    <t>6000x6000</t>
+    <t>6 ағын</t>
   </si>
   <si>
-    <t>6500x6500</t>
+    <t>8 ағын</t>
   </si>
   <si>
-    <t>Гаусс сызықты</t>
+    <t>10 ағын</t>
   </si>
   <si>
-    <t>CG сызықты</t>
-  </si>
-  <si>
-    <t>Өлшемі</t>
+    <t>12 ағын</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,12 +109,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -194,10 +158,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -231,7 +204,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -258,20 +231,24 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Әдістердің есептеу уақыты</a:t>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Әдістердің</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>сызықты алгоритм есептеу уақыты</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -296,12 +273,12 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="kk-KZ"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -316,11 +293,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$B$1</c:f>
+              <c:f>Лист1!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Гаусс сызықты</c:v>
+                  <c:v> сызықты</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -339,9 +316,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$2:$A$15</c:f>
+              <c:f>Лист1!$A$3:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>100x100</c:v>
                 </c:pt>
@@ -362,84 +339,42 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3000x3000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3500x3500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000x4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4500x4500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000x5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5500x5500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6000x6000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6500x6500</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$15</c:f>
+              <c:f>Лист1!$B$3:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.4130000000000002E-3</c:v>
+                  <c:v>1.475E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.181258</c:v>
+                  <c:v>0.210065</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.207951</c:v>
+                  <c:v>1.2059329999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0654909999999997</c:v>
+                  <c:v>3.718928</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.8244959999999999</c:v>
+                  <c:v>8.8584300000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.539286000000001</c:v>
+                  <c:v>17.326756</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.40493</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>53.709325</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>65.554631000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>98.951352999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>133.10032899999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>177.68724399999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>225.46875299999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>294.43813799999998</c:v>
+                  <c:v>30.104293999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-09C4-4BA1-A4F0-F0C9D1BB6E12}"/>
             </c:ext>
@@ -450,11 +385,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$I$1</c:f>
+              <c:f>Лист1!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CG сызықты</c:v>
+                  <c:v> сызықты</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -473,9 +408,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$2:$A$15</c:f>
+              <c:f>Лист1!$A$3:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>100x100</c:v>
                 </c:pt>
@@ -496,84 +431,42 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3000x3000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3500x3500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000x4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4500x4500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000x5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5500x5500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6000x6000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6500x6500</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$I$2:$I$15</c:f>
+              <c:f>Лист1!$I$3:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.0109999999999999E-3</c:v>
+                  <c:v>2.3900000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78839499999999996</c:v>
+                  <c:v>8.7085999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5381929999999997</c:v>
+                  <c:v>0.34353</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.277898</c:v>
+                  <c:v>0.64615999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.832872999999999</c:v>
+                  <c:v>1.745131</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>114.741939</c:v>
+                  <c:v>2.965649</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>206.316068</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>293.075289</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>411.58971400000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>583.762562</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>812.65298700000005</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1114.021628</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1454.705676</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1882.174031</c:v>
+                  <c:v>5.6155869999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-09C4-4BA1-A4F0-F0C9D1BB6E12}"/>
             </c:ext>
@@ -641,12 +534,12 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="kk-KZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="701471648"/>
@@ -700,12 +593,12 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="kk-KZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="701468928"/>
@@ -743,12 +636,12 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="kk-KZ"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -776,9 +669,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="kk-KZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -790,7 +686,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -824,6 +720,14 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>a)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Gauss </a:t>
             </a:r>
             <a:r>
@@ -832,7 +736,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> есептеулерді сызықты есептеумен салыстыру</a:t>
+              <a:t> алгоритмі мен сызықты алгоритмін салыстыру</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -842,8 +746,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14354701071154483"/>
-          <c:y val="2.0997375328083989E-2"/>
+          <c:x val="0.13540451837798989"/>
+          <c:y val="0.7799648762791912"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -871,13 +775,23 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="kk-KZ"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.13265530521844E-2"/>
+          <c:y val="8.7429519071310122E-2"/>
+          <c:w val="0.74971677590642927"/>
+          <c:h val="0.54039612178785124"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -909,9 +823,16 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Gauss!$C$1:$H$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Gauss!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Gauss!$B$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>S(2)</c:v>
                 </c:pt>
@@ -926,42 +847,43 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>S(10)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>S(12)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gauss!$C$2:$H$2</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Gauss!$B$2:$G$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Gauss!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.65269137138220179</c:v>
+                  <c:v>0.29046868846002361</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40829103214890017</c:v>
+                  <c:v>0.38602460088981938</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51515798462852269</c:v>
+                  <c:v>0.20936834634492546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37691346454233055</c:v>
+                  <c:v>0.18682710576314124</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.43020146193617403</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.44718309859154937</c:v>
+                  <c:v>0.17597232164161297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3EDF-4985-9CB0-B5C536DD0D7F}"/>
             </c:ext>
@@ -995,9 +917,16 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Gauss!$C$1:$H$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Gauss!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Gauss!$B$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>S(2)</c:v>
                 </c:pt>
@@ -1012,42 +941,43 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>S(10)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>S(12)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gauss!$C$3:$H$3</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Gauss!$B$3:$G$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Gauss!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.2489422683226423</c:v>
+                  <c:v>1.7428585651585926</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8868714861356652</c:v>
+                  <c:v>1.4821700722510727</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7787521079258011</c:v>
+                  <c:v>2.3990155659353838</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7872124492557506</c:v>
+                  <c:v>1.6464451707462358</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9399227949524769</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8347695531818395</c:v>
+                  <c:v>2.0693408725975981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3EDF-4985-9CB0-B5C536DD0D7F}"/>
             </c:ext>
@@ -1081,9 +1011,16 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Gauss!$C$1:$H$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Gauss!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Gauss!$B$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>S(2)</c:v>
                 </c:pt>
@@ -1098,42 +1035,43 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>S(10)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>S(12)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gauss!$C$4:$H$4</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Gauss!$B$4:$G$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Gauss!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.8817341319604008</c:v>
+                  <c:v>1.9008313052469641</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1678975112113505</c:v>
+                  <c:v>2.9043649780595064</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7319527431583239</c:v>
+                  <c:v>3.2263521467402936</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.808312420394214</c:v>
+                  <c:v>3.6247839586883921</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8809421304923344</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.9463786913042198</c:v>
+                  <c:v>3.9046038679095609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-3EDF-4985-9CB0-B5C536DD0D7F}"/>
             </c:ext>
@@ -1167,9 +1105,16 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Gauss!$C$1:$H$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Gauss!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Gauss!$B$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>S(2)</c:v>
                 </c:pt>
@@ -1184,42 +1129,43 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>S(10)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>S(12)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gauss!$C$5:$H$5</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Gauss!$B$5:$G$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Gauss!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.0246882530968011</c:v>
+                  <c:v>1.7932975952759025</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2794469253554119</c:v>
+                  <c:v>2.9803854941613288</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1124469189202308</c:v>
+                  <c:v>3.5397730084940964</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1057395649552557</c:v>
+                  <c:v>3.6712821008945902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2284424881664711</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.3172652763884196</c:v>
+                  <c:v>3.9372942779493489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-3EDF-4985-9CB0-B5C536DD0D7F}"/>
             </c:ext>
@@ -1253,9 +1199,16 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Gauss!$C$1:$H$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Gauss!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Gauss!$B$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>S(2)</c:v>
                 </c:pt>
@@ -1270,42 +1223,43 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>S(10)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>S(12)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gauss!$C$6:$H$6</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Gauss!$B$6:$G$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Gauss!$B$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.7503007732183296</c:v>
+                  <c:v>1.8401288567762499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.219925824834915</c:v>
+                  <c:v>3.0414740373110116</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0136253741135874</c:v>
+                  <c:v>3.7100605693062465</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9675280043097843</c:v>
+                  <c:v>3.7477170200623009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1118875850618446</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.1528232827036282</c:v>
+                  <c:v>3.9600748345392249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-29DA-4553-90C0-B8B75E78ED3A}"/>
             </c:ext>
@@ -1339,9 +1293,16 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Gauss!$C$1:$H$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Gauss!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Gauss!$B$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>S(2)</c:v>
                 </c:pt>
@@ -1356,42 +1317,43 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>S(10)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>S(12)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gauss!$C$7:$H$7</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Gauss!$B$7:$G$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Gauss!$B$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.9062331222937134</c:v>
+                  <c:v>1.8685796394745513</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.34977870765821</c:v>
+                  <c:v>3.0420269837755689</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2628624138151467</c:v>
+                  <c:v>3.6760982357577565</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2285962235567816</c:v>
+                  <c:v>3.6636840006377227</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.288391947887769</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.3448162380210213</c:v>
+                  <c:v>3.990690484163919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-29DA-4553-90C0-B8B75E78ED3A}"/>
             </c:ext>
@@ -1427,9 +1389,16 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Gauss!$C$1:$H$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Gauss!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Gauss!$B$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>S(2)</c:v>
                 </c:pt>
@@ -1444,624 +1413,47 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>S(10)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>S(12)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gauss!$C$8:$H$8</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Gauss!$B$8:$G$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Gauss!$B$8:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.9650914045438799</c:v>
+                  <c:v>1.8594145841311409</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3931352439966642</c:v>
+                  <c:v>3.0731351869215406</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2258734732427854</c:v>
+                  <c:v>3.6893751469871479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1922568903587374</c:v>
+                  <c:v>3.7440855927615386</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2569766520510779</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.23346610296867</c:v>
+                  <c:v>3.8780705009945642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Gauss!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3500x3500</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Gauss!$C$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>S(2)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>S(4)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>S(6)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>S(8)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>S(10)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>S(12)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Gauss!$C$9:$H$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.0143731134704899</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6298727480786641</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.9580041340913725</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.8269805450736998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.7977788086298219</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.6594769625831756</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Gauss!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4000x4000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Gauss!$C$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>S(2)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>S(4)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>S(6)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>S(8)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>S(10)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>S(12)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Gauss!$C$10:$H$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.8588605765622206</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.3841612206857739</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.6159388409833744</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.4727062744190462</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.5824972992787778</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.7436635138547887</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Gauss!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4500x4500</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Gauss!$C$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>S(2)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>S(4)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>S(6)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>S(8)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>S(10)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>S(12)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Gauss!$C$11:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.9812046813134188</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6079826737524363</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.8466898589483147</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.7013405787943405</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.7176271980290272</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.8862247627719695</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Gauss!$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5000x5000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Gauss!$C$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>S(2)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>S(4)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>S(6)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>S(8)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>S(10)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>S(12)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Gauss!$C$12:$H$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.9992370323513</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5032622502737518</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.7407715819976213</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.676747228094202</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.6802480377642688</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.811177961779677</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Gauss!$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5500x5500</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Gauss!$C$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>S(2)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>S(4)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>S(6)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>S(8)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>S(10)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>S(12)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Gauss!$C$13:$H$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.9596719527309514</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.540052664305001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.7249581510701226</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.5928447801686518</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.6177571146826812</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.7909239527372289</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Gauss!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>6000x6000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Gauss!$C$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>S(2)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>S(4)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>S(6)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>S(8)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>S(10)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>S(12)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Gauss!$C$14:$H$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.941301200078968</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.4210958649863961</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.6397857978060832</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.4764757387352541</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.4912688688567135</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.5713301141843354</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Gauss!$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>6500x6500</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Gauss!$C$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>S(2)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>S(4)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>S(6)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>S(8)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>S(10)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>S(12)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Gauss!$C$15:$H$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.962494849284921</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5193188447018184</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.7489171282753304</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.5303815750474898</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.599402648725321</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.7805316051655327</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B216-48F2-B971-755A7F06DB05}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2130,7 +1522,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="kk-KZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="701462400"/>
@@ -2190,7 +1582,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="kk-KZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="701468384"/>
@@ -2208,7 +1600,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.83841223964060196"/>
+          <c:y val="0.10465781329572606"/>
+          <c:w val="0.14326715260889941"/>
+          <c:h val="0.5597054099580836"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2234,7 +1635,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="kk-KZ"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2264,7 +1665,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="kk-KZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2276,7 +1677,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2295,27 +1696,13 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:sysClr>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2323,22 +1710,41 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>ә</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>CG</a:t>
+              <a:t>)</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>  </a:t>
+              <a:t> CG</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>параллель</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t>параллель есептеулерді сызықты есептеумен салыстыру</a:t>
+              <a:t> алгоритмі мен сызықты алгоритмін салыстыру</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11097704137732502"/>
+          <c:y val="0.84829088896830795"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2351,40 +1757,36 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
+          <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:sysClr>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="kk-KZ"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.13265530521844E-2"/>
+          <c:y val="8.7429519071310122E-2"/>
+          <c:w val="0.74971677590642927"/>
+          <c:h val="0.55991783969902742"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2416,7 +1818,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>CG!$C$1:$H$1</c:f>
+              <c:f>CG!$B$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2442,35 +1844,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CG!$C$2:$H$2</c:f>
+              <c:f>CG!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.2946983546617914</c:v>
+                  <c:v>0.71685662867426514</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9651201052977951</c:v>
+                  <c:v>1.4251639833035181</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5804696449026348</c:v>
+                  <c:v>1.0328435609334485</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8909207571382738</c:v>
+                  <c:v>0.71814903846153855</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9887442065769145</c:v>
+                  <c:v>0.49636552440290765</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0926614026939157</c:v>
+                  <c:v>0.43644996347699055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-311F-4313-B886-110114FD9BCE}"/>
+              <c16:uniqueId val="{00000000-CE0C-44F1-906C-A82F865C4E10}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2502,7 +1904,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>CG!$C$1:$H$1</c:f>
+              <c:f>CG!$B$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2528,35 +1930,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CG!$C$3:$H$3</c:f>
+              <c:f>CG!$B$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.1772792673867234</c:v>
+                  <c:v>2.0465302093859421</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7718098008353147</c:v>
+                  <c:v>4.1995467039591068</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1755036773886913</c:v>
+                  <c:v>4.1737838485502028</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9660688683753804</c:v>
+                  <c:v>4.5781726422037634</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.874398733785906</c:v>
+                  <c:v>3.2237358406752055</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1673670467219575</c:v>
+                  <c:v>3.3717670744927983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-311F-4313-B886-110114FD9BCE}"/>
+              <c16:uniqueId val="{00000001-CE0C-44F1-906C-A82F865C4E10}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2588,7 +1990,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>CG!$C$1:$H$1</c:f>
+              <c:f>CG!$B$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2614,35 +2016,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CG!$C$4:$H$4</c:f>
+              <c:f>CG!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.9465604833091386</c:v>
+                  <c:v>1.9507444549181723</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4686349271358825</c:v>
+                  <c:v>2.5210250539386201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3118849002089927</c:v>
+                  <c:v>3.6939106872116905</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.837276236411026</c:v>
+                  <c:v>4.0354999001491896</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6287469407491155</c:v>
+                  <c:v>4.2907996302865286</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9623827168125394</c:v>
+                  <c:v>4.0532600231257527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-311F-4313-B886-110114FD9BCE}"/>
+              <c16:uniqueId val="{00000002-CE0C-44F1-906C-A82F865C4E10}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2674,7 +2076,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>CG!$C$1:$H$1</c:f>
+              <c:f>CG!$B$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2700,35 +2102,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CG!$C$5:$H$5</c:f>
+              <c:f>CG!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.6767207653311746</c:v>
+                  <c:v>1.9244010816863821</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2415837824034361</c:v>
+                  <c:v>2.9367705341235499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9011600041536916</c:v>
+                  <c:v>3.5782874990308895</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3586200377473352</c:v>
+                  <c:v>3.9065560687770549</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3040844360209354</c:v>
+                  <c:v>4.8070585259524314</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1488813702488287</c:v>
+                  <c:v>3.541864225614602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-311F-4313-B886-110114FD9BCE}"/>
+              <c16:uniqueId val="{00000003-CE0C-44F1-906C-A82F865C4E10}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2760,7 +2162,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>CG!$C$1:$H$1</c:f>
+              <c:f>CG!$B$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2786,35 +2188,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CG!$C$6:$H$6</c:f>
+              <c:f>CG!$B$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.9165687137606144</c:v>
+                  <c:v>1.775304067938686</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1898360644706485</c:v>
+                  <c:v>3.0211133135403232</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8779458569630076</c:v>
+                  <c:v>3.4720683617842507</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5177926196691103</c:v>
+                  <c:v>3.5626115146392947</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2751543521651811</c:v>
+                  <c:v>3.8754938385383935</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4980494035768213</c:v>
+                  <c:v>3.3009211621396681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B087-44CE-968A-F61682286D85}"/>
+              <c16:uniqueId val="{00000004-CE0C-44F1-906C-A82F865C4E10}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2846,7 +2248,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>CG!$C$1:$H$1</c:f>
+              <c:f>CG!$B$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2872,35 +2274,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CG!$C$7:$H$7</c:f>
+              <c:f>CG!$B$7:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.8690672432084035</c:v>
+                  <c:v>1.8049481883259713</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1624352423500968</c:v>
+                  <c:v>2.9877493821799854</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6899734689152162</c:v>
+                  <c:v>3.481323529066505</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3680610646098499</c:v>
+                  <c:v>3.6798807309510133</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1210980022853496</c:v>
+                  <c:v>4.2368230067002877</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.094941762725393</c:v>
+                  <c:v>3.394231869726644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B087-44CE-968A-F61682286D85}"/>
+              <c16:uniqueId val="{00000005-CE0C-44F1-906C-A82F865C4E10}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2934,7 +2336,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>CG!$C$1:$H$1</c:f>
+              <c:f>CG!$B$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2960,615 +2362,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CG!$C$8:$H$8</c:f>
+              <c:f>CG!$B$8:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.9411244200072286</c:v>
+                  <c:v>1.8157079340567599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2266302409578032</c:v>
+                  <c:v>2.7770803795424501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4712342645078764</c:v>
+                  <c:v>3.2646066429399432</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5026085610769755</c:v>
+                  <c:v>3.4865606051763338</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1348294331313769</c:v>
+                  <c:v>4.1750955376128234</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2334067179567589</c:v>
+                  <c:v>3.3310774538398888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CG!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3500x3500</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>CG!$C$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>S(2)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>S(4)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>S(6)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>S(8)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>S(10)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>S(12)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CG!$C$9:$H$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.0144680765773293</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6019563158710679</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.8892530678395767</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.8053763711855044</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.5209421030900581</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.3608694106120653</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CG!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4000x4000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>CG!$C$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>S(2)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>S(4)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>S(6)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>S(8)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>S(10)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>S(12)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CG!$C$10:$H$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.8792922948953237</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.4006360819066481</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.4785860728661753</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5748460803998983</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.1672188572135225</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.8124397567688204</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CG!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4500x4500</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>CG!$C$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>S(2)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>S(4)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>S(6)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>S(8)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>S(10)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>S(12)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CG!$C$11:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.8514715718564996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.4678566546095575</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.4963052065269711</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.4593504901217864</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.2896946945036669</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.7764314253967086</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CG!$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5000x5000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>CG!$C$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>S(2)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>S(4)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>S(6)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>S(8)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>S(10)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>S(12)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CG!$C$12:$H$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.8912959707219106</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.1219146984170996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.5558488222373814</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.4594729796124151</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.1794825739875119</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.981554902191224</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CG!$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5500x5500</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>CG!$C$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>S(2)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>S(4)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>S(6)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>S(8)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>S(10)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>S(12)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CG!$C$13:$H$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.8600738088003435</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0166627003557585</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.5387345257264631</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5019025586679255</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.1581009633304271</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.9326371501323818</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CG!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>6000x6000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>CG!$C$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>S(2)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>S(4)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>S(6)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>S(8)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>S(10)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>S(12)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CG!$C$14:$H$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.7539771143256453</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8155979209781281</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.6022795308138118</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.4272686495078339</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.3388170861920354</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.9129762412273479</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CG!$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>6500x6500</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>CG!$C$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>S(2)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>S(4)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>S(6)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>S(8)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>S(10)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>S(12)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CG!$C$15:$H$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.2394217061947619</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.178372640758214</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.3470929870754631</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6042832555021844</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.3403235051790627</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.6253344035495303</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-CE0C-44F1-906C-A82F865C4E10}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3579,11 +2403,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="701466752"/>
-        <c:axId val="701469472"/>
+        <c:axId val="701468384"/>
+        <c:axId val="701462400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="701466752"/>
+        <c:axId val="701468384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3637,10 +2461,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="kk-KZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="701469472"/>
+        <c:crossAx val="701462400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3648,7 +2472,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="701469472"/>
+        <c:axId val="701462400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -3697,10 +2521,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="kk-KZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="701466752"/>
+        <c:crossAx val="701468384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
@@ -3715,7 +2539,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.83841223964060196"/>
+          <c:y val="0.10465781329572606"/>
+          <c:w val="0.14326715260889941"/>
+          <c:h val="0.58898790652632549"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3741,7 +2574,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="kk-KZ"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3771,7 +2604,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="kk-KZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5455,15 +4288,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1140280</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>159202</xdr:rowOff>
+      <xdr:colOff>378280</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>140152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>348344</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>87086</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>405848</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5497,8 +4330,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>36195</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5527,19 +4360,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5822,730 +4655,423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="2" customWidth="1"/>
+    <col min="2" max="15" width="5.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="B3" s="3">
+        <v>1.475E-3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5.078E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3.8210000000000002E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>7.045E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>7.8949999999999992E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>8.3820000000000006E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>9.7719999999999994E-3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2.3900000000000002E-3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3.3340000000000002E-3</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1.6770000000000001E-3</v>
+      </c>
+      <c r="L3" s="3">
+        <v>2.3140000000000001E-3</v>
+      </c>
+      <c r="M3" s="3">
+        <v>3.3279999999999998E-3</v>
+      </c>
+      <c r="N3" s="3">
+        <v>4.8149999999999998E-3</v>
+      </c>
+      <c r="O3" s="3">
+        <v>5.476E-3</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2.4130000000000002E-3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3.6970000000000002E-3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5.9100000000000003E-3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4.6839999999999998E-3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>6.4019999999999997E-3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>5.6090000000000003E-3</v>
-      </c>
-      <c r="H2" s="1">
-        <v>5.3959999999999998E-3</v>
-      </c>
-      <c r="I2" s="1">
-        <v>9.0109999999999999E-3</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2.735E-3</v>
-      </c>
-      <c r="K2" s="1">
-        <v>3.039E-3</v>
-      </c>
-      <c r="L2" s="1">
-        <v>3.4919999999999999E-3</v>
-      </c>
-      <c r="M2" s="1">
-        <v>3.117E-3</v>
-      </c>
-      <c r="N2" s="1">
-        <v>4.5310000000000003E-3</v>
-      </c>
-      <c r="O2" s="1">
-        <v>4.3059999999999999E-3</v>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.210065</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.120529</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.14172799999999999</v>
+      </c>
+      <c r="E4" s="3">
+        <v>8.7563000000000002E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.12758700000000001</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.10151300000000001</v>
+      </c>
+      <c r="H4" s="3">
+        <v>9.3654000000000001E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>8.7085999999999997E-2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4.2553000000000001E-2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2.0736999999999998E-2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>2.0865000000000002E-2</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1.9022000000000001E-2</v>
+      </c>
+      <c r="N4" s="3">
+        <v>2.7014E-2</v>
+      </c>
+      <c r="O4" s="3">
+        <v>2.5828E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.181258</v>
-      </c>
-      <c r="C3" s="1">
-        <v>8.0597000000000002E-2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6.2786999999999996E-2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>6.5229999999999996E-2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>6.5032000000000006E-2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>6.1654E-2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>6.3940999999999998E-2</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.78839499999999996</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.36210100000000001</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.20902299999999999</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0.24827399999999999</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.19878499999999999</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0.161742</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0.18918299999999999</v>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.2059329999999999</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.63442399999999999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.41521400000000003</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.373776</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.33269100000000001</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.30884899999999998</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.333401</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.34353</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.17610200000000001</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.136266</v>
+      </c>
+      <c r="L5" s="3">
+        <v>9.2998999999999998E-2</v>
+      </c>
+      <c r="M5" s="3">
+        <v>8.5126999999999994E-2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>8.0061999999999994E-2</v>
+      </c>
+      <c r="O5" s="3">
+        <v>8.4753999999999996E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1.207951</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.64193500000000003</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.38130999999999998</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.32367800000000002</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.31718800000000003</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.31125199999999997</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.306091</v>
-      </c>
-      <c r="I4" s="1">
-        <v>6.5381929999999997</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3.3588439999999999</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1.8849469999999999</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1.516319</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1.7038629999999999</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1.4125190000000001</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1.650066</v>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3.718928</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2.0737930000000002</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.2478009999999999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.0506120000000001</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.0129779999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.94453900000000002</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.95143699999999998</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.64615999999999996</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.33577200000000001</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.220024</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.18057799999999999</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.165404</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.13441900000000001</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.18243500000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4.0654909999999997</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2.007959</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.2396879999999999</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.98858199999999996</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.99019699999999999</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.96146299999999996</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.94168200000000002</v>
-      </c>
-      <c r="I5" s="1">
-        <v>22.277898</v>
-      </c>
-      <c r="J5" s="1">
-        <v>13.286588</v>
-      </c>
-      <c r="K5" s="1">
-        <v>6.8725350000000001</v>
-      </c>
-      <c r="L5" s="1">
-        <v>5.7105829999999997</v>
-      </c>
-      <c r="M5" s="1">
-        <v>6.633051</v>
-      </c>
-      <c r="N5" s="1">
-        <v>5.1759899999999996</v>
-      </c>
-      <c r="O5" s="1">
-        <v>7.0748610000000003</v>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>8.8584300000000002</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4.8140270000000003</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.9125450000000002</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.3876780000000002</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2.3636870000000001</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2.2369349999999999</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2.250397</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.745131</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.98300399999999999</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.57764499999999996</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.50261999999999996</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.489846</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.450299</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.52868000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1">
-        <v>9.8244959999999999</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5.6130329999999997</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3.0511560000000002</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2.4477859999999998</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2.476226</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2.3892910000000001</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2.365739</v>
-      </c>
-      <c r="I6" s="1">
-        <v>57.832872999999999</v>
-      </c>
-      <c r="J6" s="1">
-        <v>30.175215000000001</v>
-      </c>
-      <c r="K6" s="1">
-        <v>18.130358999999999</v>
-      </c>
-      <c r="L6" s="1">
-        <v>14.913275000000001</v>
-      </c>
-      <c r="M6" s="1">
-        <v>16.440103000000001</v>
-      </c>
-      <c r="N6" s="1">
-        <v>13.527668999999999</v>
-      </c>
-      <c r="O6" s="1">
-        <v>16.532892</v>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>17.326756</v>
+      </c>
+      <c r="C8" s="3">
+        <v>9.2726880000000005</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5.6957930000000001</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.713355</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.7293260000000004</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4.3417940000000002</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4.4057940000000002</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2.965649</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1.6430659999999999</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.99260300000000001</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.85187400000000002</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.80590899999999999</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.69996999999999998</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.87373199999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1">
-        <v>19.539286000000001</v>
-      </c>
-      <c r="C7" s="1">
-        <v>10.250208000000001</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5.8330080000000004</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4.5836069999999998</v>
-      </c>
-      <c r="F7" s="1">
-        <v>4.6207500000000001</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4.5563200000000004</v>
-      </c>
-      <c r="H7" s="1">
-        <v>4.4971490000000003</v>
-      </c>
-      <c r="I7" s="1">
-        <v>114.741939</v>
-      </c>
-      <c r="J7" s="1">
-        <v>61.389946999999999</v>
-      </c>
-      <c r="K7" s="1">
-        <v>36.282778999999998</v>
-      </c>
-      <c r="L7" s="1">
-        <v>31.095600000000001</v>
-      </c>
-      <c r="M7" s="1">
-        <v>34.067653999999997</v>
-      </c>
-      <c r="N7" s="1">
-        <v>27.842565</v>
-      </c>
-      <c r="O7" s="1">
-        <v>37.074021999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="1">
-        <v>35.40493</v>
-      </c>
-      <c r="C8" s="1">
-        <v>18.016938</v>
-      </c>
-      <c r="D8" s="1">
-        <v>10.434282</v>
-      </c>
-      <c r="E8" s="1">
-        <v>8.3781330000000001</v>
-      </c>
-      <c r="F8" s="1">
-        <v>8.4453150000000008</v>
-      </c>
-      <c r="G8" s="1">
-        <v>8.3169190000000004</v>
-      </c>
-      <c r="H8" s="1">
-        <v>8.3631069999999994</v>
-      </c>
-      <c r="I8" s="1">
-        <v>206.316068</v>
-      </c>
-      <c r="J8" s="1">
-        <v>106.286885</v>
-      </c>
-      <c r="K8" s="1">
-        <v>63.941651999999998</v>
-      </c>
-      <c r="L8" s="1">
-        <v>59.435938999999998</v>
-      </c>
-      <c r="M8" s="1">
-        <v>58.903547000000003</v>
-      </c>
-      <c r="N8" s="1">
-        <v>49.897117000000001</v>
-      </c>
-      <c r="O8" s="1">
-        <v>63.807645000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1">
-        <v>53.709325</v>
-      </c>
-      <c r="C9" s="1">
-        <v>26.663046999999999</v>
-      </c>
-      <c r="D9" s="1">
-        <v>14.796476</v>
-      </c>
-      <c r="E9" s="1">
-        <v>10.832852000000001</v>
-      </c>
-      <c r="F9" s="1">
-        <v>11.126899</v>
-      </c>
-      <c r="G9" s="1">
-        <v>11.194623</v>
-      </c>
-      <c r="H9" s="1">
-        <v>11.526899999999999</v>
-      </c>
-      <c r="I9" s="1">
-        <v>293.075289</v>
-      </c>
-      <c r="J9" s="1">
-        <v>145.48519899999999</v>
-      </c>
-      <c r="K9" s="1">
-        <v>112.63651400000001</v>
-      </c>
-      <c r="L9" s="1">
-        <v>59.942753000000003</v>
-      </c>
-      <c r="M9" s="1">
-        <v>77.016110999999995</v>
-      </c>
-      <c r="N9" s="1">
-        <v>64.826154000000002</v>
-      </c>
-      <c r="O9" s="1">
-        <v>54.669358000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1">
-        <v>65.554631000000001</v>
-      </c>
-      <c r="C10" s="1">
-        <v>35.266029000000003</v>
-      </c>
-      <c r="D10" s="1">
-        <v>19.371013000000001</v>
-      </c>
-      <c r="E10" s="1">
-        <v>14.201798</v>
-      </c>
-      <c r="F10" s="1">
-        <v>14.656592</v>
-      </c>
-      <c r="G10" s="1">
-        <v>14.305438000000001</v>
-      </c>
-      <c r="H10" s="1">
-        <v>13.81941</v>
-      </c>
-      <c r="I10" s="1">
-        <v>411.58971400000001</v>
-      </c>
-      <c r="J10" s="1">
-        <v>219.01314400000001</v>
-      </c>
-      <c r="K10" s="1">
-        <v>121.03315499999999</v>
-      </c>
-      <c r="L10" s="1">
-        <v>91.901708999999997</v>
-      </c>
-      <c r="M10" s="1">
-        <v>115.134947</v>
-      </c>
-      <c r="N10" s="1">
-        <v>98.768441999999993</v>
-      </c>
-      <c r="O10" s="1">
-        <v>85.526206000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1">
-        <v>98.951352999999997</v>
-      </c>
-      <c r="C11" s="1">
-        <v>49.945042999999998</v>
-      </c>
-      <c r="D11" s="1">
-        <v>27.425673</v>
-      </c>
-      <c r="E11" s="1">
-        <v>20.416274999999999</v>
-      </c>
-      <c r="F11" s="1">
-        <v>21.047476</v>
-      </c>
-      <c r="G11" s="1">
-        <v>20.974813999999999</v>
-      </c>
-      <c r="H11" s="1">
-        <v>20.251085</v>
-      </c>
-      <c r="I11" s="1">
-        <v>583.762562</v>
-      </c>
-      <c r="J11" s="1">
-        <v>315.29653000000002</v>
-      </c>
-      <c r="K11" s="1">
-        <v>168.335263</v>
-      </c>
-      <c r="L11" s="1">
-        <v>129.831614</v>
-      </c>
-      <c r="M11" s="1">
-        <v>168.74918099999999</v>
-      </c>
-      <c r="N11" s="1">
-        <v>136.08487400000001</v>
-      </c>
-      <c r="O11" s="1">
-        <v>122.217302</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="1">
-        <v>133.10032899999999</v>
-      </c>
-      <c r="C12" s="1">
-        <v>66.575562000000005</v>
-      </c>
-      <c r="D12" s="1">
-        <v>37.993253000000003</v>
-      </c>
-      <c r="E12" s="1">
-        <v>28.075668</v>
-      </c>
-      <c r="F12" s="1">
-        <v>28.460021999999999</v>
-      </c>
-      <c r="G12" s="1">
-        <v>28.438734</v>
-      </c>
-      <c r="H12" s="1">
-        <v>27.664811</v>
-      </c>
-      <c r="I12" s="1">
-        <v>812.65298700000005</v>
-      </c>
-      <c r="J12" s="1">
-        <v>429.68049400000001</v>
-      </c>
-      <c r="K12" s="1">
-        <v>260.30595499999998</v>
-      </c>
-      <c r="L12" s="1">
-        <v>178.37575799999999</v>
-      </c>
-      <c r="M12" s="1">
-        <v>234.906586</v>
-      </c>
-      <c r="N12" s="1">
-        <v>194.438659</v>
-      </c>
-      <c r="O12" s="1">
-        <v>163.132396</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="1">
-        <v>177.68724399999999</v>
-      </c>
-      <c r="C13" s="1">
-        <v>90.671932999999996</v>
-      </c>
-      <c r="D13" s="1">
-        <v>50.193390000000001</v>
-      </c>
-      <c r="E13" s="1">
-        <v>37.606099</v>
-      </c>
-      <c r="F13" s="1">
-        <v>38.687840000000001</v>
-      </c>
-      <c r="G13" s="1">
-        <v>38.479123000000001</v>
-      </c>
-      <c r="H13" s="1">
-        <v>37.088304000000001</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1114.021628</v>
-      </c>
-      <c r="J13" s="1">
-        <v>598.91259300000002</v>
-      </c>
-      <c r="K13" s="1">
-        <v>369.289423</v>
-      </c>
-      <c r="L13" s="1">
-        <v>245.44762900000001</v>
-      </c>
-      <c r="M13" s="1">
-        <v>318.118968</v>
-      </c>
-      <c r="N13" s="1">
-        <v>267.91596399999997</v>
-      </c>
-      <c r="O13" s="1">
-        <v>225.84706600000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="1">
-        <v>225.46875299999999</v>
-      </c>
-      <c r="C14" s="1">
-        <v>116.143107</v>
-      </c>
-      <c r="D14" s="1">
-        <v>65.905417999999997</v>
-      </c>
-      <c r="E14" s="1">
-        <v>48.594647000000002</v>
-      </c>
-      <c r="F14" s="1">
-        <v>50.367469</v>
-      </c>
-      <c r="G14" s="1">
-        <v>50.201571000000001</v>
-      </c>
-      <c r="H14" s="1">
-        <v>49.322352000000002</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1454.705676</v>
-      </c>
-      <c r="J14" s="1">
-        <v>829.37551699999995</v>
-      </c>
-      <c r="K14" s="1">
-        <v>801.22677999999996</v>
-      </c>
-      <c r="L14" s="1">
-        <v>316.08372900000001</v>
-      </c>
-      <c r="M14" s="1">
-        <v>424.45043700000002</v>
-      </c>
-      <c r="N14" s="1">
-        <v>335.27702299999999</v>
-      </c>
-      <c r="O14" s="1">
-        <v>296.09458799999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="1">
-        <v>294.43813799999998</v>
-      </c>
-      <c r="C15" s="1">
-        <v>150.032566</v>
-      </c>
-      <c r="D15" s="1">
-        <v>83.663387999999998</v>
-      </c>
-      <c r="E15" s="1">
-        <v>62.001111000000002</v>
-      </c>
-      <c r="F15" s="1">
-        <v>64.991906999999998</v>
-      </c>
-      <c r="G15" s="1">
-        <v>64.016604000000001</v>
-      </c>
-      <c r="H15" s="1">
-        <v>61.591087000000002</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1882.174031</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1518.590502</v>
-      </c>
-      <c r="K15" s="1">
-        <v>592.18167400000004</v>
-      </c>
-      <c r="L15" s="1">
-        <v>432.97303199999999</v>
-      </c>
-      <c r="M15" s="1">
-        <v>522.20480399999997</v>
-      </c>
-      <c r="N15" s="1">
-        <v>433.64832799999999</v>
-      </c>
-      <c r="O15" s="1">
-        <v>406.92712499999999</v>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
+        <v>30.104293999999999</v>
+      </c>
+      <c r="C9" s="3">
+        <v>16.190200000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <v>9.7959549999999993</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8.1597270000000002</v>
+      </c>
+      <c r="F9" s="3">
+        <v>8.0404929999999997</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7.7626989999999996</v>
+      </c>
+      <c r="H9" s="3">
+        <v>7.6869930000000002</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5.6155869999999997</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3.092781</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2.022119</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.7201420000000001</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1.610638</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1.3450200000000001</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1.6858169999999999</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:O2">
+  <mergeCells count="3">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:O3">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -6555,7 +5081,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:O3">
+  <conditionalFormatting sqref="B4:O4">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -6565,7 +5091,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:O4">
+  <conditionalFormatting sqref="B5:O5">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -6575,7 +5101,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:O5">
+  <conditionalFormatting sqref="B6:O6">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -6585,7 +5111,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:O6">
+  <conditionalFormatting sqref="B7:O7">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -6595,7 +5121,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:O7">
+  <conditionalFormatting sqref="B8:O8">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -6605,7 +5131,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:O8">
+  <conditionalFormatting sqref="B9:O9">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -6615,599 +5141,295 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:O9">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="9"/>
-        <color theme="5"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:O10">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="9"/>
-        <color theme="5"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:O11">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="9"/>
-        <color theme="5"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:O12">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="9"/>
-        <color theme="5"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:O13">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="9"/>
-        <color theme="5"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:O14">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="9"/>
-        <color theme="5"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:O15">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="9"/>
-        <color theme="5"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
-        <f>Лист1!A2</f>
+        <f>Лист1!A3</f>
         <v>100x100</v>
       </c>
       <c r="B2" s="1">
-        <f>Лист1!B2/Лист1!$B2</f>
+        <f>Лист1!$B3/Лист1!C3</f>
+        <v>0.29046868846002361</v>
+      </c>
+      <c r="C2" s="1">
+        <f>Лист1!$B3/Лист1!D3</f>
+        <v>0.38602460088981938</v>
+      </c>
+      <c r="D2" s="1">
+        <f>Лист1!$B3/Лист1!E3</f>
+        <v>0.20936834634492546</v>
+      </c>
+      <c r="E2" s="1">
+        <f>Лист1!$B3/Лист1!F3</f>
+        <v>0.18682710576314124</v>
+      </c>
+      <c r="F2" s="1">
+        <f>Лист1!$B3/Лист1!G3</f>
+        <v>0.17597232164161297</v>
+      </c>
+      <c r="G2" s="1">
+        <f>Лист1!$B3/Лист1!H3</f>
+        <v>0.15094146541137946</v>
+      </c>
+      <c r="H2" s="1">
+        <f>Лист1!B3/Лист1!$B3</f>
         <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <f>Лист1!$B2/Лист1!C2</f>
-        <v>0.65269137138220179</v>
-      </c>
-      <c r="D2" s="1">
-        <f>Лист1!$B2/Лист1!D2</f>
-        <v>0.40829103214890017</v>
-      </c>
-      <c r="E2" s="1">
-        <f>Лист1!$B2/Лист1!E2</f>
-        <v>0.51515798462852269</v>
-      </c>
-      <c r="F2" s="1">
-        <f>Лист1!$B2/Лист1!F2</f>
-        <v>0.37691346454233055</v>
-      </c>
-      <c r="G2" s="1">
-        <f>Лист1!$B2/Лист1!G2</f>
-        <v>0.43020146193617403</v>
-      </c>
-      <c r="H2" s="1">
-        <f>Лист1!$B2/Лист1!H2</f>
-        <v>0.44718309859154937</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
-        <f>Лист1!A3</f>
+        <f>Лист1!A4</f>
         <v>500x500</v>
       </c>
       <c r="B3" s="1">
-        <f>Лист1!B3/Лист1!$B3</f>
+        <f>Лист1!$B4/Лист1!C4</f>
+        <v>1.7428585651585926</v>
+      </c>
+      <c r="C3" s="1">
+        <f>Лист1!$B4/Лист1!D4</f>
+        <v>1.4821700722510727</v>
+      </c>
+      <c r="D3" s="1">
+        <f>Лист1!$B4/Лист1!E4</f>
+        <v>2.3990155659353838</v>
+      </c>
+      <c r="E3" s="1">
+        <f>Лист1!$B4/Лист1!F4</f>
+        <v>1.6464451707462358</v>
+      </c>
+      <c r="F3" s="1">
+        <f>Лист1!$B4/Лист1!G4</f>
+        <v>2.0693408725975981</v>
+      </c>
+      <c r="G3" s="1">
+        <f>Лист1!$B4/Лист1!H4</f>
+        <v>2.2429901552523117</v>
+      </c>
+      <c r="H3" s="1">
+        <f>Лист1!B4/Лист1!$B4</f>
         <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <f>Лист1!$B3/Лист1!C3</f>
-        <v>2.2489422683226423</v>
-      </c>
-      <c r="D3" s="1">
-        <f>Лист1!$B3/Лист1!D3</f>
-        <v>2.8868714861356652</v>
-      </c>
-      <c r="E3" s="1">
-        <f>Лист1!$B3/Лист1!E3</f>
-        <v>2.7787521079258011</v>
-      </c>
-      <c r="F3" s="1">
-        <f>Лист1!$B3/Лист1!F3</f>
-        <v>2.7872124492557506</v>
-      </c>
-      <c r="G3" s="1">
-        <f>Лист1!$B3/Лист1!G3</f>
-        <v>2.9399227949524769</v>
-      </c>
-      <c r="H3" s="1">
-        <f>Лист1!$B3/Лист1!H3</f>
-        <v>2.8347695531818395</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
-        <f>Лист1!A4</f>
+        <f>Лист1!A5</f>
         <v>1000x1000</v>
       </c>
       <c r="B4" s="1">
-        <f>Лист1!B4/Лист1!$B4</f>
+        <f>Лист1!$B5/Лист1!C5</f>
+        <v>1.9008313052469641</v>
+      </c>
+      <c r="C4" s="1">
+        <f>Лист1!$B5/Лист1!D5</f>
+        <v>2.9043649780595064</v>
+      </c>
+      <c r="D4" s="1">
+        <f>Лист1!$B5/Лист1!E5</f>
+        <v>3.2263521467402936</v>
+      </c>
+      <c r="E4" s="1">
+        <f>Лист1!$B5/Лист1!F5</f>
+        <v>3.6247839586883921</v>
+      </c>
+      <c r="F4" s="1">
+        <f>Лист1!$B5/Лист1!G5</f>
+        <v>3.9046038679095609</v>
+      </c>
+      <c r="G4" s="1">
+        <f>Лист1!$B5/Лист1!H5</f>
+        <v>3.6170647358586203</v>
+      </c>
+      <c r="H4" s="1">
+        <f>Лист1!B5/Лист1!$B5</f>
         <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <f>Лист1!$B4/Лист1!C4</f>
-        <v>1.8817341319604008</v>
-      </c>
-      <c r="D4" s="1">
-        <f>Лист1!$B4/Лист1!D4</f>
-        <v>3.1678975112113505</v>
-      </c>
-      <c r="E4" s="1">
-        <f>Лист1!$B4/Лист1!E4</f>
-        <v>3.7319527431583239</v>
-      </c>
-      <c r="F4" s="1">
-        <f>Лист1!$B4/Лист1!F4</f>
-        <v>3.808312420394214</v>
-      </c>
-      <c r="G4" s="1">
-        <f>Лист1!$B4/Лист1!G4</f>
-        <v>3.8809421304923344</v>
-      </c>
-      <c r="H4" s="1">
-        <f>Лист1!$B4/Лист1!H4</f>
-        <v>3.9463786913042198</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
-        <f>Лист1!A5</f>
+        <f>Лист1!A6</f>
         <v>1500x1500</v>
       </c>
       <c r="B5" s="1">
-        <f>Лист1!B5/Лист1!$B5</f>
+        <f>Лист1!$B6/Лист1!C6</f>
+        <v>1.7932975952759025</v>
+      </c>
+      <c r="C5" s="1">
+        <f>Лист1!$B6/Лист1!D6</f>
+        <v>2.9803854941613288</v>
+      </c>
+      <c r="D5" s="1">
+        <f>Лист1!$B6/Лист1!E6</f>
+        <v>3.5397730084940964</v>
+      </c>
+      <c r="E5" s="1">
+        <f>Лист1!$B6/Лист1!F6</f>
+        <v>3.6712821008945902</v>
+      </c>
+      <c r="F5" s="1">
+        <f>Лист1!$B6/Лист1!G6</f>
+        <v>3.9372942779493489</v>
+      </c>
+      <c r="G5" s="1">
+        <f>Лист1!$B6/Лист1!H6</f>
+        <v>3.9087485561314099</v>
+      </c>
+      <c r="H5" s="1">
+        <f>Лист1!B6/Лист1!$B6</f>
         <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <f>Лист1!$B5/Лист1!C5</f>
-        <v>2.0246882530968011</v>
-      </c>
-      <c r="D5" s="1">
-        <f>Лист1!$B5/Лист1!D5</f>
-        <v>3.2794469253554119</v>
-      </c>
-      <c r="E5" s="1">
-        <f>Лист1!$B5/Лист1!E5</f>
-        <v>4.1124469189202308</v>
-      </c>
-      <c r="F5" s="1">
-        <f>Лист1!$B5/Лист1!F5</f>
-        <v>4.1057395649552557</v>
-      </c>
-      <c r="G5" s="1">
-        <f>Лист1!$B5/Лист1!G5</f>
-        <v>4.2284424881664711</v>
-      </c>
-      <c r="H5" s="1">
-        <f>Лист1!$B5/Лист1!H5</f>
-        <v>4.3172652763884196</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
-        <f>Лист1!A6</f>
+        <f>Лист1!A7</f>
         <v>2000x2000</v>
       </c>
       <c r="B6" s="1">
-        <f>Лист1!B6/Лист1!$B6</f>
+        <f>Лист1!$B7/Лист1!C7</f>
+        <v>1.8401288567762499</v>
+      </c>
+      <c r="C6" s="1">
+        <f>Лист1!$B7/Лист1!D7</f>
+        <v>3.0414740373110116</v>
+      </c>
+      <c r="D6" s="1">
+        <f>Лист1!$B7/Лист1!E7</f>
+        <v>3.7100605693062465</v>
+      </c>
+      <c r="E6" s="1">
+        <f>Лист1!$B7/Лист1!F7</f>
+        <v>3.7477170200623009</v>
+      </c>
+      <c r="F6" s="1">
+        <f>Лист1!$B7/Лист1!G7</f>
+        <v>3.9600748345392249</v>
+      </c>
+      <c r="G6" s="1">
+        <f>Лист1!$B7/Лист1!H7</f>
+        <v>3.9363854466567454</v>
+      </c>
+      <c r="H6" s="1">
+        <f>Лист1!B7/Лист1!$B7</f>
         <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <f>Лист1!$B6/Лист1!C6</f>
-        <v>1.7503007732183296</v>
-      </c>
-      <c r="D6" s="1">
-        <f>Лист1!$B6/Лист1!D6</f>
-        <v>3.219925824834915</v>
-      </c>
-      <c r="E6" s="1">
-        <f>Лист1!$B6/Лист1!E6</f>
-        <v>4.0136253741135874</v>
-      </c>
-      <c r="F6" s="1">
-        <f>Лист1!$B6/Лист1!F6</f>
-        <v>3.9675280043097843</v>
-      </c>
-      <c r="G6" s="1">
-        <f>Лист1!$B6/Лист1!G6</f>
-        <v>4.1118875850618446</v>
-      </c>
-      <c r="H6" s="1">
-        <f>Лист1!$B6/Лист1!H6</f>
-        <v>4.1528232827036282</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
-        <f>Лист1!A7</f>
+        <f>Лист1!A8</f>
         <v>2500x2500</v>
       </c>
       <c r="B7" s="1">
-        <f>Лист1!B7/Лист1!$B7</f>
+        <f>Лист1!$B8/Лист1!C8</f>
+        <v>1.8685796394745513</v>
+      </c>
+      <c r="C7" s="1">
+        <f>Лист1!$B8/Лист1!D8</f>
+        <v>3.0420269837755689</v>
+      </c>
+      <c r="D7" s="1">
+        <f>Лист1!$B8/Лист1!E8</f>
+        <v>3.6760982357577565</v>
+      </c>
+      <c r="E7" s="1">
+        <f>Лист1!$B8/Лист1!F8</f>
+        <v>3.6636840006377227</v>
+      </c>
+      <c r="F7" s="1">
+        <f>Лист1!$B8/Лист1!G8</f>
+        <v>3.990690484163919</v>
+      </c>
+      <c r="G7" s="1">
+        <f>Лист1!$B8/Лист1!H8</f>
+        <v>3.9327204131650273</v>
+      </c>
+      <c r="H7" s="1">
+        <f>Лист1!B8/Лист1!$B8</f>
         <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <f>Лист1!$B7/Лист1!C7</f>
-        <v>1.9062331222937134</v>
-      </c>
-      <c r="D7" s="1">
-        <f>Лист1!$B7/Лист1!D7</f>
-        <v>3.34977870765821</v>
-      </c>
-      <c r="E7" s="1">
-        <f>Лист1!$B7/Лист1!E7</f>
-        <v>4.2628624138151467</v>
-      </c>
-      <c r="F7" s="1">
-        <f>Лист1!$B7/Лист1!F7</f>
-        <v>4.2285962235567816</v>
-      </c>
-      <c r="G7" s="1">
-        <f>Лист1!$B7/Лист1!G7</f>
-        <v>4.288391947887769</v>
-      </c>
-      <c r="H7" s="1">
-        <f>Лист1!$B7/Лист1!H7</f>
-        <v>4.3448162380210213</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
-        <f>Лист1!A8</f>
+        <f>Лист1!A9</f>
         <v>3000x3000</v>
       </c>
       <c r="B8" s="1">
-        <f>Лист1!B8/Лист1!$B8</f>
-        <v>1</v>
+        <f>Лист1!$B9/Лист1!C9</f>
+        <v>1.8594145841311409</v>
       </c>
       <c r="C8" s="1">
-        <f>Лист1!$B8/Лист1!C8</f>
-        <v>1.9650914045438799</v>
+        <f>Лист1!$B9/Лист1!D9</f>
+        <v>3.0731351869215406</v>
       </c>
       <c r="D8" s="1">
-        <f>Лист1!$B8/Лист1!D8</f>
-        <v>3.3931352439966642</v>
+        <f>Лист1!$B9/Лист1!E9</f>
+        <v>3.6893751469871479</v>
       </c>
       <c r="E8" s="1">
-        <f>Лист1!$B8/Лист1!E8</f>
-        <v>4.2258734732427854</v>
+        <f>Лист1!$B9/Лист1!F9</f>
+        <v>3.7440855927615386</v>
       </c>
       <c r="F8" s="1">
-        <f>Лист1!$B8/Лист1!F8</f>
-        <v>4.1922568903587374</v>
+        <f>Лист1!$B9/Лист1!G9</f>
+        <v>3.8780705009945642</v>
       </c>
       <c r="G8" s="1">
-        <f>Лист1!$B8/Лист1!G8</f>
-        <v>4.2569766520510779</v>
+        <f>Лист1!$B9/Лист1!H9</f>
+        <v>3.9162640059643605</v>
       </c>
       <c r="H8" s="1">
-        <f>Лист1!$B8/Лист1!H8</f>
-        <v>4.23346610296867</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="str">
-        <f>Лист1!A9</f>
-        <v>3500x3500</v>
-      </c>
-      <c r="B9" s="1">
         <f>Лист1!B9/Лист1!$B9</f>
         <v>1</v>
       </c>
-      <c r="C9" s="1">
-        <f>Лист1!$B9/Лист1!C9</f>
-        <v>2.0143731134704899</v>
-      </c>
-      <c r="D9" s="1">
-        <f>Лист1!$B9/Лист1!D9</f>
-        <v>3.6298727480786641</v>
-      </c>
-      <c r="E9" s="1">
-        <f>Лист1!$B9/Лист1!E9</f>
-        <v>4.9580041340913725</v>
-      </c>
-      <c r="F9" s="1">
-        <f>Лист1!$B9/Лист1!F9</f>
-        <v>4.8269805450736998</v>
-      </c>
-      <c r="G9" s="1">
-        <f>Лист1!$B9/Лист1!G9</f>
-        <v>4.7977788086298219</v>
-      </c>
-      <c r="H9" s="1">
-        <f>Лист1!$B9/Лист1!H9</f>
-        <v>4.6594769625831756</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="str">
-        <f>Лист1!A10</f>
-        <v>4000x4000</v>
-      </c>
-      <c r="B10" s="1">
-        <f>Лист1!B10/Лист1!$B10</f>
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <f>Лист1!$B10/Лист1!C10</f>
-        <v>1.8588605765622206</v>
-      </c>
-      <c r="D10" s="1">
-        <f>Лист1!$B10/Лист1!D10</f>
-        <v>3.3841612206857739</v>
-      </c>
-      <c r="E10" s="1">
-        <f>Лист1!$B10/Лист1!E10</f>
-        <v>4.6159388409833744</v>
-      </c>
-      <c r="F10" s="1">
-        <f>Лист1!$B10/Лист1!F10</f>
-        <v>4.4727062744190462</v>
-      </c>
-      <c r="G10" s="1">
-        <f>Лист1!$B10/Лист1!G10</f>
-        <v>4.5824972992787778</v>
-      </c>
-      <c r="H10" s="1">
-        <f>Лист1!$B10/Лист1!H10</f>
-        <v>4.7436635138547887</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="str">
-        <f>Лист1!A11</f>
-        <v>4500x4500</v>
-      </c>
-      <c r="B11" s="1">
-        <f>Лист1!B11/Лист1!$B11</f>
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <f>Лист1!$B11/Лист1!C11</f>
-        <v>1.9812046813134188</v>
-      </c>
-      <c r="D11" s="1">
-        <f>Лист1!$B11/Лист1!D11</f>
-        <v>3.6079826737524363</v>
-      </c>
-      <c r="E11" s="1">
-        <f>Лист1!$B11/Лист1!E11</f>
-        <v>4.8466898589483147</v>
-      </c>
-      <c r="F11" s="1">
-        <f>Лист1!$B11/Лист1!F11</f>
-        <v>4.7013405787943405</v>
-      </c>
-      <c r="G11" s="1">
-        <f>Лист1!$B11/Лист1!G11</f>
-        <v>4.7176271980290272</v>
-      </c>
-      <c r="H11" s="1">
-        <f>Лист1!$B11/Лист1!H11</f>
-        <v>4.8862247627719695</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="str">
-        <f>Лист1!A12</f>
-        <v>5000x5000</v>
-      </c>
-      <c r="B12" s="1">
-        <f>Лист1!B12/Лист1!$B12</f>
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <f>Лист1!$B12/Лист1!C12</f>
-        <v>1.9992370323513</v>
-      </c>
-      <c r="D12" s="1">
-        <f>Лист1!$B12/Лист1!D12</f>
-        <v>3.5032622502737518</v>
-      </c>
-      <c r="E12" s="1">
-        <f>Лист1!$B12/Лист1!E12</f>
-        <v>4.7407715819976213</v>
-      </c>
-      <c r="F12" s="1">
-        <f>Лист1!$B12/Лист1!F12</f>
-        <v>4.676747228094202</v>
-      </c>
-      <c r="G12" s="1">
-        <f>Лист1!$B12/Лист1!G12</f>
-        <v>4.6802480377642688</v>
-      </c>
-      <c r="H12" s="1">
-        <f>Лист1!$B12/Лист1!H12</f>
-        <v>4.811177961779677</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="str">
-        <f>Лист1!A13</f>
-        <v>5500x5500</v>
-      </c>
-      <c r="B13" s="1">
-        <f>Лист1!B13/Лист1!$B13</f>
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <f>Лист1!$B13/Лист1!C13</f>
-        <v>1.9596719527309514</v>
-      </c>
-      <c r="D13" s="1">
-        <f>Лист1!$B13/Лист1!D13</f>
-        <v>3.540052664305001</v>
-      </c>
-      <c r="E13" s="1">
-        <f>Лист1!$B13/Лист1!E13</f>
-        <v>4.7249581510701226</v>
-      </c>
-      <c r="F13" s="1">
-        <f>Лист1!$B13/Лист1!F13</f>
-        <v>4.5928447801686518</v>
-      </c>
-      <c r="G13" s="1">
-        <f>Лист1!$B13/Лист1!G13</f>
-        <v>4.6177571146826812</v>
-      </c>
-      <c r="H13" s="1">
-        <f>Лист1!$B13/Лист1!H13</f>
-        <v>4.7909239527372289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="str">
-        <f>Лист1!A14</f>
-        <v>6000x6000</v>
-      </c>
-      <c r="B14" s="1">
-        <f>Лист1!B14/Лист1!$B14</f>
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <f>Лист1!$B14/Лист1!C14</f>
-        <v>1.941301200078968</v>
-      </c>
-      <c r="D14" s="1">
-        <f>Лист1!$B14/Лист1!D14</f>
-        <v>3.4210958649863961</v>
-      </c>
-      <c r="E14" s="1">
-        <f>Лист1!$B14/Лист1!E14</f>
-        <v>4.6397857978060832</v>
-      </c>
-      <c r="F14" s="1">
-        <f>Лист1!$B14/Лист1!F14</f>
-        <v>4.4764757387352541</v>
-      </c>
-      <c r="G14" s="1">
-        <f>Лист1!$B14/Лист1!G14</f>
-        <v>4.4912688688567135</v>
-      </c>
-      <c r="H14" s="1">
-        <f>Лист1!$B14/Лист1!H14</f>
-        <v>4.5713301141843354</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="str">
-        <f>Лист1!A15</f>
-        <v>6500x6500</v>
-      </c>
-      <c r="B15" s="1">
-        <f>Лист1!B15/Лист1!$B15</f>
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <f>Лист1!$B15/Лист1!C15</f>
-        <v>1.962494849284921</v>
-      </c>
-      <c r="D15" s="1">
-        <f>Лист1!$B15/Лист1!D15</f>
-        <v>3.5193188447018184</v>
-      </c>
-      <c r="E15" s="1">
-        <f>Лист1!$B15/Лист1!E15</f>
-        <v>4.7489171282753304</v>
-      </c>
-      <c r="F15" s="1">
-        <f>Лист1!$B15/Лист1!F15</f>
-        <v>4.5303815750474898</v>
-      </c>
-      <c r="G15" s="1">
-        <f>Лист1!$B15/Лист1!G15</f>
-        <v>4.599402648725321</v>
-      </c>
-      <c r="H15" s="1">
-        <f>Лист1!$B15/Лист1!H15</f>
-        <v>4.7805316051655327</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:H15">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="B2:G8">
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="lessThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7223,522 +5445,284 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
-        <f>Лист1!A2</f>
+        <f>Лист1!A3</f>
         <v>100x100</v>
       </c>
       <c r="B2" s="1">
-        <f>Лист1!G2/Лист1!$G2</f>
+        <f>Лист1!$I3/Лист1!J3</f>
+        <v>0.71685662867426514</v>
+      </c>
+      <c r="C2" s="1">
+        <f>Лист1!$I3/Лист1!K3</f>
+        <v>1.4251639833035181</v>
+      </c>
+      <c r="D2" s="1">
+        <f>Лист1!$I3/Лист1!L3</f>
+        <v>1.0328435609334485</v>
+      </c>
+      <c r="E2" s="1">
+        <f>Лист1!$I3/Лист1!M3</f>
+        <v>0.71814903846153855</v>
+      </c>
+      <c r="F2" s="1">
+        <f>Лист1!$I3/Лист1!N3</f>
+        <v>0.49636552440290765</v>
+      </c>
+      <c r="G2" s="1">
+        <f>Лист1!$I3/Лист1!O3</f>
+        <v>0.43644996347699055</v>
+      </c>
+      <c r="H2" s="1">
+        <f>Лист1!G3/Лист1!$G3</f>
         <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <f>Лист1!$I2/Лист1!J2</f>
-        <v>3.2946983546617914</v>
-      </c>
-      <c r="D2" s="1">
-        <f>Лист1!$I2/Лист1!K2</f>
-        <v>2.9651201052977951</v>
-      </c>
-      <c r="E2" s="1">
-        <f>Лист1!$I2/Лист1!L2</f>
-        <v>2.5804696449026348</v>
-      </c>
-      <c r="F2" s="1">
-        <f>Лист1!$I2/Лист1!M2</f>
-        <v>2.8909207571382738</v>
-      </c>
-      <c r="G2" s="1">
-        <f>Лист1!$I2/Лист1!N2</f>
-        <v>1.9887442065769145</v>
-      </c>
-      <c r="H2" s="1">
-        <f>Лист1!$I2/Лист1!O2</f>
-        <v>2.0926614026939157</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
-        <f>Лист1!A3</f>
+        <f>Лист1!A4</f>
         <v>500x500</v>
       </c>
       <c r="B3" s="1">
-        <f>Лист1!G3/Лист1!$G3</f>
+        <f>Лист1!$I4/Лист1!J4</f>
+        <v>2.0465302093859421</v>
+      </c>
+      <c r="C3" s="1">
+        <f>Лист1!$I4/Лист1!K4</f>
+        <v>4.1995467039591068</v>
+      </c>
+      <c r="D3" s="1">
+        <f>Лист1!$I4/Лист1!L4</f>
+        <v>4.1737838485502028</v>
+      </c>
+      <c r="E3" s="1">
+        <f>Лист1!$I4/Лист1!M4</f>
+        <v>4.5781726422037634</v>
+      </c>
+      <c r="F3" s="1">
+        <f>Лист1!$I4/Лист1!N4</f>
+        <v>3.2237358406752055</v>
+      </c>
+      <c r="G3" s="1">
+        <f>Лист1!$I4/Лист1!O4</f>
+        <v>3.3717670744927983</v>
+      </c>
+      <c r="H3" s="1">
+        <f>Лист1!G4/Лист1!$G4</f>
         <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <f>Лист1!$I3/Лист1!J3</f>
-        <v>2.1772792673867234</v>
-      </c>
-      <c r="D3" s="1">
-        <f>Лист1!$I3/Лист1!K3</f>
-        <v>3.7718098008353147</v>
-      </c>
-      <c r="E3" s="1">
-        <f>Лист1!$I3/Лист1!L3</f>
-        <v>3.1755036773886913</v>
-      </c>
-      <c r="F3" s="1">
-        <f>Лист1!$I3/Лист1!M3</f>
-        <v>3.9660688683753804</v>
-      </c>
-      <c r="G3" s="1">
-        <f>Лист1!$I3/Лист1!N3</f>
-        <v>4.874398733785906</v>
-      </c>
-      <c r="H3" s="1">
-        <f>Лист1!$I3/Лист1!O3</f>
-        <v>4.1673670467219575</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
-        <f>Лист1!A4</f>
+        <f>Лист1!A5</f>
         <v>1000x1000</v>
       </c>
       <c r="B4" s="1">
-        <f>Лист1!G4/Лист1!$G4</f>
+        <f>Лист1!$I5/Лист1!J5</f>
+        <v>1.9507444549181723</v>
+      </c>
+      <c r="C4" s="1">
+        <f>Лист1!$I5/Лист1!K5</f>
+        <v>2.5210250539386201</v>
+      </c>
+      <c r="D4" s="1">
+        <f>Лист1!$I5/Лист1!L5</f>
+        <v>3.6939106872116905</v>
+      </c>
+      <c r="E4" s="1">
+        <f>Лист1!$I5/Лист1!M5</f>
+        <v>4.0354999001491896</v>
+      </c>
+      <c r="F4" s="1">
+        <f>Лист1!$I5/Лист1!N5</f>
+        <v>4.2907996302865286</v>
+      </c>
+      <c r="G4" s="1">
+        <f>Лист1!$I5/Лист1!O5</f>
+        <v>4.0532600231257527</v>
+      </c>
+      <c r="H4" s="1">
+        <f>Лист1!G5/Лист1!$G5</f>
         <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <f>Лист1!$I4/Лист1!J4</f>
-        <v>1.9465604833091386</v>
-      </c>
-      <c r="D4" s="1">
-        <f>Лист1!$I4/Лист1!K4</f>
-        <v>3.4686349271358825</v>
-      </c>
-      <c r="E4" s="1">
-        <f>Лист1!$I4/Лист1!L4</f>
-        <v>4.3118849002089927</v>
-      </c>
-      <c r="F4" s="1">
-        <f>Лист1!$I4/Лист1!M4</f>
-        <v>3.837276236411026</v>
-      </c>
-      <c r="G4" s="1">
-        <f>Лист1!$I4/Лист1!N4</f>
-        <v>4.6287469407491155</v>
-      </c>
-      <c r="H4" s="1">
-        <f>Лист1!$I4/Лист1!O4</f>
-        <v>3.9623827168125394</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
-        <f>Лист1!A5</f>
+        <f>Лист1!A6</f>
         <v>1500x1500</v>
       </c>
       <c r="B5" s="1">
-        <f>Лист1!G5/Лист1!$G5</f>
+        <f>Лист1!$I6/Лист1!J6</f>
+        <v>1.9244010816863821</v>
+      </c>
+      <c r="C5" s="1">
+        <f>Лист1!$I6/Лист1!K6</f>
+        <v>2.9367705341235499</v>
+      </c>
+      <c r="D5" s="1">
+        <f>Лист1!$I6/Лист1!L6</f>
+        <v>3.5782874990308895</v>
+      </c>
+      <c r="E5" s="1">
+        <f>Лист1!$I6/Лист1!M6</f>
+        <v>3.9065560687770549</v>
+      </c>
+      <c r="F5" s="1">
+        <f>Лист1!$I6/Лист1!N6</f>
+        <v>4.8070585259524314</v>
+      </c>
+      <c r="G5" s="1">
+        <f>Лист1!$I6/Лист1!O6</f>
+        <v>3.541864225614602</v>
+      </c>
+      <c r="H5" s="1">
+        <f>Лист1!G6/Лист1!$G6</f>
         <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <f>Лист1!$I5/Лист1!J5</f>
-        <v>1.6767207653311746</v>
-      </c>
-      <c r="D5" s="1">
-        <f>Лист1!$I5/Лист1!K5</f>
-        <v>3.2415837824034361</v>
-      </c>
-      <c r="E5" s="1">
-        <f>Лист1!$I5/Лист1!L5</f>
-        <v>3.9011600041536916</v>
-      </c>
-      <c r="F5" s="1">
-        <f>Лист1!$I5/Лист1!M5</f>
-        <v>3.3586200377473352</v>
-      </c>
-      <c r="G5" s="1">
-        <f>Лист1!$I5/Лист1!N5</f>
-        <v>4.3040844360209354</v>
-      </c>
-      <c r="H5" s="1">
-        <f>Лист1!$I5/Лист1!O5</f>
-        <v>3.1488813702488287</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
-        <f>Лист1!A6</f>
+        <f>Лист1!A7</f>
         <v>2000x2000</v>
       </c>
       <c r="B6" s="1">
-        <f>Лист1!G6/Лист1!$G6</f>
+        <f>Лист1!$I7/Лист1!J7</f>
+        <v>1.775304067938686</v>
+      </c>
+      <c r="C6" s="1">
+        <f>Лист1!$I7/Лист1!K7</f>
+        <v>3.0211133135403232</v>
+      </c>
+      <c r="D6" s="1">
+        <f>Лист1!$I7/Лист1!L7</f>
+        <v>3.4720683617842507</v>
+      </c>
+      <c r="E6" s="1">
+        <f>Лист1!$I7/Лист1!M7</f>
+        <v>3.5626115146392947</v>
+      </c>
+      <c r="F6" s="1">
+        <f>Лист1!$I7/Лист1!N7</f>
+        <v>3.8754938385383935</v>
+      </c>
+      <c r="G6" s="1">
+        <f>Лист1!$I7/Лист1!O7</f>
+        <v>3.3009211621396681</v>
+      </c>
+      <c r="H6" s="1">
+        <f>Лист1!G7/Лист1!$G7</f>
         <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <f>Лист1!$I6/Лист1!J6</f>
-        <v>1.9165687137606144</v>
-      </c>
-      <c r="D6" s="1">
-        <f>Лист1!$I6/Лист1!K6</f>
-        <v>3.1898360644706485</v>
-      </c>
-      <c r="E6" s="1">
-        <f>Лист1!$I6/Лист1!L6</f>
-        <v>3.8779458569630076</v>
-      </c>
-      <c r="F6" s="1">
-        <f>Лист1!$I6/Лист1!M6</f>
-        <v>3.5177926196691103</v>
-      </c>
-      <c r="G6" s="1">
-        <f>Лист1!$I6/Лист1!N6</f>
-        <v>4.2751543521651811</v>
-      </c>
-      <c r="H6" s="1">
-        <f>Лист1!$I6/Лист1!O6</f>
-        <v>3.4980494035768213</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
-        <f>Лист1!A7</f>
+        <f>Лист1!A8</f>
         <v>2500x2500</v>
       </c>
       <c r="B7" s="1">
-        <f>Лист1!G7/Лист1!$G7</f>
+        <f>Лист1!$I8/Лист1!J8</f>
+        <v>1.8049481883259713</v>
+      </c>
+      <c r="C7" s="1">
+        <f>Лист1!$I8/Лист1!K8</f>
+        <v>2.9877493821799854</v>
+      </c>
+      <c r="D7" s="1">
+        <f>Лист1!$I8/Лист1!L8</f>
+        <v>3.481323529066505</v>
+      </c>
+      <c r="E7" s="1">
+        <f>Лист1!$I8/Лист1!M8</f>
+        <v>3.6798807309510133</v>
+      </c>
+      <c r="F7" s="1">
+        <f>Лист1!$I8/Лист1!N8</f>
+        <v>4.2368230067002877</v>
+      </c>
+      <c r="G7" s="1">
+        <f>Лист1!$I8/Лист1!O8</f>
+        <v>3.394231869726644</v>
+      </c>
+      <c r="H7" s="1">
+        <f>Лист1!G8/Лист1!$G8</f>
         <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <f>Лист1!$I7/Лист1!J7</f>
-        <v>1.8690672432084035</v>
-      </c>
-      <c r="D7" s="1">
-        <f>Лист1!$I7/Лист1!K7</f>
-        <v>3.1624352423500968</v>
-      </c>
-      <c r="E7" s="1">
-        <f>Лист1!$I7/Лист1!L7</f>
-        <v>3.6899734689152162</v>
-      </c>
-      <c r="F7" s="1">
-        <f>Лист1!$I7/Лист1!M7</f>
-        <v>3.3680610646098499</v>
-      </c>
-      <c r="G7" s="1">
-        <f>Лист1!$I7/Лист1!N7</f>
-        <v>4.1210980022853496</v>
-      </c>
-      <c r="H7" s="1">
-        <f>Лист1!$I7/Лист1!O7</f>
-        <v>3.094941762725393</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
-        <f>Лист1!A8</f>
+        <f>Лист1!A9</f>
         <v>3000x3000</v>
       </c>
       <c r="B8" s="1">
-        <f>Лист1!G8/Лист1!$G8</f>
-        <v>1</v>
+        <f>Лист1!$I9/Лист1!J9</f>
+        <v>1.8157079340567599</v>
       </c>
       <c r="C8" s="1">
-        <f>Лист1!$I8/Лист1!J8</f>
-        <v>1.9411244200072286</v>
+        <f>Лист1!$I9/Лист1!K9</f>
+        <v>2.7770803795424501</v>
       </c>
       <c r="D8" s="1">
-        <f>Лист1!$I8/Лист1!K8</f>
-        <v>3.2266302409578032</v>
+        <f>Лист1!$I9/Лист1!L9</f>
+        <v>3.2646066429399432</v>
       </c>
       <c r="E8" s="1">
-        <f>Лист1!$I8/Лист1!L8</f>
-        <v>3.4712342645078764</v>
+        <f>Лист1!$I9/Лист1!M9</f>
+        <v>3.4865606051763338</v>
       </c>
       <c r="F8" s="1">
-        <f>Лист1!$I8/Лист1!M8</f>
-        <v>3.5026085610769755</v>
+        <f>Лист1!$I9/Лист1!N9</f>
+        <v>4.1750955376128234</v>
       </c>
       <c r="G8" s="1">
-        <f>Лист1!$I8/Лист1!N8</f>
-        <v>4.1348294331313769</v>
+        <f>Лист1!$I9/Лист1!O9</f>
+        <v>3.3310774538398888</v>
       </c>
       <c r="H8" s="1">
-        <f>Лист1!$I8/Лист1!O8</f>
-        <v>3.2334067179567589</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="str">
-        <f>Лист1!A9</f>
-        <v>3500x3500</v>
-      </c>
-      <c r="B9" s="1">
         <f>Лист1!G9/Лист1!$G9</f>
         <v>1</v>
       </c>
-      <c r="C9" s="1">
-        <f>Лист1!$I9/Лист1!J9</f>
-        <v>2.0144680765773293</v>
-      </c>
-      <c r="D9" s="1">
-        <f>Лист1!$I9/Лист1!K9</f>
-        <v>2.6019563158710679</v>
-      </c>
-      <c r="E9" s="1">
-        <f>Лист1!$I9/Лист1!L9</f>
-        <v>4.8892530678395767</v>
-      </c>
-      <c r="F9" s="1">
-        <f>Лист1!$I9/Лист1!M9</f>
-        <v>3.8053763711855044</v>
-      </c>
-      <c r="G9" s="1">
-        <f>Лист1!$I9/Лист1!N9</f>
-        <v>4.5209421030900581</v>
-      </c>
-      <c r="H9" s="1">
-        <f>Лист1!$I9/Лист1!O9</f>
-        <v>5.3608694106120653</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="str">
-        <f>Лист1!A10</f>
-        <v>4000x4000</v>
-      </c>
-      <c r="B10" s="1">
-        <f>Лист1!G10/Лист1!$G10</f>
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <f>Лист1!$I10/Лист1!J10</f>
-        <v>1.8792922948953237</v>
-      </c>
-      <c r="D10" s="1">
-        <f>Лист1!$I10/Лист1!K10</f>
-        <v>3.4006360819066481</v>
-      </c>
-      <c r="E10" s="1">
-        <f>Лист1!$I10/Лист1!L10</f>
-        <v>4.4785860728661753</v>
-      </c>
-      <c r="F10" s="1">
-        <f>Лист1!$I10/Лист1!M10</f>
-        <v>3.5748460803998983</v>
-      </c>
-      <c r="G10" s="1">
-        <f>Лист1!$I10/Лист1!N10</f>
-        <v>4.1672188572135225</v>
-      </c>
-      <c r="H10" s="1">
-        <f>Лист1!$I10/Лист1!O10</f>
-        <v>4.8124397567688204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="str">
-        <f>Лист1!A11</f>
-        <v>4500x4500</v>
-      </c>
-      <c r="B11" s="1">
-        <f>Лист1!G11/Лист1!$G11</f>
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <f>Лист1!$I11/Лист1!J11</f>
-        <v>1.8514715718564996</v>
-      </c>
-      <c r="D11" s="1">
-        <f>Лист1!$I11/Лист1!K11</f>
-        <v>3.4678566546095575</v>
-      </c>
-      <c r="E11" s="1">
-        <f>Лист1!$I11/Лист1!L11</f>
-        <v>4.4963052065269711</v>
-      </c>
-      <c r="F11" s="1">
-        <f>Лист1!$I11/Лист1!M11</f>
-        <v>3.4593504901217864</v>
-      </c>
-      <c r="G11" s="1">
-        <f>Лист1!$I11/Лист1!N11</f>
-        <v>4.2896946945036669</v>
-      </c>
-      <c r="H11" s="1">
-        <f>Лист1!$I11/Лист1!O11</f>
-        <v>4.7764314253967086</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="str">
-        <f>Лист1!A12</f>
-        <v>5000x5000</v>
-      </c>
-      <c r="B12" s="1">
-        <f>Лист1!G12/Лист1!$G12</f>
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <f>Лист1!$I12/Лист1!J12</f>
-        <v>1.8912959707219106</v>
-      </c>
-      <c r="D12" s="1">
-        <f>Лист1!$I12/Лист1!K12</f>
-        <v>3.1219146984170996</v>
-      </c>
-      <c r="E12" s="1">
-        <f>Лист1!$I12/Лист1!L12</f>
-        <v>4.5558488222373814</v>
-      </c>
-      <c r="F12" s="1">
-        <f>Лист1!$I12/Лист1!M12</f>
-        <v>3.4594729796124151</v>
-      </c>
-      <c r="G12" s="1">
-        <f>Лист1!$I12/Лист1!N12</f>
-        <v>4.1794825739875119</v>
-      </c>
-      <c r="H12" s="1">
-        <f>Лист1!$I12/Лист1!O12</f>
-        <v>4.981554902191224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="str">
-        <f>Лист1!A13</f>
-        <v>5500x5500</v>
-      </c>
-      <c r="B13" s="1">
-        <f>Лист1!G13/Лист1!$G13</f>
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <f>Лист1!$I13/Лист1!J13</f>
-        <v>1.8600738088003435</v>
-      </c>
-      <c r="D13" s="1">
-        <f>Лист1!$I13/Лист1!K13</f>
-        <v>3.0166627003557585</v>
-      </c>
-      <c r="E13" s="1">
-        <f>Лист1!$I13/Лист1!L13</f>
-        <v>4.5387345257264631</v>
-      </c>
-      <c r="F13" s="1">
-        <f>Лист1!$I13/Лист1!M13</f>
-        <v>3.5019025586679255</v>
-      </c>
-      <c r="G13" s="1">
-        <f>Лист1!$I13/Лист1!N13</f>
-        <v>4.1581009633304271</v>
-      </c>
-      <c r="H13" s="1">
-        <f>Лист1!$I13/Лист1!O13</f>
-        <v>4.9326371501323818</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="str">
-        <f>Лист1!A14</f>
-        <v>6000x6000</v>
-      </c>
-      <c r="B14" s="1">
-        <f>Лист1!G14/Лист1!$G14</f>
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <f>Лист1!$I14/Лист1!J14</f>
-        <v>1.7539771143256453</v>
-      </c>
-      <c r="D14" s="1">
-        <f>Лист1!$I14/Лист1!K14</f>
-        <v>1.8155979209781281</v>
-      </c>
-      <c r="E14" s="1">
-        <f>Лист1!$I14/Лист1!L14</f>
-        <v>4.6022795308138118</v>
-      </c>
-      <c r="F14" s="1">
-        <f>Лист1!$I14/Лист1!M14</f>
-        <v>3.4272686495078339</v>
-      </c>
-      <c r="G14" s="1">
-        <f>Лист1!$I14/Лист1!N14</f>
-        <v>4.3388170861920354</v>
-      </c>
-      <c r="H14" s="1">
-        <f>Лист1!$I14/Лист1!O14</f>
-        <v>4.9129762412273479</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="str">
-        <f>Лист1!A15</f>
-        <v>6500x6500</v>
-      </c>
-      <c r="B15" s="1">
-        <f>Лист1!G15/Лист1!$G15</f>
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <f>Лист1!$I15/Лист1!J15</f>
-        <v>1.2394217061947619</v>
-      </c>
-      <c r="D15" s="1">
-        <f>Лист1!$I15/Лист1!K15</f>
-        <v>3.178372640758214</v>
-      </c>
-      <c r="E15" s="1">
-        <f>Лист1!$I15/Лист1!L15</f>
-        <v>4.3470929870754631</v>
-      </c>
-      <c r="F15" s="1">
-        <f>Лист1!$I15/Лист1!M15</f>
-        <v>3.6042832555021844</v>
-      </c>
-      <c r="G15" s="1">
-        <f>Лист1!$I15/Лист1!N15</f>
-        <v>4.3403235051790627</v>
-      </c>
-      <c r="H15" s="1">
-        <f>Лист1!$I15/Лист1!O15</f>
-        <v>4.6253344035495303</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:H15">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="B2:G8">
+    <cfRule type="cellIs" dxfId="0" priority="17" operator="lessThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/результаты/анализ.xlsx
+++ b/результаты/анализ.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D0C35F-B653-4EC2-A06E-D3C43ECF7109}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29070" windowHeight="15870" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29070" windowHeight="15870" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Gauss" sheetId="2" r:id="rId2"/>
     <sheet name="CG" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -98,7 +99,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -170,6 +174,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -252,7 +259,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -278,7 +284,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="kk-KZ"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -292,15 +298,7 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> сызықты</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Гаусс</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -347,28 +345,28 @@
             <c:numRef>
               <c:f>Лист1!$B$3:$B$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.475E-3</c:v>
+                  <c:v>1.191E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.210065</c:v>
+                  <c:v>0.161298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2059329999999999</c:v>
+                  <c:v>0.94159199999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.718928</c:v>
+                  <c:v>3.101693</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.8584300000000002</c:v>
+                  <c:v>8.1061630000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.326756</c:v>
+                  <c:v>15.273534</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.104293999999999</c:v>
+                  <c:v>27.754460999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -384,15 +382,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> сызықты</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>CG</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -439,28 +429,28 @@
             <c:numRef>
               <c:f>Лист1!$I$3:$I$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.3900000000000002E-3</c:v>
+                  <c:v>8.2939999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.7085999999999997E-2</c:v>
+                  <c:v>0.745695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34353</c:v>
+                  <c:v>6.2957770000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64615999999999996</c:v>
+                  <c:v>33.977130000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.745131</c:v>
+                  <c:v>48.524209999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.965649</c:v>
+                  <c:v>106.80887800000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6155869999999997</c:v>
+                  <c:v>187.146657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -539,7 +529,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="kk-KZ"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="701471648"/>
@@ -570,7 +560,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -598,7 +588,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="kk-KZ"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="701468928"/>
@@ -615,7 +605,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -641,7 +630,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="kk-KZ"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -674,7 +663,7 @@
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="kk-KZ"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -775,7 +764,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="kk-KZ"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -865,19 +854,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.29046868846002361</c:v>
+                  <c:v>0.37125935162094764</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38602460088981938</c:v>
+                  <c:v>0.23157690064164885</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20936834634492546</c:v>
+                  <c:v>0.39872782055574152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18682710576314124</c:v>
+                  <c:v>0.34048027444253859</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17597232164161297</c:v>
+                  <c:v>0.26890946037480246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -959,19 +948,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.7428585651585926</c:v>
+                  <c:v>2.0153684684009296</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4821700722510727</c:v>
+                  <c:v>2.9647097746572069</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3990155659353838</c:v>
+                  <c:v>3.32018690434532</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6464451707462358</c:v>
+                  <c:v>2.7908642616143267</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0693408725975981</c:v>
+                  <c:v>2.9287504085412355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1053,19 +1042,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.9008313052469641</c:v>
+                  <c:v>1.7170554510044205</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9043649780595064</c:v>
+                  <c:v>2.9724690707167003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2263521467402936</c:v>
+                  <c:v>3.5617254996898216</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6247839586883921</c:v>
+                  <c:v>3.3170999788628195</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9046038679095609</c:v>
+                  <c:v>3.4859704785845715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1147,19 +1136,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.7932975952759025</c:v>
+                  <c:v>1.6267199729797202</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9803854941613288</c:v>
+                  <c:v>2.9363667432545397</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5397730084940964</c:v>
+                  <c:v>3.8542700641944876</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6712821008945902</c:v>
+                  <c:v>3.6749307475942339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9372942779493489</c:v>
+                  <c:v>3.7537719944764953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1241,19 +1230,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.8401288567762499</c:v>
+                  <c:v>1.7605815753391485</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0414740373110116</c:v>
+                  <c:v>3.1588442743689065</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7100605693062465</c:v>
+                  <c:v>4.3435638476578937</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7477170200623009</c:v>
+                  <c:v>4.284210364980324</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9600748345392249</c:v>
+                  <c:v>4.3688016918660866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1335,19 +1324,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.8685796394745513</c:v>
+                  <c:v>1.5316252560015138</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0420269837755689</c:v>
+                  <c:v>2.7907162094507929</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6760982357577565</c:v>
+                  <c:v>3.767679017699554</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6636840006377227</c:v>
+                  <c:v>3.6648254799762552</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.990690484163919</c:v>
+                  <c:v>3.5424973489603193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1431,19 +1420,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.8594145841311409</c:v>
+                  <c:v>1.7310381066547249</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0731351869215406</c:v>
+                  <c:v>3.1161731460486819</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6893751469871479</c:v>
+                  <c:v>4.2160892919885757</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7440855927615386</c:v>
+                  <c:v>4.1225706922087317</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8780705009945642</c:v>
+                  <c:v>4.255948399514577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1522,7 +1511,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="kk-KZ"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="701462400"/>
@@ -1582,7 +1571,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="kk-KZ"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="701468384"/>
@@ -1635,7 +1624,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="kk-KZ"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1665,7 +1654,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="kk-KZ"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1770,7 +1759,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="kk-KZ"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1849,22 +1838,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.71685662867426514</c:v>
+                  <c:v>2.6626003210272868</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4251639833035181</c:v>
+                  <c:v>3.303066507367582</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0328435609334485</c:v>
+                  <c:v>4.3515215110178378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71814903846153855</c:v>
+                  <c:v>2.9030451522576124</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.49636552440290765</c:v>
+                  <c:v>3.1692777990064958</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.43644996347699055</c:v>
+                  <c:v>2.5118110236220472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1935,22 +1924,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.0465302093859421</c:v>
+                  <c:v>2.2577046162603054</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1995467039591068</c:v>
+                  <c:v>4.2422061667994084</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1737838485502028</c:v>
+                  <c:v>4.3896688741721857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5781726422037634</c:v>
+                  <c:v>3.704856539560303</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2237358406752055</c:v>
+                  <c:v>4.8606077592949886</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3717670744927983</c:v>
+                  <c:v>5.8077291525502925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2021,22 +2010,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.9507444549181723</c:v>
+                  <c:v>2.0120442499228997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5210250539386201</c:v>
+                  <c:v>3.9295434615036529</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6939106872116905</c:v>
+                  <c:v>4.035255253676949</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0354999001491896</c:v>
+                  <c:v>4.0955921384744292</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2907996302865286</c:v>
+                  <c:v>4.6981026335976983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0532600231257527</c:v>
+                  <c:v>4.856863262421852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2107,22 +2096,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.9244010816863821</c:v>
+                  <c:v>2.2970970704873541</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9367705341235499</c:v>
+                  <c:v>5.8186353856344635</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5782874990308895</c:v>
+                  <c:v>7.6795529661558071</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9065560687770549</c:v>
+                  <c:v>6.0647692819013646</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8070585259524314</c:v>
+                  <c:v>4.2563487965341027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.541864225614602</c:v>
+                  <c:v>7.2328776746398962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2193,22 +2182,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.775304067938686</c:v>
+                  <c:v>1.7516116172166893</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0211133135403232</c:v>
+                  <c:v>3.249158937917187</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4720683617842507</c:v>
+                  <c:v>3.9266840347207865</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5626115146392947</c:v>
+                  <c:v>3.2707912808216006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8754938385383935</c:v>
+                  <c:v>3.9047071780026656</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3009211621396681</c:v>
+                  <c:v>4.4248866791097443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2279,22 +2268,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.8049481883259713</c:v>
+                  <c:v>1.9008741300931273</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9877493821799854</c:v>
+                  <c:v>3.4875761345933149</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.481323529066505</c:v>
+                  <c:v>2.6845030363654327</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6798807309510133</c:v>
+                  <c:v>3.1857501548077281</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2368230067002877</c:v>
+                  <c:v>3.530591536811142</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.394231869726644</c:v>
+                  <c:v>4.6462027148968552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2367,22 +2356,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.8157079340567599</c:v>
+                  <c:v>1.8220915336219135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7770803795424501</c:v>
+                  <c:v>3.3214064109985793</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2646066429399432</c:v>
+                  <c:v>2.643956195976557</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4865606051763338</c:v>
+                  <c:v>3.3883862909036364</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1750955376128234</c:v>
+                  <c:v>3.6808651405066297</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3310774538398888</c:v>
+                  <c:v>2.875191315405933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2461,7 +2450,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="kk-KZ"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="701462400"/>
@@ -2521,7 +2510,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="kk-KZ"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="701468384"/>
@@ -2574,7 +2563,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="kk-KZ"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2604,7 +2593,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="kk-KZ"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4300,7 +4289,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4335,7 +4330,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4372,7 +4373,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4654,11 +4661,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4669,70 +4676,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4740,329 +4747,329 @@
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3">
-        <v>1.475E-3</v>
-      </c>
-      <c r="C3" s="3">
-        <v>5.078E-3</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3.8210000000000002E-3</v>
-      </c>
-      <c r="E3" s="3">
-        <v>7.045E-3</v>
-      </c>
-      <c r="F3" s="3">
-        <v>7.8949999999999992E-3</v>
-      </c>
-      <c r="G3" s="3">
-        <v>8.3820000000000006E-3</v>
-      </c>
-      <c r="H3" s="3">
-        <v>9.7719999999999994E-3</v>
-      </c>
-      <c r="I3" s="3">
-        <v>2.3900000000000002E-3</v>
-      </c>
-      <c r="J3" s="3">
-        <v>3.3340000000000002E-3</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1.6770000000000001E-3</v>
-      </c>
-      <c r="L3" s="3">
-        <v>2.3140000000000001E-3</v>
-      </c>
-      <c r="M3" s="3">
-        <v>3.3279999999999998E-3</v>
-      </c>
-      <c r="N3" s="3">
-        <v>4.8149999999999998E-3</v>
-      </c>
-      <c r="O3" s="3">
-        <v>5.476E-3</v>
+      <c r="B3" s="6">
+        <v>1.191E-3</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3.2079999999999999E-3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>5.143E-3</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2.9870000000000001E-3</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3.4979999999999998E-3</v>
+      </c>
+      <c r="G3" s="6">
+        <v>4.4289999999999998E-3</v>
+      </c>
+      <c r="H3" s="6">
+        <v>4.3080000000000002E-3</v>
+      </c>
+      <c r="I3" s="6">
+        <v>8.2939999999999993E-3</v>
+      </c>
+      <c r="J3" s="6">
+        <v>3.1150000000000001E-3</v>
+      </c>
+      <c r="K3" s="6">
+        <v>2.5110000000000002E-3</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1.9059999999999999E-3</v>
+      </c>
+      <c r="M3" s="6">
+        <v>2.8570000000000002E-3</v>
+      </c>
+      <c r="N3" s="6">
+        <v>2.617E-3</v>
+      </c>
+      <c r="O3" s="6">
+        <v>3.3019999999999998E-3</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.210065</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.120529</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.14172799999999999</v>
-      </c>
-      <c r="E4" s="3">
-        <v>8.7563000000000002E-2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.12758700000000001</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.10151300000000001</v>
-      </c>
-      <c r="H4" s="3">
-        <v>9.3654000000000001E-2</v>
-      </c>
-      <c r="I4" s="3">
-        <v>8.7085999999999997E-2</v>
-      </c>
-      <c r="J4" s="3">
-        <v>4.2553000000000001E-2</v>
-      </c>
-      <c r="K4" s="3">
-        <v>2.0736999999999998E-2</v>
-      </c>
-      <c r="L4" s="3">
-        <v>2.0865000000000002E-2</v>
-      </c>
-      <c r="M4" s="3">
-        <v>1.9022000000000001E-2</v>
-      </c>
-      <c r="N4" s="3">
-        <v>2.7014E-2</v>
-      </c>
-      <c r="O4" s="3">
-        <v>2.5828E-2</v>
+      <c r="B4" s="6">
+        <v>0.161298</v>
+      </c>
+      <c r="C4" s="6">
+        <v>8.0033999999999994E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5.4406000000000003E-2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4.8580999999999999E-2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>5.7794999999999999E-2</v>
+      </c>
+      <c r="G4" s="6">
+        <v>5.5073999999999998E-2</v>
+      </c>
+      <c r="H4" s="6">
+        <v>5.6381000000000001E-2</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.745695</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.330289</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.17577999999999999</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.169875</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0.20127500000000001</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0.153416</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0.12839700000000001</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3">
-        <v>1.2059329999999999</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.63442399999999999</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.41521400000000003</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.373776</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.33269100000000001</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.30884899999999998</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.333401</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0.34353</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.17610200000000001</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0.136266</v>
-      </c>
-      <c r="L5" s="3">
-        <v>9.2998999999999998E-2</v>
-      </c>
-      <c r="M5" s="3">
-        <v>8.5126999999999994E-2</v>
-      </c>
-      <c r="N5" s="3">
-        <v>8.0061999999999994E-2</v>
-      </c>
-      <c r="O5" s="3">
-        <v>8.4753999999999996E-2</v>
+      <c r="B5" s="6">
+        <v>0.94159199999999998</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.54837599999999997</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.31677100000000002</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.26436399999999999</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.28386</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.27010899999999999</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.27449000000000001</v>
+      </c>
+      <c r="I5" s="6">
+        <v>6.2957770000000002</v>
+      </c>
+      <c r="J5" s="6">
+        <v>3.1290450000000001</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1.6021650000000001</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1.5601929999999999</v>
+      </c>
+      <c r="M5" s="6">
+        <v>1.5372079999999999</v>
+      </c>
+      <c r="N5" s="6">
+        <v>1.340068</v>
+      </c>
+      <c r="O5" s="6">
+        <v>1.2962640000000001</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3">
-        <v>3.718928</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2.0737930000000002</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1.2478009999999999</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1.0506120000000001</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1.0129779999999999</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.94453900000000002</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.95143699999999998</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.64615999999999996</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.33577200000000001</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.220024</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.18057799999999999</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0.165404</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0.13441900000000001</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0.18243500000000001</v>
+      <c r="B6" s="6">
+        <v>3.101693</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.9067160000000001</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1.056303</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.80474199999999996</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.84401400000000004</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.82628699999999999</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.79518999999999995</v>
+      </c>
+      <c r="I6" s="6">
+        <v>33.977130000000002</v>
+      </c>
+      <c r="J6" s="6">
+        <v>14.791334000000001</v>
+      </c>
+      <c r="K6" s="6">
+        <v>5.8393639999999998</v>
+      </c>
+      <c r="L6" s="6">
+        <v>4.4243629999999996</v>
+      </c>
+      <c r="M6" s="6">
+        <v>5.6023779999999999</v>
+      </c>
+      <c r="N6" s="6">
+        <v>7.9826940000000004</v>
+      </c>
+      <c r="O6" s="6">
+        <v>4.6975949999999997</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3">
-        <v>8.8584300000000002</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4.8140270000000003</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2.9125450000000002</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.3876780000000002</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2.3636870000000001</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2.2369349999999999</v>
-      </c>
-      <c r="H7" s="3">
-        <v>2.250397</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1.745131</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0.98300399999999999</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0.57764499999999996</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0.50261999999999996</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0.489846</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0.450299</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0.52868000000000004</v>
+      <c r="B7" s="6">
+        <v>8.1061630000000005</v>
+      </c>
+      <c r="C7" s="6">
+        <v>4.6042529999999999</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2.5661800000000001</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1.866247</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1.892102</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1.8554660000000001</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1.824149</v>
+      </c>
+      <c r="I7" s="6">
+        <v>48.524209999999997</v>
+      </c>
+      <c r="J7" s="6">
+        <v>27.702608000000001</v>
+      </c>
+      <c r="K7" s="6">
+        <v>14.934391</v>
+      </c>
+      <c r="L7" s="6">
+        <v>12.357554</v>
+      </c>
+      <c r="M7" s="6">
+        <v>14.835618</v>
+      </c>
+      <c r="N7" s="6">
+        <v>12.427106</v>
+      </c>
+      <c r="O7" s="6">
+        <v>10.966203999999999</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3">
-        <v>17.326756</v>
-      </c>
-      <c r="C8" s="3">
-        <v>9.2726880000000005</v>
-      </c>
-      <c r="D8" s="3">
-        <v>5.6957930000000001</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4.713355</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4.7293260000000004</v>
-      </c>
-      <c r="G8" s="3">
-        <v>4.3417940000000002</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4.4057940000000002</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2.965649</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1.6430659999999999</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0.99260300000000001</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0.85187400000000002</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0.80590899999999999</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0.69996999999999998</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0.87373199999999995</v>
+      <c r="B8" s="6">
+        <v>15.273534</v>
+      </c>
+      <c r="C8" s="6">
+        <v>9.9721089999999997</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5.4729799999999997</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4.0538309999999997</v>
+      </c>
+      <c r="F8" s="6">
+        <v>4.1676019999999996</v>
+      </c>
+      <c r="G8" s="6">
+        <v>4.3115160000000001</v>
+      </c>
+      <c r="H8" s="6">
+        <v>3.9398219999999999</v>
+      </c>
+      <c r="I8" s="6">
+        <v>106.80887800000001</v>
+      </c>
+      <c r="J8" s="6">
+        <v>56.189348000000003</v>
+      </c>
+      <c r="K8" s="6">
+        <v>30.625533000000001</v>
+      </c>
+      <c r="L8" s="6">
+        <v>39.787207000000002</v>
+      </c>
+      <c r="M8" s="6">
+        <v>33.527073000000001</v>
+      </c>
+      <c r="N8" s="6">
+        <v>30.252403000000001</v>
+      </c>
+      <c r="O8" s="6">
+        <v>22.988423999999998</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3">
-        <v>30.104293999999999</v>
-      </c>
-      <c r="C9" s="3">
-        <v>16.190200000000001</v>
-      </c>
-      <c r="D9" s="3">
-        <v>9.7959549999999993</v>
-      </c>
-      <c r="E9" s="3">
-        <v>8.1597270000000002</v>
-      </c>
-      <c r="F9" s="3">
-        <v>8.0404929999999997</v>
-      </c>
-      <c r="G9" s="3">
-        <v>7.7626989999999996</v>
-      </c>
-      <c r="H9" s="3">
-        <v>7.6869930000000002</v>
-      </c>
-      <c r="I9" s="3">
-        <v>5.6155869999999997</v>
-      </c>
-      <c r="J9" s="3">
-        <v>3.092781</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2.022119</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1.7201420000000001</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1.610638</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1.3450200000000001</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1.6858169999999999</v>
+      <c r="B9" s="6">
+        <v>27.754460999999999</v>
+      </c>
+      <c r="C9" s="6">
+        <v>16.03342</v>
+      </c>
+      <c r="D9" s="6">
+        <v>8.9065849999999998</v>
+      </c>
+      <c r="E9" s="6">
+        <v>6.5829870000000001</v>
+      </c>
+      <c r="F9" s="6">
+        <v>6.7323190000000004</v>
+      </c>
+      <c r="G9" s="6">
+        <v>6.5213340000000004</v>
+      </c>
+      <c r="H9" s="6">
+        <v>6.2795490000000003</v>
+      </c>
+      <c r="I9" s="6">
+        <v>187.146657</v>
+      </c>
+      <c r="J9" s="6">
+        <v>102.7098</v>
+      </c>
+      <c r="K9" s="6">
+        <v>56.345605999999997</v>
+      </c>
+      <c r="L9" s="6">
+        <v>70.782813000000004</v>
+      </c>
+      <c r="M9" s="6">
+        <v>55.231794999999998</v>
+      </c>
+      <c r="N9" s="6">
+        <v>50.843116999999999</v>
+      </c>
+      <c r="O9" s="6">
+        <v>65.090158000000002</v>
       </c>
     </row>
   </sheetData>
@@ -5148,11 +5155,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5193,27 +5200,27 @@
       </c>
       <c r="B2" s="1">
         <f>Лист1!$B3/Лист1!C3</f>
-        <v>0.29046868846002361</v>
+        <v>0.37125935162094764</v>
       </c>
       <c r="C2" s="1">
         <f>Лист1!$B3/Лист1!D3</f>
-        <v>0.38602460088981938</v>
+        <v>0.23157690064164885</v>
       </c>
       <c r="D2" s="1">
         <f>Лист1!$B3/Лист1!E3</f>
-        <v>0.20936834634492546</v>
+        <v>0.39872782055574152</v>
       </c>
       <c r="E2" s="1">
         <f>Лист1!$B3/Лист1!F3</f>
-        <v>0.18682710576314124</v>
+        <v>0.34048027444253859</v>
       </c>
       <c r="F2" s="1">
         <f>Лист1!$B3/Лист1!G3</f>
-        <v>0.17597232164161297</v>
+        <v>0.26890946037480246</v>
       </c>
       <c r="G2" s="1">
         <f>Лист1!$B3/Лист1!H3</f>
-        <v>0.15094146541137946</v>
+        <v>0.27646239554317548</v>
       </c>
       <c r="H2" s="1">
         <f>Лист1!B3/Лист1!$B3</f>
@@ -5227,27 +5234,27 @@
       </c>
       <c r="B3" s="1">
         <f>Лист1!$B4/Лист1!C4</f>
-        <v>1.7428585651585926</v>
+        <v>2.0153684684009296</v>
       </c>
       <c r="C3" s="1">
         <f>Лист1!$B4/Лист1!D4</f>
-        <v>1.4821700722510727</v>
+        <v>2.9647097746572069</v>
       </c>
       <c r="D3" s="1">
         <f>Лист1!$B4/Лист1!E4</f>
-        <v>2.3990155659353838</v>
+        <v>3.32018690434532</v>
       </c>
       <c r="E3" s="1">
         <f>Лист1!$B4/Лист1!F4</f>
-        <v>1.6464451707462358</v>
+        <v>2.7908642616143267</v>
       </c>
       <c r="F3" s="1">
         <f>Лист1!$B4/Лист1!G4</f>
-        <v>2.0693408725975981</v>
+        <v>2.9287504085412355</v>
       </c>
       <c r="G3" s="1">
         <f>Лист1!$B4/Лист1!H4</f>
-        <v>2.2429901552523117</v>
+        <v>2.8608573810326172</v>
       </c>
       <c r="H3" s="1">
         <f>Лист1!B4/Лист1!$B4</f>
@@ -5261,27 +5268,27 @@
       </c>
       <c r="B4" s="1">
         <f>Лист1!$B5/Лист1!C5</f>
-        <v>1.9008313052469641</v>
+        <v>1.7170554510044205</v>
       </c>
       <c r="C4" s="1">
         <f>Лист1!$B5/Лист1!D5</f>
-        <v>2.9043649780595064</v>
+        <v>2.9724690707167003</v>
       </c>
       <c r="D4" s="1">
         <f>Лист1!$B5/Лист1!E5</f>
-        <v>3.2263521467402936</v>
+        <v>3.5617254996898216</v>
       </c>
       <c r="E4" s="1">
         <f>Лист1!$B5/Лист1!F5</f>
-        <v>3.6247839586883921</v>
+        <v>3.3170999788628195</v>
       </c>
       <c r="F4" s="1">
         <f>Лист1!$B5/Лист1!G5</f>
-        <v>3.9046038679095609</v>
+        <v>3.4859704785845715</v>
       </c>
       <c r="G4" s="1">
         <f>Лист1!$B5/Лист1!H5</f>
-        <v>3.6170647358586203</v>
+        <v>3.4303326168530726</v>
       </c>
       <c r="H4" s="1">
         <f>Лист1!B5/Лист1!$B5</f>
@@ -5295,27 +5302,27 @@
       </c>
       <c r="B5" s="1">
         <f>Лист1!$B6/Лист1!C6</f>
-        <v>1.7932975952759025</v>
+        <v>1.6267199729797202</v>
       </c>
       <c r="C5" s="1">
         <f>Лист1!$B6/Лист1!D6</f>
-        <v>2.9803854941613288</v>
+        <v>2.9363667432545397</v>
       </c>
       <c r="D5" s="1">
         <f>Лист1!$B6/Лист1!E6</f>
-        <v>3.5397730084940964</v>
+        <v>3.8542700641944876</v>
       </c>
       <c r="E5" s="1">
         <f>Лист1!$B6/Лист1!F6</f>
-        <v>3.6712821008945902</v>
+        <v>3.6749307475942339</v>
       </c>
       <c r="F5" s="1">
         <f>Лист1!$B6/Лист1!G6</f>
-        <v>3.9372942779493489</v>
+        <v>3.7537719944764953</v>
       </c>
       <c r="G5" s="1">
         <f>Лист1!$B6/Лист1!H6</f>
-        <v>3.9087485561314099</v>
+        <v>3.9005684176108857</v>
       </c>
       <c r="H5" s="1">
         <f>Лист1!B6/Лист1!$B6</f>
@@ -5329,27 +5336,27 @@
       </c>
       <c r="B6" s="1">
         <f>Лист1!$B7/Лист1!C7</f>
-        <v>1.8401288567762499</v>
+        <v>1.7605815753391485</v>
       </c>
       <c r="C6" s="1">
         <f>Лист1!$B7/Лист1!D7</f>
-        <v>3.0414740373110116</v>
+        <v>3.1588442743689065</v>
       </c>
       <c r="D6" s="1">
         <f>Лист1!$B7/Лист1!E7</f>
-        <v>3.7100605693062465</v>
+        <v>4.3435638476578937</v>
       </c>
       <c r="E6" s="1">
         <f>Лист1!$B7/Лист1!F7</f>
-        <v>3.7477170200623009</v>
+        <v>4.284210364980324</v>
       </c>
       <c r="F6" s="1">
         <f>Лист1!$B7/Лист1!G7</f>
-        <v>3.9600748345392249</v>
+        <v>4.3688016918660866</v>
       </c>
       <c r="G6" s="1">
         <f>Лист1!$B7/Лист1!H7</f>
-        <v>3.9363854466567454</v>
+        <v>4.4438053031852114</v>
       </c>
       <c r="H6" s="1">
         <f>Лист1!B7/Лист1!$B7</f>
@@ -5363,27 +5370,27 @@
       </c>
       <c r="B7" s="1">
         <f>Лист1!$B8/Лист1!C8</f>
-        <v>1.8685796394745513</v>
+        <v>1.5316252560015138</v>
       </c>
       <c r="C7" s="1">
         <f>Лист1!$B8/Лист1!D8</f>
-        <v>3.0420269837755689</v>
+        <v>2.7907162094507929</v>
       </c>
       <c r="D7" s="1">
         <f>Лист1!$B8/Лист1!E8</f>
-        <v>3.6760982357577565</v>
+        <v>3.767679017699554</v>
       </c>
       <c r="E7" s="1">
         <f>Лист1!$B8/Лист1!F8</f>
-        <v>3.6636840006377227</v>
+        <v>3.6648254799762552</v>
       </c>
       <c r="F7" s="1">
         <f>Лист1!$B8/Лист1!G8</f>
-        <v>3.990690484163919</v>
+        <v>3.5424973489603193</v>
       </c>
       <c r="G7" s="1">
         <f>Лист1!$B8/Лист1!H8</f>
-        <v>3.9327204131650273</v>
+        <v>3.8767066126337686</v>
       </c>
       <c r="H7" s="1">
         <f>Лист1!B8/Лист1!$B8</f>
@@ -5397,27 +5404,27 @@
       </c>
       <c r="B8" s="1">
         <f>Лист1!$B9/Лист1!C9</f>
-        <v>1.8594145841311409</v>
+        <v>1.7310381066547249</v>
       </c>
       <c r="C8" s="1">
         <f>Лист1!$B9/Лист1!D9</f>
-        <v>3.0731351869215406</v>
+        <v>3.1161731460486819</v>
       </c>
       <c r="D8" s="1">
         <f>Лист1!$B9/Лист1!E9</f>
-        <v>3.6893751469871479</v>
+        <v>4.2160892919885757</v>
       </c>
       <c r="E8" s="1">
         <f>Лист1!$B9/Лист1!F9</f>
-        <v>3.7440855927615386</v>
+        <v>4.1225706922087317</v>
       </c>
       <c r="F8" s="1">
         <f>Лист1!$B9/Лист1!G9</f>
-        <v>3.8780705009945642</v>
+        <v>4.255948399514577</v>
       </c>
       <c r="G8" s="1">
         <f>Лист1!$B9/Лист1!H9</f>
-        <v>3.9162640059643605</v>
+        <v>4.4198175697012632</v>
       </c>
       <c r="H8" s="1">
         <f>Лист1!B9/Лист1!$B9</f>
@@ -5444,11 +5451,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5486,27 +5493,27 @@
       </c>
       <c r="B2" s="1">
         <f>Лист1!$I3/Лист1!J3</f>
-        <v>0.71685662867426514</v>
+        <v>2.6626003210272868</v>
       </c>
       <c r="C2" s="1">
         <f>Лист1!$I3/Лист1!K3</f>
-        <v>1.4251639833035181</v>
+        <v>3.303066507367582</v>
       </c>
       <c r="D2" s="1">
         <f>Лист1!$I3/Лист1!L3</f>
-        <v>1.0328435609334485</v>
+        <v>4.3515215110178378</v>
       </c>
       <c r="E2" s="1">
         <f>Лист1!$I3/Лист1!M3</f>
-        <v>0.71814903846153855</v>
+        <v>2.9030451522576124</v>
       </c>
       <c r="F2" s="1">
         <f>Лист1!$I3/Лист1!N3</f>
-        <v>0.49636552440290765</v>
+        <v>3.1692777990064958</v>
       </c>
       <c r="G2" s="1">
         <f>Лист1!$I3/Лист1!O3</f>
-        <v>0.43644996347699055</v>
+        <v>2.5118110236220472</v>
       </c>
       <c r="H2" s="1">
         <f>Лист1!G3/Лист1!$G3</f>
@@ -5520,27 +5527,27 @@
       </c>
       <c r="B3" s="1">
         <f>Лист1!$I4/Лист1!J4</f>
-        <v>2.0465302093859421</v>
+        <v>2.2577046162603054</v>
       </c>
       <c r="C3" s="1">
         <f>Лист1!$I4/Лист1!K4</f>
-        <v>4.1995467039591068</v>
+        <v>4.2422061667994084</v>
       </c>
       <c r="D3" s="1">
         <f>Лист1!$I4/Лист1!L4</f>
-        <v>4.1737838485502028</v>
+        <v>4.3896688741721857</v>
       </c>
       <c r="E3" s="1">
         <f>Лист1!$I4/Лист1!M4</f>
-        <v>4.5781726422037634</v>
+        <v>3.704856539560303</v>
       </c>
       <c r="F3" s="1">
         <f>Лист1!$I4/Лист1!N4</f>
-        <v>3.2237358406752055</v>
+        <v>4.8606077592949886</v>
       </c>
       <c r="G3" s="1">
         <f>Лист1!$I4/Лист1!O4</f>
-        <v>3.3717670744927983</v>
+        <v>5.8077291525502925</v>
       </c>
       <c r="H3" s="1">
         <f>Лист1!G4/Лист1!$G4</f>
@@ -5554,27 +5561,27 @@
       </c>
       <c r="B4" s="1">
         <f>Лист1!$I5/Лист1!J5</f>
-        <v>1.9507444549181723</v>
+        <v>2.0120442499228997</v>
       </c>
       <c r="C4" s="1">
         <f>Лист1!$I5/Лист1!K5</f>
-        <v>2.5210250539386201</v>
+        <v>3.9295434615036529</v>
       </c>
       <c r="D4" s="1">
         <f>Лист1!$I5/Лист1!L5</f>
-        <v>3.6939106872116905</v>
+        <v>4.035255253676949</v>
       </c>
       <c r="E4" s="1">
         <f>Лист1!$I5/Лист1!M5</f>
-        <v>4.0354999001491896</v>
+        <v>4.0955921384744292</v>
       </c>
       <c r="F4" s="1">
         <f>Лист1!$I5/Лист1!N5</f>
-        <v>4.2907996302865286</v>
+        <v>4.6981026335976983</v>
       </c>
       <c r="G4" s="1">
         <f>Лист1!$I5/Лист1!O5</f>
-        <v>4.0532600231257527</v>
+        <v>4.856863262421852</v>
       </c>
       <c r="H4" s="1">
         <f>Лист1!G5/Лист1!$G5</f>
@@ -5588,27 +5595,27 @@
       </c>
       <c r="B5" s="1">
         <f>Лист1!$I6/Лист1!J6</f>
-        <v>1.9244010816863821</v>
+        <v>2.2970970704873541</v>
       </c>
       <c r="C5" s="1">
         <f>Лист1!$I6/Лист1!K6</f>
-        <v>2.9367705341235499</v>
+        <v>5.8186353856344635</v>
       </c>
       <c r="D5" s="1">
         <f>Лист1!$I6/Лист1!L6</f>
-        <v>3.5782874990308895</v>
+        <v>7.6795529661558071</v>
       </c>
       <c r="E5" s="1">
         <f>Лист1!$I6/Лист1!M6</f>
-        <v>3.9065560687770549</v>
+        <v>6.0647692819013646</v>
       </c>
       <c r="F5" s="1">
         <f>Лист1!$I6/Лист1!N6</f>
-        <v>4.8070585259524314</v>
+        <v>4.2563487965341027</v>
       </c>
       <c r="G5" s="1">
         <f>Лист1!$I6/Лист1!O6</f>
-        <v>3.541864225614602</v>
+        <v>7.2328776746398962</v>
       </c>
       <c r="H5" s="1">
         <f>Лист1!G6/Лист1!$G6</f>
@@ -5622,27 +5629,27 @@
       </c>
       <c r="B6" s="1">
         <f>Лист1!$I7/Лист1!J7</f>
-        <v>1.775304067938686</v>
+        <v>1.7516116172166893</v>
       </c>
       <c r="C6" s="1">
         <f>Лист1!$I7/Лист1!K7</f>
-        <v>3.0211133135403232</v>
+        <v>3.249158937917187</v>
       </c>
       <c r="D6" s="1">
         <f>Лист1!$I7/Лист1!L7</f>
-        <v>3.4720683617842507</v>
+        <v>3.9266840347207865</v>
       </c>
       <c r="E6" s="1">
         <f>Лист1!$I7/Лист1!M7</f>
-        <v>3.5626115146392947</v>
+        <v>3.2707912808216006</v>
       </c>
       <c r="F6" s="1">
         <f>Лист1!$I7/Лист1!N7</f>
-        <v>3.8754938385383935</v>
+        <v>3.9047071780026656</v>
       </c>
       <c r="G6" s="1">
         <f>Лист1!$I7/Лист1!O7</f>
-        <v>3.3009211621396681</v>
+        <v>4.4248866791097443</v>
       </c>
       <c r="H6" s="1">
         <f>Лист1!G7/Лист1!$G7</f>
@@ -5656,27 +5663,27 @@
       </c>
       <c r="B7" s="1">
         <f>Лист1!$I8/Лист1!J8</f>
-        <v>1.8049481883259713</v>
+        <v>1.9008741300931273</v>
       </c>
       <c r="C7" s="1">
         <f>Лист1!$I8/Лист1!K8</f>
-        <v>2.9877493821799854</v>
+        <v>3.4875761345933149</v>
       </c>
       <c r="D7" s="1">
         <f>Лист1!$I8/Лист1!L8</f>
-        <v>3.481323529066505</v>
+        <v>2.6845030363654327</v>
       </c>
       <c r="E7" s="1">
         <f>Лист1!$I8/Лист1!M8</f>
-        <v>3.6798807309510133</v>
+        <v>3.1857501548077281</v>
       </c>
       <c r="F7" s="1">
         <f>Лист1!$I8/Лист1!N8</f>
-        <v>4.2368230067002877</v>
+        <v>3.530591536811142</v>
       </c>
       <c r="G7" s="1">
         <f>Лист1!$I8/Лист1!O8</f>
-        <v>3.394231869726644</v>
+        <v>4.6462027148968552</v>
       </c>
       <c r="H7" s="1">
         <f>Лист1!G8/Лист1!$G8</f>
@@ -5690,27 +5697,27 @@
       </c>
       <c r="B8" s="1">
         <f>Лист1!$I9/Лист1!J9</f>
-        <v>1.8157079340567599</v>
+        <v>1.8220915336219135</v>
       </c>
       <c r="C8" s="1">
         <f>Лист1!$I9/Лист1!K9</f>
-        <v>2.7770803795424501</v>
+        <v>3.3214064109985793</v>
       </c>
       <c r="D8" s="1">
         <f>Лист1!$I9/Лист1!L9</f>
-        <v>3.2646066429399432</v>
+        <v>2.643956195976557</v>
       </c>
       <c r="E8" s="1">
         <f>Лист1!$I9/Лист1!M9</f>
-        <v>3.4865606051763338</v>
+        <v>3.3883862909036364</v>
       </c>
       <c r="F8" s="1">
         <f>Лист1!$I9/Лист1!N9</f>
-        <v>4.1750955376128234</v>
+        <v>3.6808651405066297</v>
       </c>
       <c r="G8" s="1">
         <f>Лист1!$I9/Лист1!O9</f>
-        <v>3.3310774538398888</v>
+        <v>2.875191315405933</v>
       </c>
       <c r="H8" s="1">
         <f>Лист1!G9/Лист1!$G9</f>
